--- a/요구사항정의서.xlsx
+++ b/요구사항정의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jung\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\602-01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CFF1A81-D4B8-4229-B569-230C2BB8438C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F42B896-5E36-4923-880F-41ED1005D0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="2385" windowWidth="18240" windowHeight="14295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="222">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -527,6 +527,386 @@
     <t>고캠핑 API 이미지 조회 기능 도입</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
+  <si>
+    <t>관리자 페이지 구현(회원 목록, QnA, 1:1문의 게시판)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지 구현(공지사항 게시판, 이벤트 게시판)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지 구현(예약 목록)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지 구현(채팅방 관리)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 구현(내정보)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 구현(내 캠핑장 목록)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 구현(내 북마크, 내 리뷰, 회원 탈퇴)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객센터 페이지(QnA, 1:1문의 작성, 1:1문의 내역)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">캠핑 관련 네이버 검색 API를 통한 기사 리스트.   </t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>전선아</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트의 만족도 조사 구글 폼 구현하여 QR 제작</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 구현(Dicebear API를 이용한 랜덤 프로필 이미지)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객센터</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목, 내용, 전화번호, 이메일</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공/실패 메시지</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1:1 문의 작성	</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 제목, 내용, 전화번호를 입력하고 이메일은 자동으로 입력된 상태에서 1:1 문의를 작성함</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 ID</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의 목록</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인이 작성한 문의 목록 보기</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 작성한 1:1 문의 목록을 조회함</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의 ID</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의 세부사항</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의 세부사항 보기</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 문의의 세부 사항을 가져와 모델에 추가하고 세부 사항 페이지를 반환. 답변 대기 및 답변 완료로 구분</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA ID</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA 세부사항</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA 세부 사항 보기</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 QnA의 세부 사항을 조회하고 페이지에 표시</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 목록</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 ID</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 질문 답변 목록 보기</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 관리자 질문의 세부 사항을 가져와 모델에 추가하고 세부 사항 페이지를 반환</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색어</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 결과</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목을 통한 QnA 검색</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 입력한 제목을 기반으로 QnA를 검색하여 결과를 페이지에 표시</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>QR 코드</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸터</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>만족도 조사 생성</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글 폼을 제작하여 QR 코드로 변환 후 푸터에 추가</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 이미지</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장된 프로필 이미지</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 이미지 설정</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 로드 시 로컬 스토리지에 저장된 프로필 이미지를 설정하고, 랜덤 프로필 이미지를 설정 (Dicebear API 사용)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정보</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 정보</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장한 데이터를 조회하여 페이지에 표시</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>북마크한 리뷰 목록</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 북마크한 리뷰</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 북마크한 리뷰 목록을 조회하고, 클릭 시 상세보기 화면으로 이동</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 캠핑장 목록</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>받은 추천 기록</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 검색 이력을 기반으로 추천 캠핑장을 조회하고 모델에 추가하여 추천 페이지에 전달</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성한 리뷰 목록</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 리뷰</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 작성한 리뷰를 조회하고 모델에 추가하여 방명록 페이지에 전달</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 탈퇴</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 탈퇴 요청을 처리하고 세션을 무효화하며 DB에서 회원 정보를 삭제</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색어 "캠핑"</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버 OPEN API(검색) 을 통하여 뉴스서비스 구현</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어진 검색어 "캠핑"을 인코딩하여 Naver 뉴스 API에 요청하고 결과를 JSON으로 포맷팅하여 반환</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 목록</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 관리</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB에 있는 회원 목록을 조회하고 관리</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA ID, 질문 내용</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA 관리</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA 글 작성, 읽기, 수정, 삭제</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항/이벤트 정보</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 관리</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항/이벤트 글 작성, 파일 첨부, 읽기, 수정</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 정보</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 관리</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이 신청한 캠핑장 예약을 처리하고 대기/불가/확정을 지정하여 회원에게 전송</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>정영훈</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>배재천</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>정영훈 / 배재천</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 데이터</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속한 시간의 일기예보 조회</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 접속한 위치의 날짜와 시간을 기반으로 기상청 공공데이터 API를 통해 현재 온도, 오늘 최고, 최저온도, 습도, 하늘상태를 화면에 표시.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>온도 그래프</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속한 날짜를 기반으로 오늘, 내일, 모레의 기온을 기상청 API에 요청해서 데이터 반환 &gt; 받은 데이터를 그래프화 해서 화면에 구현.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>일기예보 영상</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>유튜브 API를 통하여 최신 일기예보 조회</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>유튜브 API를 통해 "오늘비와"채널의 일기예보영상 리스트 요청 &gt; 최신순으로 정렬한 동영상을 10개 반환 &gt; 반환된 리스트를 화면에 구현.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 오류 수정</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>오세현</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>기상청 API로 날씨 정보 구현</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>유튜브 API로 일기예보 영상 구현</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 데이터 그래프 구현</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 그래프 오류 수정</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠핑장 추천 관련 페이지에 뒤로가기 및 홈버튼 구현</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>소개페이지 내용 수정</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -536,7 +916,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;-&quot;m&quot;-&quot;d"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -716,13 +1096,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0D0D0D"/>
-      <name val="Segoe UI"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
@@ -736,13 +1109,6 @@
       <color theme="1"/>
       <name val="Gulimche"/>
       <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0D0D0D"/>
-      <name val="Malgun Gothic"/>
-      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -832,7 +1198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -929,7 +1295,9 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -940,39 +1308,17 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -982,25 +1328,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1107,21 +1440,15 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="15" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1144,9 +1471,6 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="15" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1161,12 +1485,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="15" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1189,9 +1507,6 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="15" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1213,9 +1528,6 @@
     <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="15" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1234,14 +1546,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="15" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1261,23 +1567,11 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="15" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1291,20 +1585,11 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="15" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1342,14 +1627,18 @@
     <xf numFmtId="176" fontId="12" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1358,110 +1647,11 @@
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1494,6 +1684,138 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1763,10 +2085,10 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="9.3984375" customWidth="1"/>
-    <col min="12" max="12" width="15.19921875" customWidth="1"/>
+    <col min="1" max="11" width="9.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" customWidth="1"/>
     <col min="13" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1884,9 +2206,9 @@
     </row>
     <row r="5" spans="1:26" ht="28.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -29783,32 +30105,32 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:Z1017"/>
+  <dimension ref="A1:Z1034"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.69921875" customWidth="1"/>
-    <col min="2" max="2" width="10.19921875" customWidth="1"/>
-    <col min="3" max="3" width="13.09765625" customWidth="1"/>
-    <col min="4" max="4" width="61.59765625" customWidth="1"/>
-    <col min="5" max="5" width="14.8984375" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="61.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
     <col min="7" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -29943,7 +30265,9 @@
       <c r="D5" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="22" t="s">
+        <v>203</v>
+      </c>
       <c r="F5" s="22"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
@@ -29966,18 +30290,16 @@
       <c r="Y5" s="25"/>
       <c r="Z5" s="25"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="22">
-        <v>3</v>
+    <row r="6" spans="1:26" s="102" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24" t="s">
+        <v>127</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23">
-        <v>45447</v>
+      <c r="E6" s="22" t="s">
+        <v>136</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -30000,18 +30322,16 @@
       <c r="Y6" s="25"/>
       <c r="Z6" s="25"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="22">
-        <v>4</v>
+    <row r="7" spans="1:26" s="102" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24" t="s">
+        <v>131</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23">
-        <v>45448</v>
+      <c r="E7" s="22" t="s">
+        <v>136</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="22"/>
       <c r="F7" s="22"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
@@ -30036,14 +30356,18 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
+      <c r="C8" s="23">
+        <v>45447</v>
+      </c>
       <c r="D8" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="22" t="s">
+        <v>205</v>
+      </c>
       <c r="F8" s="22"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
@@ -30066,18 +30390,16 @@
       <c r="Y8" s="25"/>
       <c r="Z8" s="25"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="22">
-        <v>6</v>
+    <row r="9" spans="1:26" s="102" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24" t="s">
+        <v>134</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23">
-        <v>45450</v>
+      <c r="E9" s="22" t="s">
+        <v>136</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="22"/>
       <c r="F9" s="22"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -30102,14 +30424,18 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
+      <c r="C10" s="23">
+        <v>45448</v>
+      </c>
       <c r="D10" s="24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="22" t="s">
+        <v>203</v>
+      </c>
       <c r="F10" s="22"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -30132,18 +30458,16 @@
       <c r="Y10" s="25"/>
       <c r="Z10" s="25"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="22">
-        <v>6</v>
+    <row r="11" spans="1:26" s="102" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24" t="s">
+        <v>128</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23">
-        <v>45453</v>
+      <c r="E11" s="22" t="s">
+        <v>136</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="22"/>
       <c r="F11" s="22"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
@@ -30168,16 +30492,16 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12" s="22"/>
-      <c r="C12" s="23">
-        <v>45455</v>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24" t="s">
+        <v>108</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>113</v>
+      <c r="E12" s="22" t="s">
+        <v>205</v>
       </c>
-      <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -30200,16 +30524,16 @@
       <c r="Y12" s="25"/>
       <c r="Z12" s="25"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="22">
-        <v>8</v>
-      </c>
+    <row r="13" spans="1:26" s="102" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
       <c r="D13" s="24" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
-      <c r="E13" s="22"/>
+      <c r="E13" s="22" t="s">
+        <v>215</v>
+      </c>
       <c r="F13" s="22"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -30234,14 +30558,18 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
+      <c r="C14" s="23">
+        <v>45450</v>
+      </c>
       <c r="D14" s="24" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
-      <c r="E14" s="22"/>
+      <c r="E14" s="22" t="s">
+        <v>204</v>
+      </c>
       <c r="F14" s="22"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
@@ -30264,18 +30592,16 @@
       <c r="Y14" s="25"/>
       <c r="Z14" s="25"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="22">
-        <v>10</v>
+    <row r="15" spans="1:26" s="102" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24" t="s">
+        <v>129</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23">
-        <v>45456</v>
+      <c r="E15" s="22" t="s">
+        <v>136</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
@@ -30300,14 +30626,16 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="22">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="23"/>
       <c r="D16" s="24" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
-      <c r="E16" s="22"/>
+      <c r="E16" s="22" t="s">
+        <v>203</v>
+      </c>
       <c r="F16" s="22"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
@@ -30332,16 +30660,18 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="22">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="23">
-        <v>45457</v>
+        <v>45453</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="22" t="s">
+        <v>205</v>
+      </c>
       <c r="F17" s="22"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
@@ -30364,15 +30694,16 @@
       <c r="Y17" s="25"/>
       <c r="Z17" s="25"/>
     </row>
-    <row r="18" spans="1:26" ht="15" customHeight="1">
-      <c r="A18" s="22">
-        <v>13</v>
+    <row r="18" spans="1:26" s="102" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24" t="s">
+        <v>135</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="D18" s="24" t="s">
-        <v>126</v>
+      <c r="E18" s="22" t="s">
+        <v>136</v>
       </c>
-      <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
@@ -30395,18 +30726,16 @@
       <c r="Y18" s="25"/>
       <c r="Z18" s="25"/>
     </row>
-    <row r="19" spans="1:26" ht="15" customHeight="1">
-      <c r="A19" s="22">
-        <v>14</v>
+    <row r="19" spans="1:26" s="102" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24" t="s">
+        <v>216</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23">
-        <v>45460</v>
+      <c r="E19" s="22" t="s">
+        <v>215</v>
       </c>
-      <c r="D19" s="119" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
@@ -30429,16 +30758,16 @@
       <c r="Y19" s="25"/>
       <c r="Z19" s="25"/>
     </row>
-    <row r="20" spans="1:26" ht="15" customHeight="1">
-      <c r="A20" s="22">
-        <v>15</v>
-      </c>
+    <row r="20" spans="1:26" s="102" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="23"/>
-      <c r="D20" s="119" t="s">
-        <v>117</v>
+      <c r="D20" s="24" t="s">
+        <v>217</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="22" t="s">
+        <v>215</v>
+      </c>
       <c r="F20" s="22"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
@@ -30461,16 +30790,20 @@
       <c r="Y20" s="25"/>
       <c r="Z20" s="25"/>
     </row>
-    <row r="21" spans="1:26" ht="15" customHeight="1">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="22">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
+      <c r="C21" s="23">
+        <v>45455</v>
+      </c>
       <c r="D21" s="24" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
-      <c r="E21" s="22"/>
+      <c r="E21" s="22" t="s">
+        <v>205</v>
+      </c>
       <c r="F21" s="22"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -30493,18 +30826,18 @@
       <c r="Y21" s="25"/>
       <c r="Z21" s="25"/>
     </row>
-    <row r="22" spans="1:26" ht="15" customHeight="1">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="22">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B22" s="22"/>
-      <c r="C22" s="23">
-        <v>45461</v>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24" t="s">
+        <v>112</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>125</v>
+      <c r="E22" s="22" t="s">
+        <v>205</v>
       </c>
-      <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
@@ -30529,13 +30862,16 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="22">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="24" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
-      <c r="E23" s="22"/>
+      <c r="E23" s="22" t="s">
+        <v>203</v>
+      </c>
       <c r="F23" s="22"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
@@ -30558,18 +30894,16 @@
       <c r="Y23" s="25"/>
       <c r="Z23" s="25"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="22">
-        <v>19</v>
+    <row r="24" spans="1:26" s="102" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24" t="s">
+        <v>138</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23">
-        <v>45462</v>
+      <c r="E24" s="22" t="s">
+        <v>136</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
@@ -30594,16 +30928,18 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="22">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="23">
-        <v>45463</v>
+        <v>45456</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
-      <c r="E25" s="22"/>
+      <c r="E25" s="22" t="s">
+        <v>205</v>
+      </c>
       <c r="F25" s="22"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
@@ -30628,16 +30964,16 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="22">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B26" s="22"/>
-      <c r="C26" s="23">
-        <v>45464</v>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24" t="s">
+        <v>115</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>123</v>
+      <c r="E26" s="22" t="s">
+        <v>205</v>
       </c>
-      <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
@@ -30660,14 +30996,16 @@
       <c r="Y26" s="25"/>
       <c r="Z26" s="25"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A27" s="22">
-        <v>22</v>
-      </c>
+    <row r="27" spans="1:26" s="102" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="23"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="22"/>
+      <c r="D27" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>136</v>
+      </c>
       <c r="F27" s="22"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -30690,14 +31028,16 @@
       <c r="Y27" s="25"/>
       <c r="Z27" s="25"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="22">
-        <v>23</v>
-      </c>
+    <row r="28" spans="1:26" s="102" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="22"/>
+      <c r="D28" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>215</v>
+      </c>
       <c r="F28" s="22"/>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
@@ -30721,11 +31061,19 @@
       <c r="Z28" s="25"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A29" s="22"/>
+      <c r="A29" s="22">
+        <v>12</v>
+      </c>
       <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="22"/>
+      <c r="C29" s="23">
+        <v>45457</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>204</v>
+      </c>
       <c r="F29" s="22"/>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
@@ -30748,12 +31096,18 @@
       <c r="Y29" s="25"/>
       <c r="Z29" s="25"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A30" s="22"/>
+    <row r="30" spans="1:26" ht="15" customHeight="1">
+      <c r="A30" s="22">
+        <v>13</v>
+      </c>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="22"/>
+      <c r="D30" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>203</v>
+      </c>
       <c r="F30" s="22"/>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
@@ -30776,12 +31130,16 @@
       <c r="Y30" s="25"/>
       <c r="Z30" s="25"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1">
+    <row r="31" spans="1:26" s="102" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="22"/>
+      <c r="D31" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>215</v>
+      </c>
       <c r="F31" s="22"/>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
@@ -30804,12 +31162,20 @@
       <c r="Y31" s="25"/>
       <c r="Z31" s="25"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A32" s="22"/>
+    <row r="32" spans="1:26" ht="15" customHeight="1">
+      <c r="A32" s="22">
+        <v>14</v>
+      </c>
       <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="22"/>
+      <c r="C32" s="23">
+        <v>45460</v>
+      </c>
+      <c r="D32" s="101" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>204</v>
+      </c>
       <c r="F32" s="22"/>
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
@@ -30832,12 +31198,18 @@
       <c r="Y32" s="25"/>
       <c r="Z32" s="25"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A33" s="22"/>
+    <row r="33" spans="1:26" ht="15" customHeight="1">
+      <c r="A33" s="22">
+        <v>15</v>
+      </c>
       <c r="B33" s="22"/>
       <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="22"/>
+      <c r="D33" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>205</v>
+      </c>
       <c r="F33" s="22"/>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
@@ -30860,12 +31232,16 @@
       <c r="Y33" s="25"/>
       <c r="Z33" s="25"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1">
+    <row r="34" spans="1:26" s="102" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="23"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="22"/>
+      <c r="D34" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>136</v>
+      </c>
       <c r="F34" s="22"/>
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
@@ -30888,12 +31264,18 @@
       <c r="Y34" s="25"/>
       <c r="Z34" s="25"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A35" s="22"/>
+    <row r="35" spans="1:26" ht="15" customHeight="1">
+      <c r="A35" s="22">
+        <v>16</v>
+      </c>
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="22"/>
+      <c r="D35" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>203</v>
+      </c>
       <c r="F35" s="22"/>
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
@@ -30916,12 +31298,16 @@
       <c r="Y35" s="25"/>
       <c r="Z35" s="25"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1">
+    <row r="36" spans="1:26" s="102" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="23"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="22"/>
+      <c r="D36" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>215</v>
+      </c>
       <c r="F36" s="22"/>
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
@@ -30944,12 +31330,20 @@
       <c r="Y36" s="25"/>
       <c r="Z36" s="25"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A37" s="22"/>
+    <row r="37" spans="1:26" ht="15" customHeight="1">
+      <c r="A37" s="22">
+        <v>17</v>
+      </c>
       <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="22"/>
+      <c r="C37" s="23">
+        <v>45461</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>204</v>
+      </c>
       <c r="F37" s="22"/>
       <c r="G37" s="25"/>
       <c r="H37" s="25"/>
@@ -30973,11 +31367,16 @@
       <c r="Z37" s="25"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A38" s="22"/>
+      <c r="A38" s="22">
+        <v>18</v>
+      </c>
       <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="22"/>
+      <c r="D38" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>203</v>
+      </c>
       <c r="F38" s="22"/>
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
@@ -31001,12 +31400,20 @@
       <c r="Z38" s="25"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
+      <c r="A39" s="22">
+        <v>19</v>
+      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23">
+        <v>45462</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F39" s="22"/>
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
       <c r="I39" s="25"/>
@@ -31028,15 +31435,21 @@
       <c r="Y39" s="25"/>
       <c r="Z39" s="25"/>
     </row>
-    <row r="40" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A40" s="122" t="s">
-        <v>40</v>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A40" s="22">
+        <v>20</v>
       </c>
-      <c r="B40" s="122"/>
-      <c r="C40" s="122"/>
-      <c r="D40" s="122"/>
-      <c r="E40" s="122"/>
-      <c r="F40" s="122"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23">
+        <v>45463</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F40" s="22"/>
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
@@ -31058,509 +31471,521 @@
       <c r="Y40" s="25"/>
       <c r="Z40" s="25"/>
     </row>
-    <row r="41" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A41" s="109"/>
-      <c r="B41" s="110" t="s">
+    <row r="41" spans="1:26" s="102" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F41" s="22"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="25"/>
+    </row>
+    <row r="42" spans="1:26" s="102" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" s="22"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="25"/>
+    </row>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A43" s="22">
+        <v>21</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23">
+        <v>45464</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F43" s="22"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="25"/>
+    </row>
+    <row r="44" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A44" s="22">
+        <v>22</v>
+      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="F44" s="22"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="25"/>
+      <c r="X44" s="25"/>
+      <c r="Y44" s="25"/>
+      <c r="Z44" s="25"/>
+    </row>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A45" s="22">
+        <v>23</v>
+      </c>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="25"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="25"/>
+      <c r="X45" s="25"/>
+      <c r="Y45" s="25"/>
+      <c r="Z45" s="25"/>
+    </row>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25"/>
+    </row>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+    </row>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="25"/>
+      <c r="Y48" s="25"/>
+      <c r="Z48" s="25"/>
+    </row>
+    <row r="49" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="25"/>
+      <c r="V49" s="25"/>
+      <c r="W49" s="25"/>
+      <c r="X49" s="25"/>
+      <c r="Y49" s="25"/>
+      <c r="Z49" s="25"/>
+    </row>
+    <row r="50" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="25"/>
+      <c r="V50" s="25"/>
+      <c r="W50" s="25"/>
+      <c r="X50" s="25"/>
+      <c r="Y50" s="25"/>
+      <c r="Z50" s="25"/>
+    </row>
+    <row r="51" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="25"/>
+      <c r="W51" s="25"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="25"/>
+      <c r="Z51" s="25"/>
+    </row>
+    <row r="52" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="25"/>
+      <c r="T52" s="25"/>
+      <c r="U52" s="25"/>
+      <c r="V52" s="25"/>
+      <c r="W52" s="25"/>
+      <c r="X52" s="25"/>
+      <c r="Y52" s="25"/>
+      <c r="Z52" s="25"/>
+    </row>
+    <row r="53" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="25"/>
+      <c r="U53" s="25"/>
+      <c r="V53" s="25"/>
+      <c r="W53" s="25"/>
+      <c r="X53" s="25"/>
+      <c r="Y53" s="25"/>
+      <c r="Z53" s="25"/>
+    </row>
+    <row r="54" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="25"/>
+      <c r="U54" s="25"/>
+      <c r="V54" s="25"/>
+      <c r="W54" s="25"/>
+      <c r="X54" s="25"/>
+      <c r="Y54" s="25"/>
+      <c r="Z54" s="25"/>
+    </row>
+    <row r="55" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="25"/>
+      <c r="T55" s="25"/>
+      <c r="U55" s="25"/>
+      <c r="V55" s="25"/>
+      <c r="W55" s="25"/>
+      <c r="X55" s="25"/>
+      <c r="Y55" s="25"/>
+      <c r="Z55" s="25"/>
+    </row>
+    <row r="56" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="25"/>
+      <c r="T56" s="25"/>
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+      <c r="X56" s="25"/>
+      <c r="Y56" s="25"/>
+      <c r="Z56" s="25"/>
+    </row>
+    <row r="57" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A57" s="108" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="108"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="108"/>
+      <c r="E57" s="108"/>
+      <c r="F57" s="108"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="25"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="25"/>
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+      <c r="X57" s="25"/>
+      <c r="Y57" s="25"/>
+      <c r="Z57" s="25"/>
+    </row>
+    <row r="58" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A58" s="93"/>
+      <c r="B58" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="111" t="s">
+      <c r="C58" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="112" t="s">
+      <c r="D58" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="109"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
-      <c r="V41" s="15"/>
-      <c r="W41" s="15"/>
-      <c r="X41" s="15"/>
-      <c r="Y41" s="15"/>
-      <c r="Z41" s="15"/>
-    </row>
-    <row r="42" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A42" s="109"/>
-      <c r="B42" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="114">
-        <v>45413</v>
-      </c>
-      <c r="D42" s="115" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="109"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="15"/>
-      <c r="X42" s="15"/>
-      <c r="Y42" s="15"/>
-      <c r="Z42" s="15"/>
-    </row>
-    <row r="43" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A43" s="109"/>
-      <c r="B43" s="109"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="115" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="109"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="15"/>
-      <c r="X43" s="15"/>
-      <c r="Y43" s="15"/>
-      <c r="Z43" s="15"/>
-    </row>
-    <row r="44" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A44" s="109"/>
-      <c r="B44" s="109" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="116">
-        <v>45416</v>
-      </c>
-      <c r="D44" s="115" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="15"/>
-      <c r="X44" s="15"/>
-      <c r="Y44" s="15"/>
-      <c r="Z44" s="15"/>
-    </row>
-    <row r="45" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A45" s="109"/>
-      <c r="B45" s="109"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="109"/>
-      <c r="F45" s="109"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="15"/>
-      <c r="X45" s="15"/>
-      <c r="Y45" s="15"/>
-      <c r="Z45" s="15"/>
-    </row>
-    <row r="46" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="15"/>
-      <c r="S46" s="15"/>
-      <c r="T46" s="15"/>
-      <c r="U46" s="15"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="15"/>
-      <c r="X46" s="15"/>
-      <c r="Y46" s="15"/>
-      <c r="Z46" s="15"/>
-    </row>
-    <row r="47" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="15"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="15"/>
-      <c r="X47" s="15"/>
-      <c r="Y47" s="15"/>
-      <c r="Z47" s="15"/>
-    </row>
-    <row r="48" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="15"/>
-      <c r="T48" s="15"/>
-      <c r="U48" s="15"/>
-      <c r="V48" s="15"/>
-      <c r="W48" s="15"/>
-      <c r="X48" s="15"/>
-      <c r="Y48" s="15"/>
-      <c r="Z48" s="15"/>
-    </row>
-    <row r="49" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="15"/>
-      <c r="T49" s="15"/>
-      <c r="U49" s="15"/>
-      <c r="V49" s="15"/>
-      <c r="W49" s="15"/>
-      <c r="X49" s="15"/>
-      <c r="Y49" s="15"/>
-      <c r="Z49" s="15"/>
-    </row>
-    <row r="50" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="15"/>
-      <c r="S50" s="15"/>
-      <c r="T50" s="15"/>
-      <c r="U50" s="15"/>
-      <c r="V50" s="15"/>
-      <c r="W50" s="15"/>
-      <c r="X50" s="15"/>
-      <c r="Y50" s="15"/>
-      <c r="Z50" s="15"/>
-    </row>
-    <row r="51" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="15"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="15"/>
-      <c r="V51" s="15"/>
-      <c r="W51" s="15"/>
-      <c r="X51" s="15"/>
-      <c r="Y51" s="15"/>
-      <c r="Z51" s="15"/>
-    </row>
-    <row r="52" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="15"/>
-      <c r="S52" s="15"/>
-      <c r="T52" s="15"/>
-      <c r="U52" s="15"/>
-      <c r="V52" s="15"/>
-      <c r="W52" s="15"/>
-      <c r="X52" s="15"/>
-      <c r="Y52" s="15"/>
-      <c r="Z52" s="15"/>
-    </row>
-    <row r="53" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="15"/>
-      <c r="S53" s="15"/>
-      <c r="T53" s="15"/>
-      <c r="U53" s="15"/>
-      <c r="V53" s="15"/>
-      <c r="W53" s="15"/>
-      <c r="X53" s="15"/>
-      <c r="Y53" s="15"/>
-      <c r="Z53" s="15"/>
-    </row>
-    <row r="54" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="15"/>
-      <c r="T54" s="15"/>
-      <c r="U54" s="15"/>
-      <c r="V54" s="15"/>
-      <c r="W54" s="15"/>
-      <c r="X54" s="15"/>
-      <c r="Y54" s="15"/>
-      <c r="Z54" s="15"/>
-    </row>
-    <row r="55" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="15"/>
-      <c r="S55" s="15"/>
-      <c r="T55" s="15"/>
-      <c r="U55" s="15"/>
-      <c r="V55" s="15"/>
-      <c r="W55" s="15"/>
-      <c r="X55" s="15"/>
-      <c r="Y55" s="15"/>
-      <c r="Z55" s="15"/>
-    </row>
-    <row r="56" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="15"/>
-      <c r="S56" s="15"/>
-      <c r="T56" s="15"/>
-      <c r="U56" s="15"/>
-      <c r="V56" s="15"/>
-      <c r="W56" s="15"/>
-      <c r="X56" s="15"/>
-      <c r="Y56" s="15"/>
-      <c r="Z56" s="15"/>
-    </row>
-    <row r="57" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="15"/>
-      <c r="S57" s="15"/>
-      <c r="T57" s="15"/>
-      <c r="U57" s="15"/>
-      <c r="V57" s="15"/>
-      <c r="W57" s="15"/>
-      <c r="X57" s="15"/>
-      <c r="Y57" s="15"/>
-      <c r="Z57" s="15"/>
-    </row>
-    <row r="58" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
+      <c r="E58" s="93"/>
+      <c r="F58" s="93"/>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
@@ -31583,12 +32008,18 @@
       <c r="Z58" s="15"/>
     </row>
     <row r="59" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
+      <c r="A59" s="93"/>
+      <c r="B59" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="98">
+        <v>45413</v>
+      </c>
+      <c r="D59" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="93"/>
+      <c r="F59" s="93"/>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
@@ -31611,12 +32042,14 @@
       <c r="Z59" s="15"/>
     </row>
     <row r="60" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A60" s="28"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
+      <c r="A60" s="93"/>
+      <c r="B60" s="93"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="99" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="93"/>
+      <c r="F60" s="93"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
@@ -31639,12 +32072,18 @@
       <c r="Z60" s="15"/>
     </row>
     <row r="61" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
+      <c r="A61" s="93"/>
+      <c r="B61" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="100">
+        <v>45416</v>
+      </c>
+      <c r="D61" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="93"/>
+      <c r="F61" s="93"/>
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
@@ -31667,12 +32106,12 @@
       <c r="Z61" s="15"/>
     </row>
     <row r="62" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
+      <c r="A62" s="93"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="93"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
@@ -58434,10 +58873,486 @@
       <c r="Y1017" s="15"/>
       <c r="Z1017" s="15"/>
     </row>
+    <row r="1018" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A1018" s="28"/>
+      <c r="B1018" s="28"/>
+      <c r="C1018" s="29"/>
+      <c r="D1018" s="15"/>
+      <c r="E1018" s="28"/>
+      <c r="F1018" s="28"/>
+      <c r="G1018" s="15"/>
+      <c r="H1018" s="15"/>
+      <c r="I1018" s="15"/>
+      <c r="J1018" s="15"/>
+      <c r="K1018" s="15"/>
+      <c r="L1018" s="15"/>
+      <c r="M1018" s="15"/>
+      <c r="N1018" s="15"/>
+      <c r="O1018" s="15"/>
+      <c r="P1018" s="15"/>
+      <c r="Q1018" s="15"/>
+      <c r="R1018" s="15"/>
+      <c r="S1018" s="15"/>
+      <c r="T1018" s="15"/>
+      <c r="U1018" s="15"/>
+      <c r="V1018" s="15"/>
+      <c r="W1018" s="15"/>
+      <c r="X1018" s="15"/>
+      <c r="Y1018" s="15"/>
+      <c r="Z1018" s="15"/>
+    </row>
+    <row r="1019" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A1019" s="28"/>
+      <c r="B1019" s="28"/>
+      <c r="C1019" s="29"/>
+      <c r="D1019" s="15"/>
+      <c r="E1019" s="28"/>
+      <c r="F1019" s="28"/>
+      <c r="G1019" s="15"/>
+      <c r="H1019" s="15"/>
+      <c r="I1019" s="15"/>
+      <c r="J1019" s="15"/>
+      <c r="K1019" s="15"/>
+      <c r="L1019" s="15"/>
+      <c r="M1019" s="15"/>
+      <c r="N1019" s="15"/>
+      <c r="O1019" s="15"/>
+      <c r="P1019" s="15"/>
+      <c r="Q1019" s="15"/>
+      <c r="R1019" s="15"/>
+      <c r="S1019" s="15"/>
+      <c r="T1019" s="15"/>
+      <c r="U1019" s="15"/>
+      <c r="V1019" s="15"/>
+      <c r="W1019" s="15"/>
+      <c r="X1019" s="15"/>
+      <c r="Y1019" s="15"/>
+      <c r="Z1019" s="15"/>
+    </row>
+    <row r="1020" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A1020" s="28"/>
+      <c r="B1020" s="28"/>
+      <c r="C1020" s="29"/>
+      <c r="D1020" s="15"/>
+      <c r="E1020" s="28"/>
+      <c r="F1020" s="28"/>
+      <c r="G1020" s="15"/>
+      <c r="H1020" s="15"/>
+      <c r="I1020" s="15"/>
+      <c r="J1020" s="15"/>
+      <c r="K1020" s="15"/>
+      <c r="L1020" s="15"/>
+      <c r="M1020" s="15"/>
+      <c r="N1020" s="15"/>
+      <c r="O1020" s="15"/>
+      <c r="P1020" s="15"/>
+      <c r="Q1020" s="15"/>
+      <c r="R1020" s="15"/>
+      <c r="S1020" s="15"/>
+      <c r="T1020" s="15"/>
+      <c r="U1020" s="15"/>
+      <c r="V1020" s="15"/>
+      <c r="W1020" s="15"/>
+      <c r="X1020" s="15"/>
+      <c r="Y1020" s="15"/>
+      <c r="Z1020" s="15"/>
+    </row>
+    <row r="1021" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A1021" s="28"/>
+      <c r="B1021" s="28"/>
+      <c r="C1021" s="29"/>
+      <c r="D1021" s="15"/>
+      <c r="E1021" s="28"/>
+      <c r="F1021" s="28"/>
+      <c r="G1021" s="15"/>
+      <c r="H1021" s="15"/>
+      <c r="I1021" s="15"/>
+      <c r="J1021" s="15"/>
+      <c r="K1021" s="15"/>
+      <c r="L1021" s="15"/>
+      <c r="M1021" s="15"/>
+      <c r="N1021" s="15"/>
+      <c r="O1021" s="15"/>
+      <c r="P1021" s="15"/>
+      <c r="Q1021" s="15"/>
+      <c r="R1021" s="15"/>
+      <c r="S1021" s="15"/>
+      <c r="T1021" s="15"/>
+      <c r="U1021" s="15"/>
+      <c r="V1021" s="15"/>
+      <c r="W1021" s="15"/>
+      <c r="X1021" s="15"/>
+      <c r="Y1021" s="15"/>
+      <c r="Z1021" s="15"/>
+    </row>
+    <row r="1022" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A1022" s="28"/>
+      <c r="B1022" s="28"/>
+      <c r="C1022" s="29"/>
+      <c r="D1022" s="15"/>
+      <c r="E1022" s="28"/>
+      <c r="F1022" s="28"/>
+      <c r="G1022" s="15"/>
+      <c r="H1022" s="15"/>
+      <c r="I1022" s="15"/>
+      <c r="J1022" s="15"/>
+      <c r="K1022" s="15"/>
+      <c r="L1022" s="15"/>
+      <c r="M1022" s="15"/>
+      <c r="N1022" s="15"/>
+      <c r="O1022" s="15"/>
+      <c r="P1022" s="15"/>
+      <c r="Q1022" s="15"/>
+      <c r="R1022" s="15"/>
+      <c r="S1022" s="15"/>
+      <c r="T1022" s="15"/>
+      <c r="U1022" s="15"/>
+      <c r="V1022" s="15"/>
+      <c r="W1022" s="15"/>
+      <c r="X1022" s="15"/>
+      <c r="Y1022" s="15"/>
+      <c r="Z1022" s="15"/>
+    </row>
+    <row r="1023" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A1023" s="28"/>
+      <c r="B1023" s="28"/>
+      <c r="C1023" s="29"/>
+      <c r="D1023" s="15"/>
+      <c r="E1023" s="28"/>
+      <c r="F1023" s="28"/>
+      <c r="G1023" s="15"/>
+      <c r="H1023" s="15"/>
+      <c r="I1023" s="15"/>
+      <c r="J1023" s="15"/>
+      <c r="K1023" s="15"/>
+      <c r="L1023" s="15"/>
+      <c r="M1023" s="15"/>
+      <c r="N1023" s="15"/>
+      <c r="O1023" s="15"/>
+      <c r="P1023" s="15"/>
+      <c r="Q1023" s="15"/>
+      <c r="R1023" s="15"/>
+      <c r="S1023" s="15"/>
+      <c r="T1023" s="15"/>
+      <c r="U1023" s="15"/>
+      <c r="V1023" s="15"/>
+      <c r="W1023" s="15"/>
+      <c r="X1023" s="15"/>
+      <c r="Y1023" s="15"/>
+      <c r="Z1023" s="15"/>
+    </row>
+    <row r="1024" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A1024" s="28"/>
+      <c r="B1024" s="28"/>
+      <c r="C1024" s="29"/>
+      <c r="D1024" s="15"/>
+      <c r="E1024" s="28"/>
+      <c r="F1024" s="28"/>
+      <c r="G1024" s="15"/>
+      <c r="H1024" s="15"/>
+      <c r="I1024" s="15"/>
+      <c r="J1024" s="15"/>
+      <c r="K1024" s="15"/>
+      <c r="L1024" s="15"/>
+      <c r="M1024" s="15"/>
+      <c r="N1024" s="15"/>
+      <c r="O1024" s="15"/>
+      <c r="P1024" s="15"/>
+      <c r="Q1024" s="15"/>
+      <c r="R1024" s="15"/>
+      <c r="S1024" s="15"/>
+      <c r="T1024" s="15"/>
+      <c r="U1024" s="15"/>
+      <c r="V1024" s="15"/>
+      <c r="W1024" s="15"/>
+      <c r="X1024" s="15"/>
+      <c r="Y1024" s="15"/>
+      <c r="Z1024" s="15"/>
+    </row>
+    <row r="1025" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A1025" s="28"/>
+      <c r="B1025" s="28"/>
+      <c r="C1025" s="29"/>
+      <c r="D1025" s="15"/>
+      <c r="E1025" s="28"/>
+      <c r="F1025" s="28"/>
+      <c r="G1025" s="15"/>
+      <c r="H1025" s="15"/>
+      <c r="I1025" s="15"/>
+      <c r="J1025" s="15"/>
+      <c r="K1025" s="15"/>
+      <c r="L1025" s="15"/>
+      <c r="M1025" s="15"/>
+      <c r="N1025" s="15"/>
+      <c r="O1025" s="15"/>
+      <c r="P1025" s="15"/>
+      <c r="Q1025" s="15"/>
+      <c r="R1025" s="15"/>
+      <c r="S1025" s="15"/>
+      <c r="T1025" s="15"/>
+      <c r="U1025" s="15"/>
+      <c r="V1025" s="15"/>
+      <c r="W1025" s="15"/>
+      <c r="X1025" s="15"/>
+      <c r="Y1025" s="15"/>
+      <c r="Z1025" s="15"/>
+    </row>
+    <row r="1026" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A1026" s="28"/>
+      <c r="B1026" s="28"/>
+      <c r="C1026" s="29"/>
+      <c r="D1026" s="15"/>
+      <c r="E1026" s="28"/>
+      <c r="F1026" s="28"/>
+      <c r="G1026" s="15"/>
+      <c r="H1026" s="15"/>
+      <c r="I1026" s="15"/>
+      <c r="J1026" s="15"/>
+      <c r="K1026" s="15"/>
+      <c r="L1026" s="15"/>
+      <c r="M1026" s="15"/>
+      <c r="N1026" s="15"/>
+      <c r="O1026" s="15"/>
+      <c r="P1026" s="15"/>
+      <c r="Q1026" s="15"/>
+      <c r="R1026" s="15"/>
+      <c r="S1026" s="15"/>
+      <c r="T1026" s="15"/>
+      <c r="U1026" s="15"/>
+      <c r="V1026" s="15"/>
+      <c r="W1026" s="15"/>
+      <c r="X1026" s="15"/>
+      <c r="Y1026" s="15"/>
+      <c r="Z1026" s="15"/>
+    </row>
+    <row r="1027" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A1027" s="28"/>
+      <c r="B1027" s="28"/>
+      <c r="C1027" s="29"/>
+      <c r="D1027" s="15"/>
+      <c r="E1027" s="28"/>
+      <c r="F1027" s="28"/>
+      <c r="G1027" s="15"/>
+      <c r="H1027" s="15"/>
+      <c r="I1027" s="15"/>
+      <c r="J1027" s="15"/>
+      <c r="K1027" s="15"/>
+      <c r="L1027" s="15"/>
+      <c r="M1027" s="15"/>
+      <c r="N1027" s="15"/>
+      <c r="O1027" s="15"/>
+      <c r="P1027" s="15"/>
+      <c r="Q1027" s="15"/>
+      <c r="R1027" s="15"/>
+      <c r="S1027" s="15"/>
+      <c r="T1027" s="15"/>
+      <c r="U1027" s="15"/>
+      <c r="V1027" s="15"/>
+      <c r="W1027" s="15"/>
+      <c r="X1027" s="15"/>
+      <c r="Y1027" s="15"/>
+      <c r="Z1027" s="15"/>
+    </row>
+    <row r="1028" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A1028" s="28"/>
+      <c r="B1028" s="28"/>
+      <c r="C1028" s="29"/>
+      <c r="D1028" s="15"/>
+      <c r="E1028" s="28"/>
+      <c r="F1028" s="28"/>
+      <c r="G1028" s="15"/>
+      <c r="H1028" s="15"/>
+      <c r="I1028" s="15"/>
+      <c r="J1028" s="15"/>
+      <c r="K1028" s="15"/>
+      <c r="L1028" s="15"/>
+      <c r="M1028" s="15"/>
+      <c r="N1028" s="15"/>
+      <c r="O1028" s="15"/>
+      <c r="P1028" s="15"/>
+      <c r="Q1028" s="15"/>
+      <c r="R1028" s="15"/>
+      <c r="S1028" s="15"/>
+      <c r="T1028" s="15"/>
+      <c r="U1028" s="15"/>
+      <c r="V1028" s="15"/>
+      <c r="W1028" s="15"/>
+      <c r="X1028" s="15"/>
+      <c r="Y1028" s="15"/>
+      <c r="Z1028" s="15"/>
+    </row>
+    <row r="1029" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A1029" s="28"/>
+      <c r="B1029" s="28"/>
+      <c r="C1029" s="29"/>
+      <c r="D1029" s="15"/>
+      <c r="E1029" s="28"/>
+      <c r="F1029" s="28"/>
+      <c r="G1029" s="15"/>
+      <c r="H1029" s="15"/>
+      <c r="I1029" s="15"/>
+      <c r="J1029" s="15"/>
+      <c r="K1029" s="15"/>
+      <c r="L1029" s="15"/>
+      <c r="M1029" s="15"/>
+      <c r="N1029" s="15"/>
+      <c r="O1029" s="15"/>
+      <c r="P1029" s="15"/>
+      <c r="Q1029" s="15"/>
+      <c r="R1029" s="15"/>
+      <c r="S1029" s="15"/>
+      <c r="T1029" s="15"/>
+      <c r="U1029" s="15"/>
+      <c r="V1029" s="15"/>
+      <c r="W1029" s="15"/>
+      <c r="X1029" s="15"/>
+      <c r="Y1029" s="15"/>
+      <c r="Z1029" s="15"/>
+    </row>
+    <row r="1030" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A1030" s="28"/>
+      <c r="B1030" s="28"/>
+      <c r="C1030" s="29"/>
+      <c r="D1030" s="15"/>
+      <c r="E1030" s="28"/>
+      <c r="F1030" s="28"/>
+      <c r="G1030" s="15"/>
+      <c r="H1030" s="15"/>
+      <c r="I1030" s="15"/>
+      <c r="J1030" s="15"/>
+      <c r="K1030" s="15"/>
+      <c r="L1030" s="15"/>
+      <c r="M1030" s="15"/>
+      <c r="N1030" s="15"/>
+      <c r="O1030" s="15"/>
+      <c r="P1030" s="15"/>
+      <c r="Q1030" s="15"/>
+      <c r="R1030" s="15"/>
+      <c r="S1030" s="15"/>
+      <c r="T1030" s="15"/>
+      <c r="U1030" s="15"/>
+      <c r="V1030" s="15"/>
+      <c r="W1030" s="15"/>
+      <c r="X1030" s="15"/>
+      <c r="Y1030" s="15"/>
+      <c r="Z1030" s="15"/>
+    </row>
+    <row r="1031" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A1031" s="28"/>
+      <c r="B1031" s="28"/>
+      <c r="C1031" s="29"/>
+      <c r="D1031" s="15"/>
+      <c r="E1031" s="28"/>
+      <c r="F1031" s="28"/>
+      <c r="G1031" s="15"/>
+      <c r="H1031" s="15"/>
+      <c r="I1031" s="15"/>
+      <c r="J1031" s="15"/>
+      <c r="K1031" s="15"/>
+      <c r="L1031" s="15"/>
+      <c r="M1031" s="15"/>
+      <c r="N1031" s="15"/>
+      <c r="O1031" s="15"/>
+      <c r="P1031" s="15"/>
+      <c r="Q1031" s="15"/>
+      <c r="R1031" s="15"/>
+      <c r="S1031" s="15"/>
+      <c r="T1031" s="15"/>
+      <c r="U1031" s="15"/>
+      <c r="V1031" s="15"/>
+      <c r="W1031" s="15"/>
+      <c r="X1031" s="15"/>
+      <c r="Y1031" s="15"/>
+      <c r="Z1031" s="15"/>
+    </row>
+    <row r="1032" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A1032" s="28"/>
+      <c r="B1032" s="28"/>
+      <c r="C1032" s="29"/>
+      <c r="D1032" s="15"/>
+      <c r="E1032" s="28"/>
+      <c r="F1032" s="28"/>
+      <c r="G1032" s="15"/>
+      <c r="H1032" s="15"/>
+      <c r="I1032" s="15"/>
+      <c r="J1032" s="15"/>
+      <c r="K1032" s="15"/>
+      <c r="L1032" s="15"/>
+      <c r="M1032" s="15"/>
+      <c r="N1032" s="15"/>
+      <c r="O1032" s="15"/>
+      <c r="P1032" s="15"/>
+      <c r="Q1032" s="15"/>
+      <c r="R1032" s="15"/>
+      <c r="S1032" s="15"/>
+      <c r="T1032" s="15"/>
+      <c r="U1032" s="15"/>
+      <c r="V1032" s="15"/>
+      <c r="W1032" s="15"/>
+      <c r="X1032" s="15"/>
+      <c r="Y1032" s="15"/>
+      <c r="Z1032" s="15"/>
+    </row>
+    <row r="1033" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A1033" s="28"/>
+      <c r="B1033" s="28"/>
+      <c r="C1033" s="29"/>
+      <c r="D1033" s="15"/>
+      <c r="E1033" s="28"/>
+      <c r="F1033" s="28"/>
+      <c r="G1033" s="15"/>
+      <c r="H1033" s="15"/>
+      <c r="I1033" s="15"/>
+      <c r="J1033" s="15"/>
+      <c r="K1033" s="15"/>
+      <c r="L1033" s="15"/>
+      <c r="M1033" s="15"/>
+      <c r="N1033" s="15"/>
+      <c r="O1033" s="15"/>
+      <c r="P1033" s="15"/>
+      <c r="Q1033" s="15"/>
+      <c r="R1033" s="15"/>
+      <c r="S1033" s="15"/>
+      <c r="T1033" s="15"/>
+      <c r="U1033" s="15"/>
+      <c r="V1033" s="15"/>
+      <c r="W1033" s="15"/>
+      <c r="X1033" s="15"/>
+      <c r="Y1033" s="15"/>
+      <c r="Z1033" s="15"/>
+    </row>
+    <row r="1034" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A1034" s="28"/>
+      <c r="B1034" s="28"/>
+      <c r="C1034" s="29"/>
+      <c r="D1034" s="15"/>
+      <c r="E1034" s="28"/>
+      <c r="F1034" s="28"/>
+      <c r="G1034" s="15"/>
+      <c r="H1034" s="15"/>
+      <c r="I1034" s="15"/>
+      <c r="J1034" s="15"/>
+      <c r="K1034" s="15"/>
+      <c r="L1034" s="15"/>
+      <c r="M1034" s="15"/>
+      <c r="N1034" s="15"/>
+      <c r="O1034" s="15"/>
+      <c r="P1034" s="15"/>
+      <c r="Q1034" s="15"/>
+      <c r="R1034" s="15"/>
+      <c r="S1034" s="15"/>
+      <c r="T1034" s="15"/>
+      <c r="U1034" s="15"/>
+      <c r="V1034" s="15"/>
+      <c r="W1034" s="15"/>
+      <c r="X1034" s="15"/>
+      <c r="Y1034" s="15"/>
+      <c r="Z1034" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A57:F57"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -58454,56 +59369,56 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
-  <dimension ref="A1:Z44"/>
+  <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.3984375" style="36" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" style="36" customWidth="1"/>
-    <col min="3" max="3" width="11.69921875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="12.69921875" style="36" customWidth="1"/>
-    <col min="5" max="5" width="17.8984375" style="36" customWidth="1"/>
-    <col min="6" max="6" width="19.69921875" style="36" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="36" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="36" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="36" customWidth="1"/>
     <col min="7" max="7" width="15" style="36" customWidth="1"/>
-    <col min="8" max="8" width="20.69921875" style="36" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="36" customWidth="1"/>
     <col min="9" max="9" width="9" style="36" customWidth="1"/>
-    <col min="10" max="10" width="6.09765625" style="36" customWidth="1"/>
-    <col min="11" max="11" width="10.3984375" style="36" customWidth="1"/>
-    <col min="12" max="12" width="17.69921875" style="36" customWidth="1"/>
-    <col min="13" max="13" width="5.8984375" style="36" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11.09765625" style="36" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="12.69921875" style="36" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="11.09765625" style="36" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="6.109375" style="36" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" style="36" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" style="36" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" style="36" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="12.6640625" style="36" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" style="36" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="15" style="36" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="9.3984375" style="36" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9.44140625" style="36" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="12" style="36" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="14.69921875" style="36" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="8.69921875" style="36" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="8.8984375" style="36" hidden="1" customWidth="1"/>
-    <col min="24" max="25" width="8.8984375" style="36" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" style="36" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="36" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" style="36" customWidth="1"/>
+    <col min="24" max="25" width="8.88671875" style="36" customWidth="1"/>
     <col min="26" max="26" width="8" style="36" customWidth="1"/>
-    <col min="27" max="16384" width="12.59765625" style="36"/>
+    <col min="27" max="16384" width="12.5546875" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
       <c r="M1" s="28"/>
       <c r="N1" s="28"/>
       <c r="O1" s="28"/>
@@ -58520,15 +59435,15 @@
       <c r="Z1" s="28"/>
     </row>
     <row r="2" spans="1:26" ht="9.75" customHeight="1">
-      <c r="A2" s="159"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
       <c r="L2" s="28"/>
@@ -58548,12 +59463,12 @@
       <c r="Z2" s="28"/>
     </row>
     <row r="3" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="162"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="115"/>
       <c r="E3" s="37" t="s">
         <v>12</v>
       </c>
@@ -58566,12 +59481,12 @@
       <c r="H3" s="30">
         <v>45474</v>
       </c>
-      <c r="I3" s="166" t="s">
+      <c r="I3" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="162"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="162"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="115"/>
       <c r="M3" s="28"/>
       <c r="N3" s="28"/>
       <c r="O3" s="28"/>
@@ -58583,17 +59498,16 @@
       <c r="U3" s="28"/>
       <c r="V3" s="28"/>
       <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
       <c r="Y3" s="28"/>
       <c r="Z3" s="28"/>
     </row>
     <row r="4" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="162"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="162"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="115"/>
       <c r="E4" s="37" t="s">
         <v>16</v>
       </c>
@@ -58602,12 +59516,12 @@
         <v>17</v>
       </c>
       <c r="H4" s="30"/>
-      <c r="I4" s="166" t="s">
+      <c r="I4" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="162"/>
-      <c r="K4" s="165"/>
-      <c r="L4" s="162"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="115"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
       <c r="O4" s="28"/>
@@ -58642,10 +59556,10 @@
       <c r="F5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="167" t="s">
+      <c r="G5" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="162"/>
+      <c r="H5" s="115"/>
       <c r="I5" s="33" t="s">
         <v>25</v>
       </c>
@@ -58673,806 +59587,848 @@
       <c r="Y5" s="34"/>
       <c r="Z5" s="28"/>
     </row>
-    <row r="6" spans="1:26" s="71" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A6" s="65" t="s">
+    <row r="6" spans="1:26" s="65" customFormat="1" ht="95.25" customHeight="1">
+      <c r="A6" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="145" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="144" t="s">
+      <c r="G6" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="168"/>
-      <c r="I6" s="65" t="s">
+      <c r="H6" s="121"/>
+      <c r="I6" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="65"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
-    </row>
-    <row r="7" spans="1:26" s="71" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A7" s="65" t="s">
+      <c r="J6" s="60"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+    </row>
+    <row r="7" spans="1:26" s="65" customFormat="1" ht="95.25" customHeight="1">
+      <c r="A7" s="146"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="110"/>
+      <c r="I7" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64"/>
+    </row>
+    <row r="8" spans="1:26" s="65" customFormat="1" ht="95.25" customHeight="1">
+      <c r="A8" s="146"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="109" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="110"/>
+      <c r="I8" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="60"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+    </row>
+    <row r="9" spans="1:26" s="65" customFormat="1" ht="95.25" customHeight="1">
+      <c r="A9" s="146"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="110"/>
+      <c r="I9" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="60"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+    </row>
+    <row r="10" spans="1:26" s="65" customFormat="1" ht="95.25" customHeight="1">
+      <c r="A10" s="146"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="110"/>
+      <c r="I10" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="60"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+    </row>
+    <row r="11" spans="1:26" s="65" customFormat="1" ht="93.75" customHeight="1">
+      <c r="A11" s="147"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="110"/>
+      <c r="I11" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="66"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="64"/>
+    </row>
+    <row r="12" spans="1:26" s="47" customFormat="1" ht="84" customHeight="1">
+      <c r="A12" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="66" t="s">
-        <v>32</v>
+      <c r="B12" s="153" t="s">
+        <v>90</v>
       </c>
-      <c r="D7" s="66" t="s">
-        <v>71</v>
+      <c r="C12" s="41" t="s">
+        <v>62</v>
       </c>
-      <c r="E7" s="66" t="s">
-        <v>36</v>
+      <c r="D12" s="41" t="s">
+        <v>61</v>
       </c>
-      <c r="F7" s="66" t="s">
-        <v>34</v>
+      <c r="E12" s="41" t="s">
+        <v>63</v>
       </c>
-      <c r="G7" s="144" t="s">
-        <v>48</v>
+      <c r="F12" s="41" t="s">
+        <v>64</v>
       </c>
-      <c r="H7" s="145"/>
-      <c r="I7" s="65" t="s">
+      <c r="G12" s="162" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="163"/>
+      <c r="I12" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="42"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+    </row>
+    <row r="13" spans="1:26" s="47" customFormat="1" ht="93" customHeight="1">
+      <c r="A13" s="146"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="164" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="165"/>
+      <c r="I13" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="49"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+    </row>
+    <row r="14" spans="1:26" s="47" customFormat="1" ht="93" customHeight="1">
+      <c r="A14" s="146"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="164" t="s">
+        <v>189</v>
+      </c>
+      <c r="H14" s="143"/>
+      <c r="I14" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="65"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="70"/>
-      <c r="Z7" s="70"/>
-    </row>
-    <row r="8" spans="1:26" s="71" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A8" s="65" t="s">
+      <c r="J14" s="49"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+    </row>
+    <row r="15" spans="1:26" s="47" customFormat="1" ht="93" customHeight="1">
+      <c r="A15" s="146"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="154" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="164" t="s">
+        <v>208</v>
+      </c>
+      <c r="H15" s="143"/>
+      <c r="I15" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="49"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
+    </row>
+    <row r="16" spans="1:26" s="47" customFormat="1" ht="93" customHeight="1">
+      <c r="A16" s="146"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="164" t="s">
+        <v>210</v>
+      </c>
+      <c r="H16" s="143"/>
+      <c r="I16" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="49"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+    </row>
+    <row r="17" spans="1:26" s="47" customFormat="1" ht="93" customHeight="1">
+      <c r="A17" s="147"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="G17" s="164" t="s">
+        <v>213</v>
+      </c>
+      <c r="H17" s="143"/>
+      <c r="I17" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="49"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+    </row>
+    <row r="18" spans="1:26" s="59" customFormat="1" ht="103.5" customHeight="1">
+      <c r="A18" s="152" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="152" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="155" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="122" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="123"/>
+      <c r="I18" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="54"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
+    </row>
+    <row r="19" spans="1:26" s="59" customFormat="1" ht="103.5" customHeight="1">
+      <c r="A19" s="146"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="122" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="123"/>
+      <c r="I19" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="54"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58"/>
+    </row>
+    <row r="20" spans="1:26" s="59" customFormat="1" ht="123.75" customHeight="1">
+      <c r="A20" s="147"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="122" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="123"/>
+      <c r="I20" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="54"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="58"/>
+    </row>
+    <row r="21" spans="1:26" s="80" customFormat="1" ht="102" customHeight="1">
+      <c r="A21" s="151" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="151" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="126" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="127"/>
+      <c r="I21" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="75"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="78"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="79"/>
+      <c r="X21" s="79"/>
+      <c r="Y21" s="79"/>
+      <c r="Z21" s="79"/>
+    </row>
+    <row r="22" spans="1:26" s="80" customFormat="1" ht="105.75" customHeight="1">
+      <c r="A22" s="146"/>
+      <c r="B22" s="146"/>
+      <c r="C22" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="156" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="126" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="127"/>
+      <c r="I22" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="75"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="79"/>
+    </row>
+    <row r="23" spans="1:26" s="80" customFormat="1" ht="91.5" customHeight="1">
+      <c r="A23" s="147"/>
+      <c r="B23" s="147"/>
+      <c r="C23" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="156" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="125"/>
+      <c r="I23" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="75"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="78"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="79"/>
+      <c r="Y23" s="79"/>
+      <c r="Z23" s="79"/>
+    </row>
+    <row r="24" spans="1:26" s="73" customFormat="1" ht="84" customHeight="1">
+      <c r="A24" s="150" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="150" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="157" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="157" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="157" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="157" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="128" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="129"/>
+      <c r="I24" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="68"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="72"/>
+    </row>
+    <row r="25" spans="1:26" s="73" customFormat="1" ht="98.25" customHeight="1">
+      <c r="A25" s="147"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="157" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" s="157" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="157" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="128" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="129"/>
+      <c r="I25" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="68"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="81"/>
+      <c r="S25" s="81"/>
+      <c r="T25" s="81"/>
+      <c r="U25" s="81"/>
+      <c r="V25" s="81"/>
+      <c r="W25" s="81"/>
+      <c r="X25" s="81"/>
+      <c r="Y25" s="81"/>
+      <c r="Z25" s="81"/>
+    </row>
+    <row r="26" spans="1:26" ht="116.25" customHeight="1">
+      <c r="A26" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="66" t="s">
-        <v>50</v>
+      <c r="B26" s="149" t="s">
+        <v>139</v>
       </c>
-      <c r="D8" s="66" t="s">
-        <v>51</v>
+      <c r="C26" s="22" t="s">
+        <v>140</v>
       </c>
-      <c r="E8" s="66" t="s">
-        <v>52</v>
+      <c r="D26" s="22" t="s">
+        <v>141</v>
       </c>
-      <c r="F8" s="66" t="s">
-        <v>53</v>
+      <c r="E26" s="22" t="s">
+        <v>139</v>
       </c>
-      <c r="G8" s="144" t="s">
-        <v>55</v>
+      <c r="F26" s="22" t="s">
+        <v>142</v>
       </c>
-      <c r="H8" s="145"/>
-      <c r="I8" s="65" t="s">
+      <c r="G26" s="132" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="133"/>
+      <c r="I26" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="65"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="70"/>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="70"/>
-    </row>
-    <row r="9" spans="1:26" s="71" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A9" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="144" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="145"/>
-      <c r="I9" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="65"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
-      <c r="Z9" s="70"/>
-    </row>
-    <row r="10" spans="1:26" s="71" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A10" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="144" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="145"/>
-      <c r="I10" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="65"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="68"/>
-      <c r="T10" s="68"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="70"/>
-      <c r="W10" s="70"/>
-      <c r="X10" s="70"/>
-      <c r="Y10" s="70"/>
-      <c r="Z10" s="70"/>
-    </row>
-    <row r="11" spans="1:26" s="71" customFormat="1" ht="93.75" customHeight="1">
-      <c r="A11" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="144" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="145"/>
-      <c r="I11" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="72"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="70"/>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="70"/>
-    </row>
-    <row r="12" spans="1:26" s="49" customFormat="1" ht="84" customHeight="1">
-      <c r="A12" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="146" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="147"/>
-      <c r="I12" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="44"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-    </row>
-    <row r="13" spans="1:26" s="49" customFormat="1" ht="93" customHeight="1">
-      <c r="A13" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="148" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="149"/>
-      <c r="I13" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="55"/>
-    </row>
-    <row r="14" spans="1:26" s="64" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A14" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="150" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="151"/>
-      <c r="I14" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" s="59"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="63"/>
-      <c r="W14" s="63"/>
-      <c r="X14" s="63"/>
-      <c r="Y14" s="63"/>
-      <c r="Z14" s="63"/>
-    </row>
-    <row r="15" spans="1:26" s="64" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A15" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="150" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="151"/>
-      <c r="I15" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" s="59"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
-      <c r="X15" s="63"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="63"/>
-    </row>
-    <row r="16" spans="1:26" s="64" customFormat="1" ht="123.75" customHeight="1">
-      <c r="A16" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="150" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="151"/>
-      <c r="I16" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="59"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="61"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="63"/>
-      <c r="Y16" s="63"/>
-      <c r="Z16" s="63"/>
-    </row>
-    <row r="17" spans="1:26" s="89" customFormat="1" ht="102" customHeight="1">
-      <c r="A17" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="82" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="83" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="154" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="155"/>
-      <c r="I17" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" s="84"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="87"/>
-      <c r="V17" s="88"/>
-      <c r="W17" s="88"/>
-      <c r="X17" s="88"/>
-      <c r="Y17" s="88"/>
-      <c r="Z17" s="88"/>
-    </row>
-    <row r="18" spans="1:26" s="89" customFormat="1" ht="105.75" customHeight="1">
-      <c r="A18" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="154" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="155"/>
-      <c r="I18" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" s="84"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="87"/>
-      <c r="V18" s="88"/>
-      <c r="W18" s="88"/>
-      <c r="X18" s="88"/>
-      <c r="Y18" s="88"/>
-      <c r="Z18" s="88"/>
-    </row>
-    <row r="19" spans="1:26" s="89" customFormat="1" ht="91.5" customHeight="1">
-      <c r="A19" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="152" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="153"/>
-      <c r="I19" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" s="84"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="87"/>
-      <c r="V19" s="88"/>
-      <c r="W19" s="88"/>
-      <c r="X19" s="88"/>
-      <c r="Y19" s="88"/>
-      <c r="Z19" s="88"/>
-    </row>
-    <row r="20" spans="1:26" s="80" customFormat="1" ht="84" customHeight="1">
-      <c r="A20" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="81" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="134" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="135"/>
-      <c r="I20" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="J20" s="75"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="79"/>
-      <c r="X20" s="79"/>
-      <c r="Y20" s="79"/>
-      <c r="Z20" s="79"/>
-    </row>
-    <row r="21" spans="1:26" s="80" customFormat="1" ht="98.25" customHeight="1">
-      <c r="A21" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="91"/>
-      <c r="S21" s="91"/>
-      <c r="T21" s="91"/>
-      <c r="U21" s="91"/>
-      <c r="V21" s="91"/>
-      <c r="W21" s="91"/>
-      <c r="X21" s="91"/>
-      <c r="Y21" s="91"/>
-      <c r="Z21" s="91"/>
-    </row>
-    <row r="22" spans="1:26" s="80" customFormat="1" ht="109.5" customHeight="1">
-      <c r="A22" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="91"/>
-      <c r="S22" s="91"/>
-      <c r="T22" s="91"/>
-      <c r="U22" s="91"/>
-      <c r="V22" s="91"/>
-      <c r="W22" s="91"/>
-      <c r="X22" s="91"/>
-      <c r="Y22" s="91"/>
-      <c r="Z22" s="91"/>
-    </row>
-    <row r="23" spans="1:26" s="80" customFormat="1" ht="109.5" customHeight="1">
-      <c r="A23" s="73"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="91"/>
-      <c r="S23" s="91"/>
-      <c r="T23" s="91"/>
-      <c r="U23" s="91"/>
-      <c r="V23" s="91"/>
-      <c r="W23" s="91"/>
-      <c r="X23" s="91"/>
-      <c r="Y23" s="91"/>
-      <c r="Z23" s="91"/>
-    </row>
-    <row r="24" spans="1:26" s="80" customFormat="1" ht="123" customHeight="1">
-      <c r="A24" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="91"/>
-      <c r="P24" s="91"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="91"/>
-      <c r="S24" s="91"/>
-      <c r="T24" s="91"/>
-      <c r="U24" s="91"/>
-      <c r="V24" s="91"/>
-      <c r="W24" s="91"/>
-      <c r="X24" s="91"/>
-      <c r="Y24" s="91"/>
-      <c r="Z24" s="91"/>
-    </row>
-    <row r="25" spans="1:26" s="80" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A25" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="91"/>
-      <c r="T25" s="91"/>
-      <c r="U25" s="91"/>
-      <c r="V25" s="91"/>
-      <c r="W25" s="91"/>
-      <c r="X25" s="91"/>
-      <c r="Y25" s="91"/>
-      <c r="Z25" s="91"/>
-    </row>
-    <row r="26" spans="1:26" ht="116.25" customHeight="1">
-      <c r="A26" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="22"/>
       <c r="J26" s="23"/>
       <c r="K26" s="35"/>
       <c r="L26" s="22"/>
@@ -59491,487 +60447,653 @@
       <c r="Y26" s="28"/>
       <c r="Z26" s="28"/>
     </row>
-    <row r="27" spans="1:26" s="99" customFormat="1" ht="84.75" customHeight="1">
-      <c r="A27" s="94" t="s">
+    <row r="27" spans="1:26" s="105" customFormat="1" ht="116.25" customHeight="1">
+      <c r="A27" s="146"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="132" t="s">
+        <v>147</v>
+      </c>
+      <c r="H27" s="143"/>
+      <c r="I27" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="23"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+    </row>
+    <row r="28" spans="1:26" s="105" customFormat="1" ht="116.25" customHeight="1">
+      <c r="A28" s="146"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" s="132" t="s">
+        <v>151</v>
+      </c>
+      <c r="H28" s="144"/>
+      <c r="I28" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="23"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+    </row>
+    <row r="29" spans="1:26" s="105" customFormat="1" ht="116.25" customHeight="1">
+      <c r="A29" s="146"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G29" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="H29" s="143"/>
+      <c r="I29" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="23"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+    </row>
+    <row r="30" spans="1:26" s="105" customFormat="1" ht="116.25" customHeight="1">
+      <c r="A30" s="146"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="132" t="s">
+        <v>159</v>
+      </c>
+      <c r="H30" s="143"/>
+      <c r="I30" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="23"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+    </row>
+    <row r="31" spans="1:26" s="105" customFormat="1" ht="116.25" customHeight="1">
+      <c r="A31" s="147"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G31" s="132" t="s">
+        <v>163</v>
+      </c>
+      <c r="H31" s="143"/>
+      <c r="I31" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="23"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+    </row>
+    <row r="32" spans="1:26" s="86" customFormat="1" ht="84.75" customHeight="1">
+      <c r="A32" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="94"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="98"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="98"/>
-      <c r="P27" s="98"/>
-      <c r="Q27" s="98"/>
-      <c r="R27" s="98"/>
-      <c r="S27" s="98"/>
-      <c r="T27" s="98"/>
-      <c r="U27" s="98"/>
-      <c r="V27" s="98"/>
-      <c r="W27" s="98"/>
-      <c r="X27" s="98"/>
-      <c r="Y27" s="98"/>
-      <c r="Z27" s="98"/>
-    </row>
-    <row r="28" spans="1:26" s="99" customFormat="1" ht="90" customHeight="1">
-      <c r="A28" s="94" t="s">
-        <v>29</v>
+      <c r="B32" s="148" t="s">
+        <v>168</v>
       </c>
-      <c r="B28" s="94"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="98"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="98"/>
-      <c r="P28" s="98"/>
-      <c r="Q28" s="98"/>
-      <c r="R28" s="98"/>
-      <c r="S28" s="98"/>
-      <c r="T28" s="98"/>
-      <c r="U28" s="98"/>
-      <c r="V28" s="98"/>
-      <c r="W28" s="98"/>
-      <c r="X28" s="98"/>
-      <c r="Y28" s="98"/>
-      <c r="Z28" s="98"/>
-    </row>
-    <row r="29" spans="1:26" s="99" customFormat="1" ht="87" customHeight="1">
-      <c r="A29" s="94" t="s">
-        <v>29</v>
+      <c r="C32" s="82" t="s">
+        <v>169</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="97"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="98"/>
-      <c r="N29" s="98"/>
-      <c r="O29" s="98"/>
-      <c r="P29" s="98"/>
-      <c r="Q29" s="98"/>
-      <c r="R29" s="98"/>
-      <c r="S29" s="98"/>
-      <c r="T29" s="98"/>
-      <c r="U29" s="98"/>
-      <c r="V29" s="98"/>
-      <c r="W29" s="98"/>
-      <c r="X29" s="98"/>
-      <c r="Y29" s="98"/>
-      <c r="Z29" s="98"/>
-    </row>
-    <row r="30" spans="1:26" s="99" customFormat="1" ht="89.25" customHeight="1">
-      <c r="A30" s="94" t="s">
-        <v>29</v>
+      <c r="D32" s="82" t="s">
+        <v>170</v>
       </c>
-      <c r="B30" s="94"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="98"/>
-      <c r="P30" s="98"/>
-      <c r="Q30" s="98"/>
-      <c r="R30" s="98"/>
-      <c r="S30" s="98"/>
-      <c r="T30" s="98"/>
-      <c r="U30" s="98"/>
-      <c r="V30" s="98"/>
-      <c r="W30" s="98"/>
-      <c r="X30" s="98"/>
-      <c r="Y30" s="98"/>
-      <c r="Z30" s="98"/>
-    </row>
-    <row r="31" spans="1:26" s="99" customFormat="1" ht="81" customHeight="1">
-      <c r="A31" s="94" t="s">
-        <v>29</v>
+      <c r="E32" s="82" t="s">
+        <v>168</v>
       </c>
-      <c r="B31" s="94"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="97"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="98"/>
-      <c r="N31" s="98"/>
-      <c r="O31" s="98"/>
-      <c r="P31" s="98"/>
-      <c r="Q31" s="98"/>
-      <c r="R31" s="98"/>
-      <c r="S31" s="98"/>
-      <c r="T31" s="98"/>
-      <c r="U31" s="98"/>
-      <c r="V31" s="98"/>
-      <c r="W31" s="98"/>
-      <c r="X31" s="98"/>
-      <c r="Y31" s="98"/>
-      <c r="Z31" s="98"/>
-    </row>
-    <row r="32" spans="1:26" s="99" customFormat="1" ht="75" customHeight="1">
-      <c r="A32" s="94" t="s">
-        <v>29</v>
+      <c r="F32" s="82" t="s">
+        <v>171</v>
       </c>
-      <c r="B32" s="94"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="129"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="98"/>
-      <c r="N32" s="98"/>
-      <c r="O32" s="98"/>
-      <c r="P32" s="98"/>
-      <c r="Q32" s="98"/>
-      <c r="R32" s="98"/>
-      <c r="S32" s="98"/>
-      <c r="T32" s="98"/>
-      <c r="U32" s="98"/>
-      <c r="V32" s="98"/>
-      <c r="W32" s="98"/>
-      <c r="X32" s="98"/>
-      <c r="Y32" s="98"/>
-      <c r="Z32" s="98"/>
-    </row>
-    <row r="33" spans="1:26" s="71" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A33" s="65" t="s">
+      <c r="G32" s="130" t="s">
+        <v>172</v>
+      </c>
+      <c r="H32" s="131"/>
+      <c r="I32" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="83"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="85"/>
+      <c r="Q32" s="85"/>
+      <c r="R32" s="85"/>
+      <c r="S32" s="85"/>
+      <c r="T32" s="85"/>
+      <c r="U32" s="85"/>
+      <c r="V32" s="85"/>
+      <c r="W32" s="85"/>
+      <c r="X32" s="85"/>
+      <c r="Y32" s="85"/>
+      <c r="Z32" s="85"/>
+    </row>
+    <row r="33" spans="1:26" s="86" customFormat="1" ht="90" customHeight="1">
+      <c r="A33" s="146"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="158" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="158" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" s="158" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33" s="136" t="s">
+        <v>175</v>
+      </c>
+      <c r="H33" s="137"/>
+      <c r="I33" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" s="83"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="85"/>
+      <c r="O33" s="85"/>
+      <c r="P33" s="85"/>
+      <c r="Q33" s="85"/>
+      <c r="R33" s="85"/>
+      <c r="S33" s="85"/>
+      <c r="T33" s="85"/>
+      <c r="U33" s="85"/>
+      <c r="V33" s="85"/>
+      <c r="W33" s="85"/>
+      <c r="X33" s="85"/>
+      <c r="Y33" s="85"/>
+      <c r="Z33" s="85"/>
+    </row>
+    <row r="34" spans="1:26" s="86" customFormat="1" ht="87" customHeight="1">
+      <c r="A34" s="146"/>
+      <c r="B34" s="146"/>
+      <c r="C34" s="158" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="158" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" s="158" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" s="136" t="s">
+        <v>178</v>
+      </c>
+      <c r="H34" s="137"/>
+      <c r="I34" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="83"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="85"/>
+      <c r="O34" s="85"/>
+      <c r="P34" s="85"/>
+      <c r="Q34" s="85"/>
+      <c r="R34" s="85"/>
+      <c r="S34" s="85"/>
+      <c r="T34" s="85"/>
+      <c r="U34" s="85"/>
+      <c r="V34" s="85"/>
+      <c r="W34" s="85"/>
+      <c r="X34" s="85"/>
+      <c r="Y34" s="85"/>
+      <c r="Z34" s="85"/>
+    </row>
+    <row r="35" spans="1:26" s="86" customFormat="1" ht="89.25" customHeight="1">
+      <c r="A35" s="146"/>
+      <c r="B35" s="146"/>
+      <c r="C35" s="158" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="158" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" s="158" t="s">
+        <v>180</v>
+      </c>
+      <c r="G35" s="136" t="s">
+        <v>181</v>
+      </c>
+      <c r="H35" s="137"/>
+      <c r="I35" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="83"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
+      <c r="U35" s="85"/>
+      <c r="V35" s="85"/>
+      <c r="W35" s="85"/>
+      <c r="X35" s="85"/>
+      <c r="Y35" s="85"/>
+      <c r="Z35" s="85"/>
+    </row>
+    <row r="36" spans="1:26" s="86" customFormat="1" ht="81" customHeight="1">
+      <c r="A36" s="146"/>
+      <c r="B36" s="146"/>
+      <c r="C36" s="158" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="158" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="F36" s="158" t="s">
+        <v>183</v>
+      </c>
+      <c r="G36" s="136" t="s">
+        <v>184</v>
+      </c>
+      <c r="H36" s="137"/>
+      <c r="I36" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" s="83"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="85"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="85"/>
+      <c r="R36" s="85"/>
+      <c r="S36" s="85"/>
+      <c r="T36" s="85"/>
+      <c r="U36" s="85"/>
+      <c r="V36" s="85"/>
+      <c r="W36" s="85"/>
+      <c r="X36" s="85"/>
+      <c r="Y36" s="85"/>
+      <c r="Z36" s="85"/>
+    </row>
+    <row r="37" spans="1:26" s="86" customFormat="1" ht="75" customHeight="1">
+      <c r="A37" s="147"/>
+      <c r="B37" s="147"/>
+      <c r="C37" s="158" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="158" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" s="158" t="s">
+        <v>185</v>
+      </c>
+      <c r="G37" s="136" t="s">
+        <v>186</v>
+      </c>
+      <c r="H37" s="137"/>
+      <c r="I37" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37" s="83"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="85"/>
+      <c r="O37" s="85"/>
+      <c r="P37" s="85"/>
+      <c r="Q37" s="85"/>
+      <c r="R37" s="85"/>
+      <c r="S37" s="85"/>
+      <c r="T37" s="85"/>
+      <c r="U37" s="85"/>
+      <c r="V37" s="85"/>
+      <c r="W37" s="85"/>
+      <c r="X37" s="85"/>
+      <c r="Y37" s="85"/>
+      <c r="Z37" s="85"/>
+    </row>
+    <row r="38" spans="1:26" s="65" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A38" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="102"/>
-      <c r="N33" s="102"/>
-      <c r="O33" s="102"/>
-      <c r="P33" s="102"/>
-      <c r="Q33" s="102"/>
-      <c r="R33" s="102"/>
-      <c r="S33" s="102"/>
-      <c r="T33" s="102"/>
-      <c r="U33" s="102"/>
-      <c r="V33" s="102"/>
-      <c r="W33" s="102"/>
-      <c r="X33" s="102"/>
-      <c r="Y33" s="102"/>
-      <c r="Z33" s="102"/>
-    </row>
-    <row r="34" spans="1:26" s="71" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A34" s="65" t="s">
+      <c r="B38" s="145" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="159"/>
+      <c r="D38" s="159" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" s="159" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" s="159" t="s">
+        <v>192</v>
+      </c>
+      <c r="G38" s="138" t="s">
+        <v>193</v>
+      </c>
+      <c r="H38" s="139"/>
+      <c r="I38" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" s="66"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="87"/>
+      <c r="N38" s="87"/>
+      <c r="O38" s="87"/>
+      <c r="P38" s="87"/>
+      <c r="Q38" s="87"/>
+      <c r="R38" s="87"/>
+      <c r="S38" s="87"/>
+      <c r="T38" s="87"/>
+      <c r="U38" s="87"/>
+      <c r="V38" s="87"/>
+      <c r="W38" s="87"/>
+      <c r="X38" s="87"/>
+      <c r="Y38" s="87"/>
+      <c r="Z38" s="87"/>
+    </row>
+    <row r="39" spans="1:26" s="65" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A39" s="146"/>
+      <c r="B39" s="146"/>
+      <c r="C39" s="159" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39" s="159" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="159" t="s">
+        <v>190</v>
+      </c>
+      <c r="F39" s="159" t="s">
+        <v>195</v>
+      </c>
+      <c r="G39" s="138" t="s">
+        <v>196</v>
+      </c>
+      <c r="H39" s="139"/>
+      <c r="I39" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39" s="66"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="87"/>
+      <c r="N39" s="87"/>
+      <c r="O39" s="87"/>
+      <c r="P39" s="87"/>
+      <c r="Q39" s="87"/>
+      <c r="R39" s="87"/>
+      <c r="S39" s="87"/>
+      <c r="T39" s="87"/>
+      <c r="U39" s="87"/>
+      <c r="V39" s="87"/>
+      <c r="W39" s="87"/>
+      <c r="X39" s="87"/>
+      <c r="Y39" s="87"/>
+      <c r="Z39" s="87"/>
+    </row>
+    <row r="40" spans="1:26" s="65" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A40" s="146"/>
+      <c r="B40" s="146"/>
+      <c r="C40" s="159" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" s="159" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="159" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" s="159" t="s">
+        <v>198</v>
+      </c>
+      <c r="G40" s="103" t="s">
+        <v>199</v>
+      </c>
+      <c r="H40" s="104"/>
+      <c r="I40" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" s="66"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="87"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="87"/>
+      <c r="R40" s="87"/>
+      <c r="S40" s="87"/>
+      <c r="T40" s="87"/>
+      <c r="U40" s="87"/>
+      <c r="V40" s="87"/>
+      <c r="W40" s="87"/>
+      <c r="X40" s="87"/>
+      <c r="Y40" s="87"/>
+      <c r="Z40" s="87"/>
+    </row>
+    <row r="41" spans="1:26" s="65" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A41" s="147"/>
+      <c r="B41" s="147"/>
+      <c r="C41" s="159" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41" s="159" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="159" t="s">
+        <v>190</v>
+      </c>
+      <c r="F41" s="159" t="s">
+        <v>201</v>
+      </c>
+      <c r="G41" s="138" t="s">
+        <v>202</v>
+      </c>
+      <c r="H41" s="143"/>
+      <c r="I41" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" s="66"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="87"/>
+      <c r="O41" s="87"/>
+      <c r="P41" s="87"/>
+      <c r="Q41" s="87"/>
+      <c r="R41" s="87"/>
+      <c r="S41" s="87"/>
+      <c r="T41" s="87"/>
+      <c r="U41" s="87"/>
+      <c r="V41" s="87"/>
+      <c r="W41" s="87"/>
+      <c r="X41" s="87"/>
+      <c r="Y41" s="87"/>
+      <c r="Z41" s="87"/>
+    </row>
+    <row r="42" spans="1:26" s="92" customFormat="1" ht="142.5" customHeight="1">
+      <c r="A42" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="65"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="131"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="102"/>
-      <c r="N34" s="102"/>
-      <c r="O34" s="102"/>
-      <c r="P34" s="102"/>
-      <c r="Q34" s="102"/>
-      <c r="R34" s="102"/>
-      <c r="S34" s="102"/>
-      <c r="T34" s="102"/>
-      <c r="U34" s="102"/>
-      <c r="V34" s="102"/>
-      <c r="W34" s="102"/>
-      <c r="X34" s="102"/>
-      <c r="Y34" s="102"/>
-      <c r="Z34" s="102"/>
-    </row>
-    <row r="35" spans="1:26" s="108" customFormat="1" ht="142.5" customHeight="1">
-      <c r="A35" s="103" t="s">
+      <c r="B42" s="88"/>
+      <c r="C42" s="160"/>
+      <c r="D42" s="160"/>
+      <c r="E42" s="160"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="134"/>
+      <c r="H42" s="135"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="91"/>
+      <c r="N42" s="91"/>
+      <c r="O42" s="91"/>
+      <c r="P42" s="91"/>
+      <c r="Q42" s="91"/>
+      <c r="R42" s="91"/>
+      <c r="S42" s="91"/>
+      <c r="T42" s="91"/>
+      <c r="U42" s="91"/>
+      <c r="V42" s="91"/>
+      <c r="W42" s="91"/>
+      <c r="X42" s="91"/>
+      <c r="Y42" s="91"/>
+      <c r="Z42" s="91"/>
+    </row>
+    <row r="43" spans="1:26" ht="103.5" customHeight="1">
+      <c r="A43" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="103"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="127"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="106"/>
-      <c r="L35" s="103"/>
-      <c r="M35" s="107"/>
-      <c r="N35" s="107"/>
-      <c r="O35" s="107"/>
-      <c r="P35" s="107"/>
-      <c r="Q35" s="107"/>
-      <c r="R35" s="107"/>
-      <c r="S35" s="107"/>
-      <c r="T35" s="107"/>
-      <c r="U35" s="107"/>
-      <c r="V35" s="107"/>
-      <c r="W35" s="107"/>
-      <c r="X35" s="107"/>
-      <c r="Y35" s="107"/>
-      <c r="Z35" s="107"/>
-    </row>
-    <row r="36" spans="1:26" ht="103.5" customHeight="1">
-      <c r="A36" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="28"/>
-    </row>
-    <row r="37" spans="1:26" ht="85.5" customHeight="1">
-      <c r="A37" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="123"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="28"/>
-    </row>
-    <row r="38" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="123"/>
-      <c r="H38" s="124"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="28"/>
-    </row>
-    <row r="39" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="123"/>
-      <c r="H39" s="124"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="28"/>
-      <c r="U39" s="28"/>
-      <c r="V39" s="28"/>
-      <c r="W39" s="28"/>
-      <c r="X39" s="28"/>
-      <c r="Y39" s="28"/>
-      <c r="Z39" s="28"/>
-    </row>
-    <row r="40" spans="1:26" ht="70.5" customHeight="1">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="123"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="28"/>
-    </row>
-    <row r="41" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="123"/>
-      <c r="H41" s="124"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="28"/>
-    </row>
-    <row r="42" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="123"/>
-      <c r="H42" s="124"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="28"/>
-    </row>
-    <row r="43" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A43" s="22"/>
       <c r="B43" s="22"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="123"/>
-      <c r="H43" s="124"/>
+      <c r="C43" s="161"/>
+      <c r="D43" s="161"/>
+      <c r="E43" s="161"/>
+      <c r="F43" s="161"/>
+      <c r="G43" s="140"/>
+      <c r="H43" s="142"/>
       <c r="I43" s="22"/>
       <c r="J43" s="23"/>
       <c r="K43" s="35"/>
@@ -59991,15 +61113,19 @@
       <c r="Y43" s="28"/>
       <c r="Z43" s="28"/>
     </row>
-    <row r="44" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="123"/>
-      <c r="H44" s="124"/>
+    <row r="44" spans="1:26" ht="85.5" customHeight="1">
+      <c r="A44" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="161"/>
+      <c r="D44" s="161"/>
+      <c r="E44" s="161"/>
+      <c r="F44" s="161"/>
+      <c r="G44" s="140"/>
+      <c r="H44" s="142"/>
       <c r="I44" s="22"/>
       <c r="J44" s="23"/>
       <c r="K44" s="35"/>
@@ -60019,8 +61145,261 @@
       <c r="Y44" s="28"/>
       <c r="Z44" s="28"/>
     </row>
+    <row r="45" spans="1:26" ht="64.5" customHeight="1">
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="140"/>
+      <c r="H45" s="141"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+    </row>
+    <row r="46" spans="1:26" ht="64.5" customHeight="1">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="140"/>
+      <c r="H46" s="141"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+    </row>
+    <row r="47" spans="1:26" ht="70.5" customHeight="1">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="140"/>
+      <c r="H47" s="141"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28"/>
+    </row>
+    <row r="48" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="140"/>
+      <c r="H48" s="141"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="28"/>
+    </row>
+    <row r="49" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="140"/>
+      <c r="H49" s="141"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="28"/>
+    </row>
+    <row r="50" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="140"/>
+      <c r="H50" s="141"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="28"/>
+    </row>
+    <row r="51" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="140"/>
+      <c r="H51" s="141"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="28"/>
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="28"/>
+    </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="73">
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
@@ -60037,40 +61416,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="4">
@@ -60078,13 +61423,13 @@
       <formula1>36526</formula1>
       <formula2>401768</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="J6:J18 J20:J44" xr:uid="{00000000-0002-0000-0300-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="J6:J22 J24:J51" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"추가,수정,삭제"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="I6:I44" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="I6:I51" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"구현,검증,제안,수용,연기,불가"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="A6:A44" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="A6 A42:A51 A24 A26 A32 A38 A21 A12 A18" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"기능,기술,인터페이스,기본 요건"</formula1>
     </dataValidation>
   </dataValidations>

--- a/요구사항정의서.xlsx
+++ b/요구사항정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\602-01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\602-01\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F42B896-5E36-4923-880F-41ED1005D0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF70831-4B7A-4483-B602-1FBE1645AD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="2385" windowWidth="18240" windowHeight="14295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="2" r:id="rId1"/>
@@ -35,11 +35,22 @@
     <definedName name="Z_D0F2CF78_9F87_4403_936B_BC9A9D69B8A3_.wvu.PrintTitles" localSheetId="2">요구사항정의서!$A$3:$IV$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="312">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -173,10 +184,6 @@
   </si>
   <si>
     <t>날짜 확인하시고 날짜동일한 경우로 하실경우 변경일 공란으로 두시고 변경내용만 추가하시면 됩니다. 날짜 동일한 경우 버전도 동일합니다. 아래는 예시</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
@@ -832,79 +839,470 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>정영훈</t>
+    <t>리뷰게시판</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>배재천</t>
+    <t>구현</t>
+  </si>
+  <si>
+    <t>"글 수정완료"
+&gt; 해당 상세게시물 페이지로 새로고침</t>
+  </si>
+  <si>
+    <t>글삭제 버튼 
+클릭</t>
+  </si>
+  <si>
+    <t>* 게시글이 삭제된다. 데이터베이스에서도 제거됨.</t>
+  </si>
+  <si>
+    <t>커뮤니티 페이지에서 검색결과 보여줌</t>
+  </si>
+  <si>
+    <t>* 댓글내용
+* 닉네임</t>
+  </si>
+  <si>
+    <t>상세게시물 페이지 새로고침</t>
+  </si>
+  <si>
+    <t>* 게시글을 클릭해 해당 게시글 상세페이지에서 댓글을 볼수 있다.</t>
+  </si>
+  <si>
+    <t>* 댓글내용</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"댓글 수정완료" &gt;해당 상세게시물페이지 새로고침 </t>
+  </si>
+  <si>
+    <t>댓글의 삭제 버튼 클릭</t>
+  </si>
+  <si>
+    <t>"댓글 삭제완료" &gt; 해당 상세게시물페이지 새로고침</t>
+  </si>
+  <si>
+    <t>* 본인이 작성한 댓글에만 삭제버튼이 나타나 삭제할수있다.</t>
+  </si>
+  <si>
+    <t>해당 카테고리 키워드 클릭</t>
+  </si>
+  <si>
+    <t>일치 게시글만 출력</t>
+  </si>
+  <si>
+    <t>원하는 정렬조건 클릭</t>
+  </si>
+  <si>
+    <t>게시글 재정렬</t>
+  </si>
+  <si>
+    <t>유저 레시피 게시판
+정렬</t>
+  </si>
+  <si>
+    <t>1.프린트 버튼 클릭
+2. pdf 파일 다운 버튼 클릭</t>
+  </si>
+  <si>
+    <t>pdf 파일 저장, 프린트</t>
+  </si>
+  <si>
+    <t>1. 해당페이지 프린트 창 열림
+2. 해당 게시물 내용 pdf 파일로 자동 다운로드.</t>
+  </si>
+  <si>
+    <t>응답 챗봇 제시 키워드 클릭 or 채팅입력</t>
+  </si>
+  <si>
+    <t>응답 챗봇</t>
+  </si>
+  <si>
+    <t>전체 페이지</t>
+  </si>
+  <si>
+    <t>유저들이 작성한 캠핑장리뷰 글 출력</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>정영훈 / 배재천</t>
+    <t>유저들이 작성한 캠핑장리뷰 보기</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>날씨 데이터</t>
+    <t>유저 리뷰</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>접속한 시간의 일기예보 조회</t>
+    <t>리뷰 게시판 글쓰기</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>사용자가 접속한 위치의 날짜와 시간을 기반으로 기상청 공공데이터 API를 통해 현재 온도, 오늘 최고, 최저온도, 습도, 하늘상태를 화면에 표시.</t>
+    <t>* 제목
+* 글쓴이 :자동
+* 작성일 : 자동
+* 캠핑장명
+* 별점
+* 리뷰내용</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>온도 그래프</t>
+    <t xml:space="preserve">* 제목, 캠핑장명 , 별점 , 리뷰내용을 사용자가 입력한다.
+(이때 캠핑장명은 캠핑장 검색기능을 이용해서 자동입력한다)
+* 글쓴이, 작성일은 자동입력되며 변경불가능하다.
+* 별점은 별모양 아이콘을 클릭하는것으로 점수를매긴다.
+* 리뷰내용 작성부분은 에디터를 사용해 그림등을 자유롭게 넣을 수 있다.
+</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>접속한 날짜를 기반으로 오늘, 내일, 모레의 기온을 기상청 API에 요청해서 데이터 반환 &gt; 받은 데이터를 그래프화 해서 화면에 구현.</t>
+    <t>리뷰 게시판 글 수정</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>일기예보 영상</t>
+    <t>* 제목
+* 캠핑장명
+* 별점
+* 리뷰내용</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>유튜브 API를 통하여 최신 일기예보 조회</t>
+    <t>* 제목, 캠핑장명 , 별점 , 리뷰내용 란만 수정 가능하다.
+* 수정해도 글쓴이, 작성일은 변경되지않는다.
+*기존의 글쓴 데이터가 불러와진다.</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>유튜브 API를 통해 "오늘비와"채널의 일기예보영상 리스트 요청 &gt; 최신순으로 정렬한 동영상을 10개 반환 &gt; 반환된 리스트를 화면에 구현.</t>
+    <t>"글 삭제완료"
+&gt; 리뷰게시판 목록으로 이동</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>날씨 오류 수정</t>
+    <t>리뷰게시판 목록으로 이동</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>오세현</t>
+    <t>리뷰 게시판 글 삭제</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>기상청 API로 날씨 정보 구현</t>
+    <t>리뷰 게시판 댓글 출력</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>유튜브 API로 일기예보 영상 구현</t>
+    <t>상세게시물 페이지 새로고침</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>날씨 데이터 그래프 구현</t>
+    <t>* 글제목, 작성자, 캠핑장명 검색</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>날씨 그래프 오류 수정</t>
+    <t>리뷰 게시판 글 검색</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>캠핑장 추천 관련 페이지에 뒤로가기 및 홈버튼 구현</t>
+    <t>* 해당 검색키워드가 포함된 제목으로 검색을 할수있다.
+* 해당 키워드와 닉네임이 일치하는 사용자의 글을 보여준다.
+* 해당 키워드와 캠핑장명이 일치하는 글을 보여준다.
+* 게시글 6개마다 페이징처리한다.</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>소개페이지 내용 수정</t>
+    <t>리뷰 게시판 댓글 쓰기</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 게시글 상세페이지에서 댓글을 작성할 수 있다.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 본인이 작성한 댓글에만 수정버튼이 나타나 수정할수있다.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 게시판 댓글 수정</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 게시판 댓글 삭제</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴바에서 'notice' 버튼을 클릭</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>*게시글 모두 출력</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항/이벤트 글 출력</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항/이벤트 게시판
+카테고리 분류</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 키워드를 클릭하면 해당 카테고리의 글만 나온다.
+(키워드 : 공지사항, 이벤트)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 게시글 추천아이콘 클릭
+2. 게시글 공유 아이콘 클릭
+3. 게시글 소셜공유 아이콘 클릭
+4. 게시글 북마크 아이콘 클릭</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 추천했다고 버튼이 바뀐다.
+2. "복사 되었습니다" 안내문이 나타나고 클립보드에 url 복사됨.
+3. 소셜페이지로 연결
+4. 북마크 등록했다고 버튼이 바뀐다.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 추천
+게시글 공유
+게시글 북마크</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 추천 아이콘 클릭시 해당게시글의 추천횟수 +1 증가.
+2. 공유하기 아이콘 클릭시 해당게시글의 url 클립보드로 자동 복사.
+3. 소셜 공유페이지로 이동( 로그인필요)
+4. 북마크 아이콘 클릭시 해당북마크 횟수가 +1 증가하며 마이페이지에서 북마크 리뷰를 볼수있게된다.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 페이지</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 상세정보 pdf 저장, 프린트 출력</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>kakao API를 통한 고객문의 응답 챗봇</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 키워드 클릭시 지정해둔 응답에 따라 대답.
+2. 채팅시 gpt 자체 대답.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">정렬 기준을 클릭하면 해당 정렬방법에의해 게시글이 재정렬된다. </t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항/이벤트 게시판</t>
+  </si>
+  <si>
+    <t>공지사항/이벤트 게시판</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 게시판</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>도움 챗봇</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 공지사항/이벤트 게시판에 작성된 유저들의 글을 모두 보여준다. 게시글 6개마다 페이징처리한다.
+* 클릭시 상세정보를 볼수있다.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>가이드 페이지</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버 카페 api를 이용해 카페 검색 목록 출력</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>API를 이용해서 네이버 카페에 작성되 있는 글 목록을 불러오고, 클릭시 카페의 본문내용만 크롤링해서 가져와서 출력한다.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠핑 공부하러 go! 버튼을 누른다.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버 카페 API 데이터</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버 쇼핑 API 데이터</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버 쇼핑 api를 이용해 검색 목록 출력</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색시 네이버 쇼핑 api 를 이용해서 검색결과를 받아와서 출력한다. 
+(이름, 최저가, 분류등)
+이름을 누르면 해당 쇼핑페이지로 이동한다.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠핑 물품 준비하기 버튼을 누른다.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>식품 DB API 데이터</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>식품 데이터베이스 API를 이용해서 정보를 출력한다.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식 상위 6가지만 검색결과를 받아와서 출력하고 클릭시 해당 재료, 레시피등의 내용과 사진을 출력한다.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>요리 준비하러 go! 버튼을 누른다.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜, 캠핑장명, 인원수, 연락처, 이름, 추가정보</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약하기</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약할 경우 날짜, 캠핑장명, 인원수, 연락처, 이름, 추가정보 등을 입력하면 예약 신청이 완료된다.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 예약의 상세페이지</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 출력</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 예약보기에서 나의 예약목록들을 볼수있고, 클릭시 예약 상세정보 확인이 가능하다.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 수정</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 삭제</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정완료버튼 &gt; 해당 예약의 상세페이지로 이동</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제버튼 &gt; 나의 예약목록 페이지로</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜, 캠핑장명, 인원수, 연락처, 이름, 추가정보 등을 수정가능하다.
+(단 예약상태가 대기중일 경우에만 가능하다.)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약을 삭제가능하다.
+(단 예약상태가 대기중일 경우에만 가능하다.)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도 페이지</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠핑장명 검색</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색결과 출력</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오 맵 api를 이용한 지도검색</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색결과를 지도 왼쪽에 표시하고, 지도상에도 마커로 검색결과 출력.
+해당 검색결과를 클릭시 해당마커를 중심으로 지도위치가 변경된다.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도 추가기능</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 
+- 아이콘으로 주변가게 보기
+-로드뷰 보기
+-교통상황확인
+-지역검색</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>* - 마켓, 병원, 약국등의 위치를 현재 지도위치 기준으로 지도상에 표시한다.
+- 로드뷰를 나타내는 창이 하나 더 생기며 지도상의 로드뷰 아이콘 위치를 옮기는것에 맞춰서 로드뷰창의 화면도 바뀐다.
+- 도로에서 교통상황을 빨간색~녹색으로 표시한다.
+- 시군구 순으로 지역을 select 할수있으며 동까지 선택시 해당위치로 지도가 이동한다.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도상 표시</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제버튼 클릭</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답 챗봇 구현</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>권민채</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰게시판 페이지 및 기능 구현</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트/ 공지사항 게시판 페이지 및 기능 구현</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오 api를 이용한 지도 페이지 및 기능 구현</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 페이지 및 기능 구현</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>가이드 페이지 및 기능 구현</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>가이드 관련 페이지(쇼핑, 카페글, 음식등) 페이지 및 기능 구현</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1112,7 +1510,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1197,8 +1595,14 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1291,49 +1695,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1440,7 +1807,7 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1449,6 +1816,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="15" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1468,23 +1838,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="15" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1506,6 +1867,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="15" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1549,6 +1913,9 @@
     <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="15" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1573,6 +1940,9 @@
     <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="15" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1585,19 +1955,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1640,6 +2004,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1647,10 +2015,52 @@
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1686,137 +2096,230 @@
     <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="15" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="11" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="11" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="15" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="15" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -30105,10 +30608,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:Z1034"/>
+  <dimension ref="A1:Z1035"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -30123,14 +30626,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -30263,11 +30766,9 @@
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
       <c r="D5" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>203</v>
-      </c>
+      <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
@@ -30290,15 +30791,17 @@
       <c r="Y5" s="25"/>
       <c r="Z5" s="25"/>
     </row>
-    <row r="6" spans="1:26" s="102" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="22"/>
+    <row r="6" spans="1:26" s="101" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A6" s="22">
+        <v>3</v>
+      </c>
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
       <c r="D6" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="25"/>
@@ -30322,15 +30825,17 @@
       <c r="Y6" s="25"/>
       <c r="Z6" s="25"/>
     </row>
-    <row r="7" spans="1:26" s="102" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="22"/>
+    <row r="7" spans="1:26" s="101" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="22">
+        <v>4</v>
+      </c>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="25"/>
@@ -30354,19 +30859,17 @@
       <c r="Y7" s="25"/>
       <c r="Z7" s="25"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" s="105" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" s="22"/>
-      <c r="C8" s="23">
-        <v>45447</v>
-      </c>
+      <c r="C8" s="23"/>
       <c r="D8" s="24" t="s">
-        <v>106</v>
+        <v>308</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>205</v>
+        <v>305</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="25"/>
@@ -30390,16 +30893,18 @@
       <c r="Y8" s="25"/>
       <c r="Z8" s="25"/>
     </row>
-    <row r="9" spans="1:26" s="102" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="22"/>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A9" s="22">
+        <v>6</v>
+      </c>
       <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
+      <c r="C9" s="23">
+        <v>45447</v>
+      </c>
       <c r="D9" s="24" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="E9" s="22"/>
       <c r="F9" s="22"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -30422,19 +30927,17 @@
       <c r="Y9" s="25"/>
       <c r="Z9" s="25"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
+    <row r="10" spans="1:26" s="101" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="22">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B10" s="22"/>
-      <c r="C10" s="23">
-        <v>45448</v>
-      </c>
+      <c r="C10" s="23"/>
       <c r="D10" s="24" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>203</v>
+        <v>135</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="25"/>
@@ -30458,16 +30961,18 @@
       <c r="Y10" s="25"/>
       <c r="Z10" s="25"/>
     </row>
-    <row r="11" spans="1:26" s="102" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A11" s="22"/>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A11" s="22">
+        <v>8</v>
+      </c>
       <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
+      <c r="C11" s="23">
+        <v>45448</v>
+      </c>
       <c r="D11" s="24" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="E11" s="22"/>
       <c r="F11" s="22"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
@@ -30490,17 +30995,17 @@
       <c r="Y11" s="25"/>
       <c r="Z11" s="25"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" s="101" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="22">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="25"/>
@@ -30524,16 +31029,16 @@
       <c r="Y12" s="25"/>
       <c r="Z12" s="25"/>
     </row>
-    <row r="13" spans="1:26" s="102" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="22"/>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A13" s="22">
+        <v>10</v>
+      </c>
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
       <c r="D13" s="24" t="s">
-        <v>221</v>
+        <v>107</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>215</v>
-      </c>
+      <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -30556,19 +31061,17 @@
       <c r="Y13" s="25"/>
       <c r="Z13" s="25"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" s="105" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="22">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B14" s="22"/>
-      <c r="C14" s="23">
-        <v>45450</v>
-      </c>
+      <c r="C14" s="23"/>
       <c r="D14" s="24" t="s">
-        <v>109</v>
+        <v>307</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>204</v>
+        <v>305</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="25"/>
@@ -30592,16 +31095,18 @@
       <c r="Y14" s="25"/>
       <c r="Z14" s="25"/>
     </row>
-    <row r="15" spans="1:26" s="102" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="22"/>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A15" s="22">
+        <v>12</v>
+      </c>
       <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
+      <c r="C15" s="23">
+        <v>45450</v>
+      </c>
       <c r="D15" s="24" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
@@ -30624,17 +31129,17 @@
       <c r="Y15" s="25"/>
       <c r="Z15" s="25"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" s="101" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="22">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="23"/>
       <c r="D16" s="24" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>203</v>
+        <v>135</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="25"/>
@@ -30660,18 +31165,14 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="22">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B17" s="22"/>
-      <c r="C17" s="23">
-        <v>45453</v>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24" t="s">
+        <v>109</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>205</v>
-      </c>
+      <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
@@ -30694,15 +31195,17 @@
       <c r="Y17" s="25"/>
       <c r="Z17" s="25"/>
     </row>
-    <row r="18" spans="1:26" s="102" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="22"/>
+    <row r="18" spans="1:26" s="105" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="22">
+        <v>15</v>
+      </c>
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
       <c r="D18" s="24" t="s">
-        <v>135</v>
+        <v>309</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>136</v>
+        <v>305</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="25"/>
@@ -30726,16 +31229,18 @@
       <c r="Y18" s="25"/>
       <c r="Z18" s="25"/>
     </row>
-    <row r="19" spans="1:26" s="102" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="22"/>
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A19" s="22">
+        <v>16</v>
+      </c>
       <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
+      <c r="C19" s="23">
+        <v>45453</v>
+      </c>
       <c r="D19" s="24" t="s">
-        <v>216</v>
+        <v>110</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>215</v>
-      </c>
+      <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
@@ -30758,15 +31263,17 @@
       <c r="Y19" s="25"/>
       <c r="Z19" s="25"/>
     </row>
-    <row r="20" spans="1:26" s="102" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A20" s="22"/>
+    <row r="20" spans="1:26" s="101" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A20" s="22">
+        <v>17</v>
+      </c>
       <c r="B20" s="22"/>
       <c r="C20" s="23"/>
       <c r="D20" s="24" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="25"/>
@@ -30790,20 +31297,16 @@
       <c r="Y20" s="25"/>
       <c r="Z20" s="25"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1">
+    <row r="21" spans="1:26" s="105" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="22">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B21" s="22"/>
-      <c r="C21" s="23">
-        <v>45455</v>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24" t="s">
+        <v>304</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>205</v>
-      </c>
+      <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -30828,16 +31331,16 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="22">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
+      <c r="C22" s="23">
+        <v>45455</v>
+      </c>
       <c r="D22" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="22" t="s">
-        <v>205</v>
-      </c>
+      <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
@@ -30862,16 +31365,14 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="22">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="23"/>
       <c r="D23" s="24" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
-      <c r="E23" s="22" t="s">
-        <v>203</v>
-      </c>
+      <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
@@ -30894,16 +31395,16 @@
       <c r="Y23" s="25"/>
       <c r="Z23" s="25"/>
     </row>
-    <row r="24" spans="1:26" s="102" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="22"/>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A24" s="22">
+        <v>21</v>
+      </c>
       <c r="B24" s="22"/>
       <c r="C24" s="23"/>
       <c r="D24" s="24" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
-      <c r="E24" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
@@ -30926,19 +31427,17 @@
       <c r="Y24" s="25"/>
       <c r="Z24" s="25"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26" s="101" customFormat="1" ht="15.75" customHeight="1">
       <c r="A25" s="22">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B25" s="22"/>
-      <c r="C25" s="23">
-        <v>45456</v>
-      </c>
+      <c r="C25" s="23"/>
       <c r="D25" s="24" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="25"/>
@@ -30962,17 +31461,17 @@
       <c r="Y25" s="25"/>
       <c r="Z25" s="25"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" s="105" customFormat="1" ht="15.75" customHeight="1">
       <c r="A26" s="22">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="23"/>
       <c r="D26" s="24" t="s">
-        <v>115</v>
+        <v>306</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>205</v>
+        <v>305</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="25"/>
@@ -30996,16 +31495,18 @@
       <c r="Y26" s="25"/>
       <c r="Z26" s="25"/>
     </row>
-    <row r="27" spans="1:26" s="102" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A27" s="22"/>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A27" s="22">
+        <v>24</v>
+      </c>
       <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
+      <c r="C27" s="23">
+        <v>45456</v>
+      </c>
       <c r="D27" s="24" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
-      <c r="E27" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="E27" s="22"/>
       <c r="F27" s="22"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -31028,16 +31529,16 @@
       <c r="Y27" s="25"/>
       <c r="Z27" s="25"/>
     </row>
-    <row r="28" spans="1:26" s="102" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="22"/>
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A28" s="22">
+        <v>25</v>
+      </c>
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
       <c r="D28" s="24" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
-      <c r="E28" s="22" t="s">
-        <v>215</v>
-      </c>
+      <c r="E28" s="22"/>
       <c r="F28" s="22"/>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
@@ -31060,19 +31561,17 @@
       <c r="Y28" s="25"/>
       <c r="Z28" s="25"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1">
+    <row r="29" spans="1:26" s="101" customFormat="1" ht="15.75" customHeight="1">
       <c r="A29" s="22">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B29" s="22"/>
-      <c r="C29" s="23">
-        <v>45457</v>
-      </c>
+      <c r="C29" s="23"/>
       <c r="D29" s="24" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>204</v>
+        <v>135</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="25"/>
@@ -31096,18 +31595,18 @@
       <c r="Y29" s="25"/>
       <c r="Z29" s="25"/>
     </row>
-    <row r="30" spans="1:26" ht="15" customHeight="1">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="22">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
+      <c r="C30" s="23">
+        <v>45457</v>
+      </c>
       <c r="D30" s="24" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
-      <c r="E30" s="22" t="s">
-        <v>203</v>
-      </c>
+      <c r="E30" s="22"/>
       <c r="F30" s="22"/>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
@@ -31130,16 +31629,15 @@
       <c r="Y30" s="25"/>
       <c r="Z30" s="25"/>
     </row>
-    <row r="31" spans="1:26" s="102" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="22"/>
+    <row r="31" spans="1:26" ht="15" customHeight="1">
+      <c r="A31" s="22">
+        <v>28</v>
+      </c>
       <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
       <c r="D31" s="24" t="s">
-        <v>218</v>
+        <v>125</v>
       </c>
-      <c r="E31" s="22" t="s">
-        <v>215</v>
-      </c>
+      <c r="E31" s="22"/>
       <c r="F31" s="22"/>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
@@ -31162,19 +31660,16 @@
       <c r="Y31" s="25"/>
       <c r="Z31" s="25"/>
     </row>
-    <row r="32" spans="1:26" ht="15" customHeight="1">
+    <row r="32" spans="1:26" s="105" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B32" s="22"/>
-      <c r="C32" s="23">
-        <v>45460</v>
-      </c>
-      <c r="D32" s="101" t="s">
-        <v>119</v>
+      <c r="D32" s="24" t="s">
+        <v>310</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>204</v>
+        <v>305</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="25"/>
@@ -31200,16 +31695,16 @@
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1">
       <c r="A33" s="22">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="101" t="s">
-        <v>117</v>
+      <c r="C33" s="23">
+        <v>45460</v>
       </c>
-      <c r="E33" s="22" t="s">
-        <v>205</v>
+      <c r="D33" s="100" t="s">
+        <v>118</v>
       </c>
+      <c r="E33" s="22"/>
       <c r="F33" s="22"/>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
@@ -31232,16 +31727,16 @@
       <c r="Y33" s="25"/>
       <c r="Z33" s="25"/>
     </row>
-    <row r="34" spans="1:26" s="102" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="22"/>
+    <row r="34" spans="1:26" ht="15" customHeight="1">
+      <c r="A34" s="22">
+        <v>31</v>
+      </c>
       <c r="B34" s="22"/>
       <c r="C34" s="23"/>
-      <c r="D34" s="101" t="s">
-        <v>132</v>
+      <c r="D34" s="100" t="s">
+        <v>116</v>
       </c>
-      <c r="E34" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="E34" s="22"/>
       <c r="F34" s="22"/>
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
@@ -31264,17 +31759,17 @@
       <c r="Y34" s="25"/>
       <c r="Z34" s="25"/>
     </row>
-    <row r="35" spans="1:26" ht="15" customHeight="1">
+    <row r="35" spans="1:26" s="101" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="22">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="24" t="s">
-        <v>118</v>
+      <c r="D35" s="100" t="s">
+        <v>131</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>203</v>
+        <v>135</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="25"/>
@@ -31298,16 +31793,16 @@
       <c r="Y35" s="25"/>
       <c r="Z35" s="25"/>
     </row>
-    <row r="36" spans="1:26" s="102" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="22"/>
+    <row r="36" spans="1:26" ht="15" customHeight="1">
+      <c r="A36" s="22">
+        <v>33</v>
+      </c>
       <c r="B36" s="22"/>
       <c r="C36" s="23"/>
       <c r="D36" s="24" t="s">
-        <v>219</v>
+        <v>117</v>
       </c>
-      <c r="E36" s="22" t="s">
-        <v>215</v>
-      </c>
+      <c r="E36" s="22"/>
       <c r="F36" s="22"/>
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
@@ -31330,19 +31825,17 @@
       <c r="Y36" s="25"/>
       <c r="Z36" s="25"/>
     </row>
-    <row r="37" spans="1:26" ht="15" customHeight="1">
+    <row r="37" spans="1:26" s="105" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="22">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B37" s="22"/>
-      <c r="C37" s="23">
-        <v>45461</v>
-      </c>
+      <c r="C37" s="23"/>
       <c r="D37" s="24" t="s">
-        <v>125</v>
+        <v>311</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>204</v>
+        <v>305</v>
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="25"/>
@@ -31366,17 +31859,18 @@
       <c r="Y37" s="25"/>
       <c r="Z37" s="25"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1">
+    <row r="38" spans="1:26" ht="15" customHeight="1">
       <c r="A38" s="22">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B38" s="22"/>
+      <c r="C38" s="23">
+        <v>45461</v>
+      </c>
       <c r="D38" s="24" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
-      <c r="E38" s="22" t="s">
-        <v>203</v>
-      </c>
+      <c r="E38" s="22"/>
       <c r="F38" s="22"/>
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
@@ -31401,18 +31895,13 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="22">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B39" s="22"/>
-      <c r="C39" s="23">
-        <v>45462</v>
+      <c r="D39" s="24" t="s">
+        <v>119</v>
       </c>
-      <c r="D39" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>203</v>
-      </c>
+      <c r="E39" s="22"/>
       <c r="F39" s="22"/>
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
@@ -31437,18 +31926,16 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="22">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B40" s="22"/>
       <c r="C40" s="23">
-        <v>45463</v>
+        <v>45462</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
-      <c r="E40" s="22" t="s">
-        <v>203</v>
-      </c>
+      <c r="E40" s="22"/>
       <c r="F40" s="22"/>
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
@@ -31471,16 +31958,18 @@
       <c r="Y40" s="25"/>
       <c r="Z40" s="25"/>
     </row>
-    <row r="41" spans="1:26" s="102" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A41" s="22"/>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A41" s="22">
+        <v>38</v>
+      </c>
       <c r="B41" s="22"/>
-      <c r="C41" s="23"/>
+      <c r="C41" s="23">
+        <v>45463</v>
+      </c>
       <c r="D41" s="24" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
-      <c r="E41" s="22" t="s">
-        <v>203</v>
-      </c>
+      <c r="E41" s="22"/>
       <c r="F41" s="22"/>
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
@@ -31503,16 +31992,16 @@
       <c r="Y41" s="25"/>
       <c r="Z41" s="25"/>
     </row>
-    <row r="42" spans="1:26" s="102" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="22"/>
+    <row r="42" spans="1:26" s="101" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A42" s="22">
+        <v>39</v>
+      </c>
       <c r="B42" s="22"/>
       <c r="C42" s="23"/>
       <c r="D42" s="24" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
-      <c r="E42" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="E42" s="22"/>
       <c r="F42" s="22"/>
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
@@ -31535,19 +32024,17 @@
       <c r="Y42" s="25"/>
       <c r="Z42" s="25"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1">
+    <row r="43" spans="1:26" s="101" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="22">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B43" s="22"/>
-      <c r="C43" s="23">
-        <v>45464</v>
-      </c>
+      <c r="C43" s="23"/>
       <c r="D43" s="24" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>203</v>
+        <v>135</v>
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="25"/>
@@ -31573,16 +32060,16 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="22">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B44" s="22"/>
-      <c r="C44" s="23"/>
+      <c r="C44" s="23">
+        <v>45464</v>
+      </c>
       <c r="D44" s="24" t="s">
-        <v>220</v>
+        <v>122</v>
       </c>
-      <c r="E44" s="22" t="s">
-        <v>215</v>
-      </c>
+      <c r="E44" s="22"/>
       <c r="F44" s="22"/>
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
@@ -31606,9 +32093,7 @@
       <c r="Z44" s="25"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A45" s="22">
-        <v>23</v>
-      </c>
+      <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="23"/>
       <c r="D45" s="24"/>
@@ -31916,12 +32401,12 @@
       <c r="Z55" s="25"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
       <c r="G56" s="25"/>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
@@ -31943,15 +32428,13 @@
       <c r="Y56" s="25"/>
       <c r="Z56" s="25"/>
     </row>
-    <row r="57" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A57" s="108" t="s">
-        <v>40</v>
-      </c>
-      <c r="B57" s="108"/>
-      <c r="C57" s="108"/>
-      <c r="D57" s="108"/>
-      <c r="E57" s="108"/>
-      <c r="F57" s="108"/>
+    <row r="57" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
@@ -31973,53 +32456,49 @@
       <c r="Y57" s="25"/>
       <c r="Z57" s="25"/>
     </row>
-    <row r="58" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A58" s="93"/>
-      <c r="B58" s="94" t="s">
+    <row r="58" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A58" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="109"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="109"/>
+      <c r="E58" s="109"/>
+      <c r="F58" s="109"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="25"/>
+      <c r="T58" s="25"/>
+      <c r="U58" s="25"/>
+      <c r="V58" s="25"/>
+      <c r="W58" s="25"/>
+      <c r="X58" s="25"/>
+      <c r="Y58" s="25"/>
+      <c r="Z58" s="25"/>
+    </row>
+    <row r="59" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A59" s="92"/>
+      <c r="B59" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="95" t="s">
+      <c r="C59" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="96" t="s">
+      <c r="D59" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="93"/>
-      <c r="F58" s="93"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="15"/>
-      <c r="R58" s="15"/>
-      <c r="S58" s="15"/>
-      <c r="T58" s="15"/>
-      <c r="U58" s="15"/>
-      <c r="V58" s="15"/>
-      <c r="W58" s="15"/>
-      <c r="X58" s="15"/>
-      <c r="Y58" s="15"/>
-      <c r="Z58" s="15"/>
-    </row>
-    <row r="59" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A59" s="93"/>
-      <c r="B59" s="97" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="98">
-        <v>45413</v>
-      </c>
-      <c r="D59" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="E59" s="93"/>
-      <c r="F59" s="93"/>
+      <c r="E59" s="92"/>
+      <c r="F59" s="92"/>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
@@ -32042,14 +32521,18 @@
       <c r="Z59" s="15"/>
     </row>
     <row r="60" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A60" s="93"/>
-      <c r="B60" s="93"/>
-      <c r="C60" s="100"/>
-      <c r="D60" s="99" t="s">
-        <v>38</v>
+      <c r="A60" s="92"/>
+      <c r="B60" s="96" t="s">
+        <v>8</v>
       </c>
-      <c r="E60" s="93"/>
-      <c r="F60" s="93"/>
+      <c r="C60" s="97">
+        <v>45413</v>
+      </c>
+      <c r="D60" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="92"/>
+      <c r="F60" s="92"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
@@ -32072,18 +32555,14 @@
       <c r="Z60" s="15"/>
     </row>
     <row r="61" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A61" s="93"/>
-      <c r="B61" s="93" t="s">
-        <v>37</v>
+      <c r="A61" s="92"/>
+      <c r="B61" s="92"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="98" t="s">
+        <v>38</v>
       </c>
-      <c r="C61" s="100">
-        <v>45416</v>
-      </c>
-      <c r="D61" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="E61" s="93"/>
-      <c r="F61" s="93"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="92"/>
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
@@ -32106,12 +32585,18 @@
       <c r="Z61" s="15"/>
     </row>
     <row r="62" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A62" s="93"/>
-      <c r="B62" s="93"/>
-      <c r="C62" s="100"/>
-      <c r="D62" s="99"/>
-      <c r="E62" s="93"/>
-      <c r="F62" s="93"/>
+      <c r="A62" s="92"/>
+      <c r="B62" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="99">
+        <v>45416</v>
+      </c>
+      <c r="D62" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="92"/>
+      <c r="F62" s="92"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
@@ -32134,12 +32619,12 @@
       <c r="Z62" s="15"/>
     </row>
     <row r="63" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
+      <c r="A63" s="92"/>
+      <c r="B63" s="92"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="98"/>
+      <c r="E63" s="92"/>
+      <c r="F63" s="92"/>
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
@@ -59349,10 +59834,38 @@
       <c r="Y1034" s="15"/>
       <c r="Z1034" s="15"/>
     </row>
+    <row r="1035" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A1035" s="28"/>
+      <c r="B1035" s="28"/>
+      <c r="C1035" s="29"/>
+      <c r="D1035" s="15"/>
+      <c r="E1035" s="28"/>
+      <c r="F1035" s="28"/>
+      <c r="G1035" s="15"/>
+      <c r="H1035" s="15"/>
+      <c r="I1035" s="15"/>
+      <c r="J1035" s="15"/>
+      <c r="K1035" s="15"/>
+      <c r="L1035" s="15"/>
+      <c r="M1035" s="15"/>
+      <c r="N1035" s="15"/>
+      <c r="O1035" s="15"/>
+      <c r="P1035" s="15"/>
+      <c r="Q1035" s="15"/>
+      <c r="R1035" s="15"/>
+      <c r="S1035" s="15"/>
+      <c r="T1035" s="15"/>
+      <c r="U1035" s="15"/>
+      <c r="V1035" s="15"/>
+      <c r="W1035" s="15"/>
+      <c r="X1035" s="15"/>
+      <c r="Y1035" s="15"/>
+      <c r="Z1035" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A58:F58"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -59369,18 +59882,19 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
-  <dimension ref="A1:Z51"/>
+  <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.109375" style="36" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="36" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="36" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="36" customWidth="1"/>
     <col min="5" max="5" width="17.88671875" style="36" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" style="36" customWidth="1"/>
     <col min="7" max="7" width="15" style="36" customWidth="1"/>
@@ -59398,27 +59912,27 @@
     <col min="20" max="20" width="12" style="36" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="14.6640625" style="36" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="8.6640625" style="36" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="10.6640625" style="36" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" style="36" hidden="1" customWidth="1"/>
     <col min="24" max="25" width="8.88671875" style="36" customWidth="1"/>
     <col min="26" max="26" width="8" style="36" customWidth="1"/>
     <col min="27" max="16384" width="12.5546875" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
       <c r="M1" s="28"/>
       <c r="N1" s="28"/>
       <c r="O1" s="28"/>
@@ -59435,15 +59949,15 @@
       <c r="Z1" s="28"/>
     </row>
     <row r="2" spans="1:26" ht="9.75" customHeight="1">
-      <c r="A2" s="112"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
       <c r="L2" s="28"/>
@@ -59463,12 +59977,12 @@
       <c r="Z2" s="28"/>
     </row>
     <row r="3" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="115"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="130"/>
       <c r="E3" s="37" t="s">
         <v>12</v>
       </c>
@@ -59481,12 +59995,12 @@
       <c r="H3" s="30">
         <v>45474</v>
       </c>
-      <c r="I3" s="119" t="s">
+      <c r="I3" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="115"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="115"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="130"/>
       <c r="M3" s="28"/>
       <c r="N3" s="28"/>
       <c r="O3" s="28"/>
@@ -59498,16 +60012,17 @@
       <c r="U3" s="28"/>
       <c r="V3" s="28"/>
       <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
       <c r="Y3" s="28"/>
       <c r="Z3" s="28"/>
     </row>
     <row r="4" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="115"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="130"/>
       <c r="E4" s="37" t="s">
         <v>16</v>
       </c>
@@ -59516,12 +60031,12 @@
         <v>17</v>
       </c>
       <c r="H4" s="30"/>
-      <c r="I4" s="119" t="s">
+      <c r="I4" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="115"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="115"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="130"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
       <c r="O4" s="28"/>
@@ -59556,10 +60071,10 @@
       <c r="F5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="120" t="s">
+      <c r="G5" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="115"/>
+      <c r="H5" s="130"/>
       <c r="I5" s="33" t="s">
         <v>25</v>
       </c>
@@ -59587,847 +60102,903 @@
       <c r="Y5" s="34"/>
       <c r="Z5" s="28"/>
     </row>
-    <row r="6" spans="1:26" s="65" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A6" s="145" t="s">
+    <row r="6" spans="1:26" s="64" customFormat="1" ht="95.25" customHeight="1">
+      <c r="A6" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="136"/>
+      <c r="I6" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="58"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="63"/>
+    </row>
+    <row r="7" spans="1:26" s="64" customFormat="1" ht="95.25" customHeight="1">
+      <c r="A7" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="118" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="119"/>
+      <c r="I7" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="58"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="63"/>
+    </row>
+    <row r="8" spans="1:26" s="64" customFormat="1" ht="95.25" customHeight="1">
+      <c r="A8" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="119"/>
+      <c r="I8" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="58"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+    </row>
+    <row r="9" spans="1:26" s="64" customFormat="1" ht="95.25" customHeight="1">
+      <c r="A9" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="119"/>
+      <c r="I9" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="58"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="63"/>
+    </row>
+    <row r="10" spans="1:26" s="64" customFormat="1" ht="95.25" customHeight="1">
+      <c r="A10" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="119"/>
+      <c r="I10" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="58"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+    </row>
+    <row r="11" spans="1:26" s="64" customFormat="1" ht="93.75" customHeight="1">
+      <c r="A11" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="118" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="119"/>
+      <c r="I11" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="65"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
+    </row>
+    <row r="12" spans="1:26" s="48" customFormat="1" ht="84" customHeight="1">
+      <c r="A12" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="60" t="s">
-        <v>70</v>
+      <c r="C12" s="42" t="s">
+        <v>61</v>
       </c>
-      <c r="D6" s="60" t="s">
-        <v>42</v>
+      <c r="D12" s="42" t="s">
+        <v>60</v>
       </c>
-      <c r="E6" s="60" t="s">
-        <v>36</v>
+      <c r="E12" s="42" t="s">
+        <v>62</v>
       </c>
-      <c r="F6" s="60" t="s">
-        <v>46</v>
+      <c r="F12" s="42" t="s">
+        <v>63</v>
       </c>
-      <c r="G6" s="109" t="s">
-        <v>43</v>
+      <c r="G12" s="120" t="s">
+        <v>64</v>
       </c>
-      <c r="H6" s="121"/>
-      <c r="I6" s="60" t="s">
-        <v>31</v>
+      <c r="H12" s="158"/>
+      <c r="I12" s="41" t="s">
+        <v>65</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="64"/>
-    </row>
-    <row r="7" spans="1:26" s="65" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A7" s="146"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="60" t="s">
-        <v>32</v>
+      <c r="J12" s="43"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
+    </row>
+    <row r="13" spans="1:26" s="48" customFormat="1" ht="93" customHeight="1">
+      <c r="A13" s="144" t="s">
+        <v>29</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="B13" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="145" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="145" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="145" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="145" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="141"/>
+      <c r="I13" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="146"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="147"/>
+      <c r="N13" s="147"/>
+      <c r="O13" s="147"/>
+      <c r="P13" s="147"/>
+      <c r="Q13" s="147"/>
+      <c r="R13" s="147"/>
+      <c r="S13" s="147"/>
+      <c r="T13" s="147"/>
+      <c r="U13" s="148"/>
+      <c r="V13" s="149"/>
+      <c r="W13" s="149"/>
+      <c r="X13" s="149"/>
+      <c r="Y13" s="149"/>
+      <c r="Z13" s="149"/>
+    </row>
+    <row r="14" spans="1:26" s="48" customFormat="1" ht="93" customHeight="1">
+      <c r="A14" s="144"/>
+      <c r="B14" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="145" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="145" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="145" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="145" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="121" t="s">
+        <v>188</v>
+      </c>
+      <c r="H14" s="141"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="147"/>
+      <c r="N14" s="147"/>
+      <c r="O14" s="147"/>
+      <c r="P14" s="147"/>
+      <c r="Q14" s="147"/>
+      <c r="R14" s="147"/>
+      <c r="S14" s="147"/>
+      <c r="T14" s="147"/>
+      <c r="U14" s="148"/>
+      <c r="V14" s="149"/>
+      <c r="W14" s="149"/>
+      <c r="X14" s="149"/>
+      <c r="Y14" s="149"/>
+      <c r="Z14" s="149"/>
+    </row>
+    <row r="15" spans="1:26" s="57" customFormat="1" ht="103.5" customHeight="1">
+      <c r="A15" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="60" t="s">
-        <v>36</v>
+      <c r="D15" s="51" t="s">
+        <v>72</v>
       </c>
-      <c r="F7" s="60" t="s">
-        <v>34</v>
+      <c r="E15" s="50" t="s">
+        <v>96</v>
       </c>
-      <c r="G7" s="109" t="s">
-        <v>48</v>
+      <c r="F15" s="50" t="s">
+        <v>73</v>
       </c>
-      <c r="H7" s="110"/>
-      <c r="I7" s="60" t="s">
-        <v>30</v>
+      <c r="G15" s="123" t="s">
+        <v>74</v>
       </c>
-      <c r="J7" s="60"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="64"/>
-    </row>
-    <row r="8" spans="1:26" s="65" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A8" s="146"/>
-      <c r="B8" s="146"/>
-      <c r="C8" s="60" t="s">
-        <v>50</v>
+      <c r="H15" s="155"/>
+      <c r="I15" s="49" t="s">
+        <v>65</v>
       </c>
-      <c r="D8" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="110"/>
-      <c r="I8" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="60"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="64"/>
-    </row>
-    <row r="9" spans="1:26" s="65" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A9" s="146"/>
-      <c r="B9" s="146"/>
-      <c r="C9" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="109" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="110"/>
-      <c r="I9" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="60"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64"/>
-    </row>
-    <row r="10" spans="1:26" s="65" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A10" s="146"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="110"/>
-      <c r="I10" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="60"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="64"/>
-    </row>
-    <row r="11" spans="1:26" s="65" customFormat="1" ht="93.75" customHeight="1">
-      <c r="A11" s="147"/>
-      <c r="B11" s="147"/>
-      <c r="C11" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="109" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="110"/>
-      <c r="I11" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="66"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="64"/>
-      <c r="Y11" s="64"/>
-      <c r="Z11" s="64"/>
-    </row>
-    <row r="12" spans="1:26" s="47" customFormat="1" ht="84" customHeight="1">
-      <c r="A12" s="153" t="s">
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+    </row>
+    <row r="16" spans="1:26" s="57" customFormat="1" ht="103.5" customHeight="1">
+      <c r="A16" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="153" t="s">
+      <c r="B16" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>62</v>
+      <c r="C16" s="50" t="s">
+        <v>75</v>
       </c>
-      <c r="D12" s="41" t="s">
-        <v>61</v>
+      <c r="D16" s="50" t="s">
+        <v>72</v>
       </c>
-      <c r="E12" s="41" t="s">
-        <v>63</v>
+      <c r="E16" s="50" t="s">
+        <v>96</v>
       </c>
-      <c r="F12" s="41" t="s">
-        <v>64</v>
+      <c r="F16" s="50" t="s">
+        <v>76</v>
       </c>
-      <c r="G12" s="162" t="s">
+      <c r="G16" s="123" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="155"/>
+      <c r="I16" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="163"/>
-      <c r="I12" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="42"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="46"/>
-    </row>
-    <row r="13" spans="1:26" s="47" customFormat="1" ht="93" customHeight="1">
-      <c r="A13" s="146"/>
-      <c r="B13" s="146"/>
-      <c r="C13" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="164" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="165"/>
-      <c r="I13" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
-    </row>
-    <row r="14" spans="1:26" s="47" customFormat="1" ht="93" customHeight="1">
-      <c r="A14" s="146"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="G14" s="164" t="s">
-        <v>189</v>
-      </c>
-      <c r="H14" s="143"/>
-      <c r="I14" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
-    </row>
-    <row r="15" spans="1:26" s="47" customFormat="1" ht="93" customHeight="1">
-      <c r="A15" s="146"/>
-      <c r="B15" s="146"/>
-      <c r="C15" s="154" t="s">
-        <v>206</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="G15" s="164" t="s">
-        <v>208</v>
-      </c>
-      <c r="H15" s="143"/>
-      <c r="I15" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-    </row>
-    <row r="16" spans="1:26" s="47" customFormat="1" ht="93" customHeight="1">
-      <c r="A16" s="146"/>
-      <c r="B16" s="146"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="G16" s="164" t="s">
-        <v>210</v>
-      </c>
-      <c r="H16" s="143"/>
-      <c r="I16" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="49"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="52"/>
-    </row>
-    <row r="17" spans="1:26" s="47" customFormat="1" ht="93" customHeight="1">
-      <c r="A17" s="147"/>
-      <c r="B17" s="147"/>
-      <c r="C17" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="G17" s="164" t="s">
-        <v>213</v>
-      </c>
-      <c r="H17" s="143"/>
-      <c r="I17" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="49"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-    </row>
-    <row r="18" spans="1:26" s="59" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A18" s="152" t="s">
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+    </row>
+    <row r="17" spans="1:26" s="57" customFormat="1" ht="123.75" customHeight="1">
+      <c r="A17" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="152" t="s">
+      <c r="B17" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="123" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="155"/>
+      <c r="I17" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+    </row>
+    <row r="18" spans="1:26" s="80" customFormat="1" ht="102" customHeight="1">
+      <c r="A18" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="53" t="s">
-        <v>72</v>
+      <c r="C18" s="74" t="s">
+        <v>79</v>
       </c>
-      <c r="D18" s="155" t="s">
-        <v>73</v>
+      <c r="D18" s="74" t="s">
+        <v>78</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="53" t="s">
-        <v>74</v>
+      <c r="F18" s="74" t="s">
+        <v>80</v>
       </c>
-      <c r="G18" s="122" t="s">
-        <v>75</v>
+      <c r="G18" s="125" t="s">
+        <v>81</v>
       </c>
-      <c r="H18" s="123"/>
-      <c r="I18" s="53" t="s">
-        <v>66</v>
+      <c r="H18" s="156"/>
+      <c r="I18" s="73" t="s">
+        <v>65</v>
       </c>
-      <c r="J18" s="54"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="58"/>
-    </row>
-    <row r="19" spans="1:26" s="59" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A19" s="146"/>
-      <c r="B19" s="146"/>
-      <c r="C19" s="53" t="s">
-        <v>76</v>
+      <c r="J18" s="75"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="79"/>
+    </row>
+    <row r="19" spans="1:26" s="80" customFormat="1" ht="105.75" customHeight="1">
+      <c r="A19" s="73" t="s">
+        <v>29</v>
       </c>
-      <c r="D19" s="53" t="s">
-        <v>73</v>
+      <c r="B19" s="73" t="s">
+        <v>91</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="C19" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="151" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="53" t="s">
-        <v>77</v>
+      <c r="F19" s="74" t="s">
+        <v>83</v>
       </c>
-      <c r="G19" s="122" t="s">
-        <v>78</v>
+      <c r="G19" s="125" t="s">
+        <v>84</v>
       </c>
-      <c r="H19" s="123"/>
-      <c r="I19" s="53" t="s">
-        <v>66</v>
+      <c r="H19" s="156"/>
+      <c r="I19" s="73" t="s">
+        <v>65</v>
       </c>
-      <c r="J19" s="54"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="58"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="58"/>
-    </row>
-    <row r="20" spans="1:26" s="59" customFormat="1" ht="123.75" customHeight="1">
-      <c r="A20" s="147"/>
-      <c r="B20" s="147"/>
-      <c r="C20" s="53" t="s">
-        <v>93</v>
+      <c r="J19" s="75"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="78"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="79"/>
+      <c r="Z19" s="79"/>
+    </row>
+    <row r="20" spans="1:26" s="80" customFormat="1" ht="91.5" customHeight="1">
+      <c r="A20" s="73" t="s">
+        <v>29</v>
       </c>
-      <c r="D20" s="53" t="s">
-        <v>94</v>
+      <c r="B20" s="73" t="s">
+        <v>91</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="C20" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="151" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="53" t="s">
-        <v>95</v>
+      <c r="F20" s="74" t="s">
+        <v>98</v>
       </c>
-      <c r="G20" s="122" t="s">
-        <v>96</v>
+      <c r="G20" s="124" t="s">
+        <v>87</v>
       </c>
-      <c r="H20" s="123"/>
-      <c r="I20" s="53" t="s">
-        <v>66</v>
+      <c r="H20" s="157"/>
+      <c r="I20" s="73" t="s">
+        <v>65</v>
       </c>
-      <c r="J20" s="54"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="58"/>
-      <c r="Y20" s="58"/>
-      <c r="Z20" s="58"/>
-    </row>
-    <row r="21" spans="1:26" s="80" customFormat="1" ht="102" customHeight="1">
-      <c r="A21" s="151" t="s">
+      <c r="J20" s="75"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="79"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="79"/>
+    </row>
+    <row r="21" spans="1:26" s="72" customFormat="1" ht="84" customHeight="1">
+      <c r="A21" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="151" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="74" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="74" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="126" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="127"/>
-      <c r="I21" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="J21" s="75"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="77"/>
-      <c r="U21" s="78"/>
-      <c r="V21" s="79"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="79"/>
-    </row>
-    <row r="22" spans="1:26" s="80" customFormat="1" ht="105.75" customHeight="1">
-      <c r="A22" s="146"/>
-      <c r="B22" s="146"/>
-      <c r="C22" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="156" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="74" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="74" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="126" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" s="127"/>
-      <c r="I22" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="J22" s="75"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="79"/>
-      <c r="W22" s="79"/>
-      <c r="X22" s="79"/>
-      <c r="Y22" s="79"/>
-      <c r="Z22" s="79"/>
-    </row>
-    <row r="23" spans="1:26" s="80" customFormat="1" ht="91.5" customHeight="1">
-      <c r="A23" s="147"/>
-      <c r="B23" s="147"/>
-      <c r="C23" s="74" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="156" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="74" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" s="74" t="s">
+      <c r="B21" s="137" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="124" t="s">
-        <v>88</v>
-      </c>
-      <c r="H23" s="125"/>
-      <c r="I23" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="J23" s="75"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="77"/>
-      <c r="S23" s="77"/>
-      <c r="T23" s="77"/>
-      <c r="U23" s="78"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="79"/>
-      <c r="X23" s="79"/>
-      <c r="Y23" s="79"/>
-      <c r="Z23" s="79"/>
-    </row>
-    <row r="24" spans="1:26" s="73" customFormat="1" ht="84" customHeight="1">
-      <c r="A24" s="150" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="150" t="s">
+      <c r="C21" s="150" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="157" t="s">
+      <c r="D21" s="150" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="150" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="157" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="157" t="s">
+      <c r="F21" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="F24" s="157" t="s">
+      <c r="G21" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="G24" s="128" t="s">
-        <v>104</v>
+      <c r="H21" s="153"/>
+      <c r="I21" s="66" t="s">
+        <v>65</v>
       </c>
-      <c r="H24" s="129"/>
-      <c r="I24" s="67" t="s">
-        <v>66</v>
+      <c r="J21" s="67"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="71"/>
+      <c r="Z21" s="71"/>
+    </row>
+    <row r="22" spans="1:26" s="72" customFormat="1" ht="98.25" customHeight="1">
+      <c r="A22" s="66" t="s">
+        <v>33</v>
       </c>
-      <c r="J24" s="68"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="70"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="72"/>
-      <c r="X24" s="72"/>
-      <c r="Y24" s="72"/>
-      <c r="Z24" s="72"/>
-    </row>
-    <row r="25" spans="1:26" s="73" customFormat="1" ht="98.25" customHeight="1">
-      <c r="A25" s="147"/>
-      <c r="B25" s="147"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="157" t="s">
+      <c r="B22" s="66"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="150" t="s">
         <v>164</v>
       </c>
-      <c r="E25" s="157" t="s">
+      <c r="F22" s="150" t="s">
         <v>165</v>
       </c>
-      <c r="F25" s="157" t="s">
+      <c r="G22" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="G25" s="128" t="s">
-        <v>167</v>
+      <c r="H22" s="153"/>
+      <c r="I22" s="66" t="s">
+        <v>203</v>
       </c>
-      <c r="H25" s="129"/>
-      <c r="I25" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="68"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="81"/>
-      <c r="S25" s="81"/>
-      <c r="T25" s="81"/>
-      <c r="U25" s="81"/>
-      <c r="V25" s="81"/>
-      <c r="W25" s="81"/>
-      <c r="X25" s="81"/>
-      <c r="Y25" s="81"/>
-      <c r="Z25" s="81"/>
-    </row>
-    <row r="26" spans="1:26" ht="116.25" customHeight="1">
-      <c r="A26" s="149" t="s">
+      <c r="J22" s="67"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
+      <c r="W22" s="81"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="81"/>
+      <c r="Z22" s="81"/>
+    </row>
+    <row r="23" spans="1:26" ht="116.25" customHeight="1">
+      <c r="A23" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="149" t="s">
+      <c r="B23" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="D23" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="E23" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="E26" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" s="22" t="s">
+      <c r="G23" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="G26" s="132" t="s">
+      <c r="H23" s="142"/>
+      <c r="I23" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="J23" s="23"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+    </row>
+    <row r="24" spans="1:26" s="104" customFormat="1" ht="116.25" customHeight="1">
+      <c r="A24" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="H26" s="133"/>
-      <c r="I26" s="22" t="s">
-        <v>30</v>
+      <c r="D24" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" s="117" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" s="142"/>
+      <c r="I24" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="J24" s="23"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+    </row>
+    <row r="25" spans="1:26" s="104" customFormat="1" ht="116.25" customHeight="1">
+      <c r="A25" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" s="117" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" s="142"/>
+      <c r="I25" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="J25" s="23"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+    </row>
+    <row r="26" spans="1:26" s="104" customFormat="1" ht="116.25" customHeight="1">
+      <c r="A26" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="117" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="142"/>
+      <c r="I26" s="66" t="s">
+        <v>203</v>
       </c>
       <c r="J26" s="23"/>
       <c r="K26" s="35"/>
@@ -60447,27 +61018,31 @@
       <c r="Y26" s="28"/>
       <c r="Z26" s="28"/>
     </row>
-    <row r="27" spans="1:26" s="105" customFormat="1" ht="116.25" customHeight="1">
-      <c r="A27" s="146"/>
-      <c r="B27" s="146"/>
-      <c r="C27" s="22" t="s">
-        <v>144</v>
+    <row r="27" spans="1:26" s="104" customFormat="1" ht="116.25" customHeight="1">
+      <c r="A27" s="22" t="s">
+        <v>33</v>
       </c>
-      <c r="D27" s="22" t="s">
-        <v>145</v>
+      <c r="B27" s="22" t="s">
+        <v>138</v>
       </c>
-      <c r="E27" s="22" t="s">
-        <v>139</v>
+      <c r="C27" s="38" t="s">
+        <v>156</v>
       </c>
-      <c r="F27" s="22" t="s">
-        <v>146</v>
+      <c r="D27" s="38" t="s">
+        <v>155</v>
       </c>
-      <c r="G27" s="132" t="s">
-        <v>147</v>
+      <c r="E27" s="38" t="s">
+        <v>138</v>
       </c>
-      <c r="H27" s="143"/>
-      <c r="I27" s="22" t="s">
-        <v>30</v>
+      <c r="F27" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="G27" s="117" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" s="142"/>
+      <c r="I27" s="66" t="s">
+        <v>203</v>
       </c>
       <c r="J27" s="23"/>
       <c r="K27" s="35"/>
@@ -60487,27 +61062,31 @@
       <c r="Y27" s="28"/>
       <c r="Z27" s="28"/>
     </row>
-    <row r="28" spans="1:26" s="105" customFormat="1" ht="116.25" customHeight="1">
-      <c r="A28" s="146"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="22" t="s">
-        <v>148</v>
+    <row r="28" spans="1:26" s="104" customFormat="1" ht="116.25" customHeight="1">
+      <c r="A28" s="22" t="s">
+        <v>33</v>
       </c>
-      <c r="D28" s="22" t="s">
-        <v>149</v>
+      <c r="B28" s="22" t="s">
+        <v>138</v>
       </c>
-      <c r="E28" s="22" t="s">
-        <v>139</v>
+      <c r="C28" s="38" t="s">
+        <v>159</v>
       </c>
-      <c r="F28" s="22" t="s">
-        <v>150</v>
+      <c r="D28" s="38" t="s">
+        <v>160</v>
       </c>
-      <c r="G28" s="132" t="s">
-        <v>151</v>
+      <c r="E28" s="38" t="s">
+        <v>138</v>
       </c>
-      <c r="H28" s="144"/>
-      <c r="I28" s="22" t="s">
-        <v>30</v>
+      <c r="F28" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="117" t="s">
+        <v>162</v>
+      </c>
+      <c r="H28" s="142"/>
+      <c r="I28" s="66" t="s">
+        <v>203</v>
       </c>
       <c r="J28" s="23"/>
       <c r="K28" s="35"/>
@@ -60527,879 +61106,1568 @@
       <c r="Y28" s="28"/>
       <c r="Z28" s="28"/>
     </row>
-    <row r="29" spans="1:26" s="105" customFormat="1" ht="116.25" customHeight="1">
-      <c r="A29" s="146"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="22" t="s">
-        <v>152</v>
+    <row r="29" spans="1:26" s="87" customFormat="1" ht="84.75" customHeight="1">
+      <c r="A29" s="82" t="s">
+        <v>29</v>
       </c>
-      <c r="D29" s="22" t="s">
-        <v>153</v>
+      <c r="B29" s="82" t="s">
+        <v>167</v>
       </c>
-      <c r="E29" s="22" t="s">
-        <v>139</v>
+      <c r="C29" s="83" t="s">
+        <v>168</v>
       </c>
-      <c r="F29" s="22" t="s">
-        <v>154</v>
+      <c r="D29" s="83" t="s">
+        <v>169</v>
       </c>
-      <c r="G29" s="132" t="s">
-        <v>155</v>
+      <c r="E29" s="83" t="s">
+        <v>167</v>
       </c>
-      <c r="H29" s="143"/>
-      <c r="I29" s="22" t="s">
-        <v>30</v>
+      <c r="F29" s="83" t="s">
+        <v>170</v>
       </c>
-      <c r="J29" s="23"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="28"/>
-    </row>
-    <row r="30" spans="1:26" s="105" customFormat="1" ht="116.25" customHeight="1">
-      <c r="A30" s="146"/>
-      <c r="B30" s="146"/>
-      <c r="C30" s="22" t="s">
-        <v>157</v>
+      <c r="G29" s="116" t="s">
+        <v>171</v>
       </c>
-      <c r="D30" s="22" t="s">
-        <v>156</v>
+      <c r="H29" s="154"/>
+      <c r="I29" s="66" t="s">
+        <v>203</v>
       </c>
-      <c r="E30" s="22" t="s">
-        <v>139</v>
+      <c r="J29" s="84"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="86"/>
+      <c r="U29" s="86"/>
+      <c r="V29" s="86"/>
+      <c r="W29" s="86"/>
+      <c r="X29" s="86"/>
+      <c r="Y29" s="86"/>
+      <c r="Z29" s="86"/>
+    </row>
+    <row r="30" spans="1:26" s="87" customFormat="1" ht="90" customHeight="1">
+      <c r="A30" s="82" t="s">
+        <v>29</v>
       </c>
-      <c r="F30" s="22" t="s">
-        <v>158</v>
+      <c r="B30" s="82" t="s">
+        <v>167</v>
       </c>
-      <c r="G30" s="132" t="s">
-        <v>159</v>
+      <c r="C30" s="152" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="152" t="s">
+        <v>172</v>
+      </c>
+      <c r="E30" s="152" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="152" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" s="110" t="s">
+        <v>174</v>
       </c>
       <c r="H30" s="143"/>
-      <c r="I30" s="22" t="s">
-        <v>30</v>
+      <c r="I30" s="66" t="s">
+        <v>203</v>
       </c>
-      <c r="J30" s="23"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-    </row>
-    <row r="31" spans="1:26" s="105" customFormat="1" ht="116.25" customHeight="1">
-      <c r="A31" s="147"/>
-      <c r="B31" s="147"/>
-      <c r="C31" s="22" t="s">
-        <v>160</v>
+      <c r="J30" s="84"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="86"/>
+      <c r="Q30" s="86"/>
+      <c r="R30" s="86"/>
+      <c r="S30" s="86"/>
+      <c r="T30" s="86"/>
+      <c r="U30" s="86"/>
+      <c r="V30" s="86"/>
+      <c r="W30" s="86"/>
+      <c r="X30" s="86"/>
+      <c r="Y30" s="86"/>
+      <c r="Z30" s="86"/>
+    </row>
+    <row r="31" spans="1:26" s="87" customFormat="1" ht="87" customHeight="1">
+      <c r="A31" s="82" t="s">
+        <v>29</v>
       </c>
-      <c r="D31" s="22" t="s">
-        <v>161</v>
+      <c r="B31" s="82" t="s">
+        <v>167</v>
       </c>
-      <c r="E31" s="22" t="s">
-        <v>139</v>
+      <c r="C31" s="152" t="s">
+        <v>143</v>
       </c>
-      <c r="F31" s="22" t="s">
-        <v>162</v>
+      <c r="D31" s="152" t="s">
+        <v>175</v>
       </c>
-      <c r="G31" s="132" t="s">
-        <v>163</v>
+      <c r="E31" s="152" t="s">
+        <v>167</v>
+      </c>
+      <c r="F31" s="152" t="s">
+        <v>176</v>
+      </c>
+      <c r="G31" s="110" t="s">
+        <v>177</v>
       </c>
       <c r="H31" s="143"/>
-      <c r="I31" s="22" t="s">
-        <v>30</v>
+      <c r="I31" s="66" t="s">
+        <v>203</v>
       </c>
-      <c r="J31" s="23"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-    </row>
-    <row r="32" spans="1:26" s="86" customFormat="1" ht="84.75" customHeight="1">
-      <c r="A32" s="148" t="s">
+      <c r="J31" s="84"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="86"/>
+      <c r="U31" s="86"/>
+      <c r="V31" s="86"/>
+      <c r="W31" s="86"/>
+      <c r="X31" s="86"/>
+      <c r="Y31" s="86"/>
+      <c r="Z31" s="86"/>
+    </row>
+    <row r="32" spans="1:26" s="87" customFormat="1" ht="89.25" customHeight="1">
+      <c r="A32" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="148" t="s">
-        <v>168</v>
+      <c r="B32" s="82" t="s">
+        <v>167</v>
       </c>
-      <c r="C32" s="82" t="s">
-        <v>169</v>
+      <c r="C32" s="152" t="s">
+        <v>143</v>
       </c>
-      <c r="D32" s="82" t="s">
-        <v>170</v>
-      </c>
-      <c r="E32" s="82" t="s">
-        <v>168</v>
-      </c>
-      <c r="F32" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="G32" s="130" t="s">
-        <v>172</v>
-      </c>
-      <c r="H32" s="131"/>
-      <c r="I32" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="J32" s="83"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="85"/>
-      <c r="O32" s="85"/>
-      <c r="P32" s="85"/>
-      <c r="Q32" s="85"/>
-      <c r="R32" s="85"/>
-      <c r="S32" s="85"/>
-      <c r="T32" s="85"/>
-      <c r="U32" s="85"/>
-      <c r="V32" s="85"/>
-      <c r="W32" s="85"/>
-      <c r="X32" s="85"/>
-      <c r="Y32" s="85"/>
-      <c r="Z32" s="85"/>
-    </row>
-    <row r="33" spans="1:26" s="86" customFormat="1" ht="90" customHeight="1">
-      <c r="A33" s="146"/>
-      <c r="B33" s="146"/>
-      <c r="C33" s="158" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" s="158" t="s">
-        <v>173</v>
-      </c>
-      <c r="E33" s="158" t="s">
-        <v>168</v>
-      </c>
-      <c r="F33" s="158" t="s">
-        <v>174</v>
-      </c>
-      <c r="G33" s="136" t="s">
-        <v>175</v>
-      </c>
-      <c r="H33" s="137"/>
-      <c r="I33" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="J33" s="83"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="85"/>
-      <c r="Q33" s="85"/>
-      <c r="R33" s="85"/>
-      <c r="S33" s="85"/>
-      <c r="T33" s="85"/>
-      <c r="U33" s="85"/>
-      <c r="V33" s="85"/>
-      <c r="W33" s="85"/>
-      <c r="X33" s="85"/>
-      <c r="Y33" s="85"/>
-      <c r="Z33" s="85"/>
-    </row>
-    <row r="34" spans="1:26" s="86" customFormat="1" ht="87" customHeight="1">
-      <c r="A34" s="146"/>
-      <c r="B34" s="146"/>
-      <c r="C34" s="158" t="s">
-        <v>144</v>
-      </c>
-      <c r="D34" s="158" t="s">
-        <v>176</v>
-      </c>
-      <c r="E34" s="158" t="s">
-        <v>168</v>
-      </c>
-      <c r="F34" s="158" t="s">
-        <v>177</v>
-      </c>
-      <c r="G34" s="136" t="s">
+      <c r="D32" s="152" t="s">
         <v>178</v>
       </c>
-      <c r="H34" s="137"/>
-      <c r="I34" s="82" t="s">
-        <v>30</v>
+      <c r="E32" s="152" t="s">
+        <v>167</v>
       </c>
-      <c r="J34" s="83"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="85"/>
-      <c r="Q34" s="85"/>
-      <c r="R34" s="85"/>
-      <c r="S34" s="85"/>
-      <c r="T34" s="85"/>
-      <c r="U34" s="85"/>
-      <c r="V34" s="85"/>
-      <c r="W34" s="85"/>
-      <c r="X34" s="85"/>
-      <c r="Y34" s="85"/>
-      <c r="Z34" s="85"/>
-    </row>
-    <row r="35" spans="1:26" s="86" customFormat="1" ht="89.25" customHeight="1">
-      <c r="A35" s="146"/>
-      <c r="B35" s="146"/>
-      <c r="C35" s="158" t="s">
-        <v>144</v>
-      </c>
-      <c r="D35" s="158" t="s">
+      <c r="F32" s="152" t="s">
         <v>179</v>
       </c>
-      <c r="E35" s="158" t="s">
-        <v>168</v>
-      </c>
-      <c r="F35" s="158" t="s">
+      <c r="G32" s="110" t="s">
         <v>180</v>
       </c>
-      <c r="G35" s="136" t="s">
+      <c r="H32" s="143"/>
+      <c r="I32" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="J32" s="84"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="86"/>
+      <c r="Q32" s="86"/>
+      <c r="R32" s="86"/>
+      <c r="S32" s="86"/>
+      <c r="T32" s="86"/>
+      <c r="U32" s="86"/>
+      <c r="V32" s="86"/>
+      <c r="W32" s="86"/>
+      <c r="X32" s="86"/>
+      <c r="Y32" s="86"/>
+      <c r="Z32" s="86"/>
+    </row>
+    <row r="33" spans="1:26" s="87" customFormat="1" ht="81" customHeight="1">
+      <c r="A33" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="H35" s="137"/>
-      <c r="I35" s="82" t="s">
-        <v>30</v>
+      <c r="E33" s="88" t="s">
+        <v>167</v>
       </c>
-      <c r="J35" s="83"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="85"/>
-      <c r="U35" s="85"/>
-      <c r="V35" s="85"/>
-      <c r="W35" s="85"/>
-      <c r="X35" s="85"/>
-      <c r="Y35" s="85"/>
-      <c r="Z35" s="85"/>
-    </row>
-    <row r="36" spans="1:26" s="86" customFormat="1" ht="81" customHeight="1">
-      <c r="A36" s="146"/>
-      <c r="B36" s="146"/>
-      <c r="C36" s="158" t="s">
-        <v>144</v>
-      </c>
-      <c r="D36" s="158" t="s">
+      <c r="F33" s="88" t="s">
         <v>182</v>
       </c>
-      <c r="E36" s="158" t="s">
-        <v>168</v>
-      </c>
-      <c r="F36" s="158" t="s">
+      <c r="G33" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="G36" s="136" t="s">
+      <c r="H33" s="111"/>
+      <c r="I33" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="J33" s="84"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="86"/>
+      <c r="Q33" s="86"/>
+      <c r="R33" s="86"/>
+      <c r="S33" s="86"/>
+      <c r="T33" s="86"/>
+      <c r="U33" s="86"/>
+      <c r="V33" s="86"/>
+      <c r="W33" s="86"/>
+      <c r="X33" s="86"/>
+      <c r="Y33" s="86"/>
+      <c r="Z33" s="86"/>
+    </row>
+    <row r="34" spans="1:26" s="87" customFormat="1" ht="75" customHeight="1">
+      <c r="A34" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" s="88" t="s">
         <v>184</v>
       </c>
-      <c r="H36" s="137"/>
-      <c r="I36" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="J36" s="83"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="85"/>
-      <c r="Q36" s="85"/>
-      <c r="R36" s="85"/>
-      <c r="S36" s="85"/>
-      <c r="T36" s="85"/>
-      <c r="U36" s="85"/>
-      <c r="V36" s="85"/>
-      <c r="W36" s="85"/>
-      <c r="X36" s="85"/>
-      <c r="Y36" s="85"/>
-      <c r="Z36" s="85"/>
-    </row>
-    <row r="37" spans="1:26" s="86" customFormat="1" ht="75" customHeight="1">
-      <c r="A37" s="147"/>
-      <c r="B37" s="147"/>
-      <c r="C37" s="158" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="158" t="s">
-        <v>141</v>
-      </c>
-      <c r="E37" s="158" t="s">
-        <v>168</v>
-      </c>
-      <c r="F37" s="158" t="s">
+      <c r="G34" s="110" t="s">
         <v>185</v>
       </c>
-      <c r="G37" s="136" t="s">
-        <v>186</v>
+      <c r="H34" s="111"/>
+      <c r="I34" s="66" t="s">
+        <v>203</v>
       </c>
-      <c r="H37" s="137"/>
-      <c r="I37" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="J37" s="83"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="85"/>
-      <c r="N37" s="85"/>
-      <c r="O37" s="85"/>
-      <c r="P37" s="85"/>
-      <c r="Q37" s="85"/>
-      <c r="R37" s="85"/>
-      <c r="S37" s="85"/>
-      <c r="T37" s="85"/>
-      <c r="U37" s="85"/>
-      <c r="V37" s="85"/>
-      <c r="W37" s="85"/>
-      <c r="X37" s="85"/>
-      <c r="Y37" s="85"/>
-      <c r="Z37" s="85"/>
-    </row>
-    <row r="38" spans="1:26" s="65" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A38" s="145" t="s">
+      <c r="J34" s="84"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="86"/>
+      <c r="O34" s="86"/>
+      <c r="P34" s="86"/>
+      <c r="Q34" s="86"/>
+      <c r="R34" s="86"/>
+      <c r="S34" s="86"/>
+      <c r="T34" s="86"/>
+      <c r="U34" s="86"/>
+      <c r="V34" s="86"/>
+      <c r="W34" s="86"/>
+      <c r="X34" s="86"/>
+      <c r="Y34" s="86"/>
+      <c r="Z34" s="86"/>
+    </row>
+    <row r="35" spans="1:26" s="64" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A35" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="145" t="s">
+      <c r="B35" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" s="89"/>
+      <c r="D35" s="89" t="s">
         <v>190</v>
       </c>
-      <c r="C38" s="159"/>
-      <c r="D38" s="159" t="s">
+      <c r="E35" s="89" t="s">
+        <v>189</v>
+      </c>
+      <c r="F35" s="89" t="s">
         <v>191</v>
       </c>
-      <c r="E38" s="159" t="s">
-        <v>190</v>
-      </c>
-      <c r="F38" s="159" t="s">
+      <c r="G35" s="112" t="s">
         <v>192</v>
       </c>
-      <c r="G38" s="138" t="s">
+      <c r="H35" s="113"/>
+      <c r="I35" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="J35" s="65"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="90"/>
+      <c r="N35" s="90"/>
+      <c r="O35" s="90"/>
+      <c r="P35" s="90"/>
+      <c r="Q35" s="90"/>
+      <c r="R35" s="90"/>
+      <c r="S35" s="90"/>
+      <c r="T35" s="90"/>
+      <c r="U35" s="90"/>
+      <c r="V35" s="90"/>
+      <c r="W35" s="90"/>
+      <c r="X35" s="90"/>
+      <c r="Y35" s="90"/>
+      <c r="Z35" s="90"/>
+    </row>
+    <row r="36" spans="1:26" s="64" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A36" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="C36" s="89" t="s">
         <v>193</v>
       </c>
-      <c r="H38" s="139"/>
-      <c r="I38" s="60" t="s">
-        <v>30</v>
+      <c r="D36" s="89" t="s">
+        <v>140</v>
       </c>
-      <c r="J38" s="66"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="87"/>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="87"/>
-      <c r="S38" s="87"/>
-      <c r="T38" s="87"/>
-      <c r="U38" s="87"/>
-      <c r="V38" s="87"/>
-      <c r="W38" s="87"/>
-      <c r="X38" s="87"/>
-      <c r="Y38" s="87"/>
-      <c r="Z38" s="87"/>
-    </row>
-    <row r="39" spans="1:26" s="65" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A39" s="146"/>
-      <c r="B39" s="146"/>
-      <c r="C39" s="159" t="s">
+      <c r="E36" s="89" t="s">
+        <v>189</v>
+      </c>
+      <c r="F36" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="D39" s="159" t="s">
-        <v>141</v>
-      </c>
-      <c r="E39" s="159" t="s">
-        <v>190</v>
-      </c>
-      <c r="F39" s="159" t="s">
+      <c r="G36" s="112" t="s">
         <v>195</v>
       </c>
-      <c r="G39" s="138" t="s">
+      <c r="H36" s="113"/>
+      <c r="I36" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="J36" s="65"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="90"/>
+      <c r="N36" s="90"/>
+      <c r="O36" s="90"/>
+      <c r="P36" s="90"/>
+      <c r="Q36" s="90"/>
+      <c r="R36" s="90"/>
+      <c r="S36" s="90"/>
+      <c r="T36" s="90"/>
+      <c r="U36" s="90"/>
+      <c r="V36" s="90"/>
+      <c r="W36" s="90"/>
+      <c r="X36" s="90"/>
+      <c r="Y36" s="90"/>
+      <c r="Z36" s="90"/>
+    </row>
+    <row r="37" spans="1:26" s="64" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A37" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="H39" s="139"/>
-      <c r="I39" s="60" t="s">
-        <v>30</v>
+      <c r="D37" s="89" t="s">
+        <v>140</v>
       </c>
-      <c r="J39" s="66"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="87"/>
-      <c r="S39" s="87"/>
-      <c r="T39" s="87"/>
-      <c r="U39" s="87"/>
-      <c r="V39" s="87"/>
-      <c r="W39" s="87"/>
-      <c r="X39" s="87"/>
-      <c r="Y39" s="87"/>
-      <c r="Z39" s="87"/>
-    </row>
-    <row r="40" spans="1:26" s="65" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A40" s="146"/>
-      <c r="B40" s="146"/>
-      <c r="C40" s="159" t="s">
+      <c r="E37" s="89" t="s">
+        <v>189</v>
+      </c>
+      <c r="F37" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="D40" s="159" t="s">
-        <v>141</v>
-      </c>
-      <c r="E40" s="159" t="s">
-        <v>190</v>
-      </c>
-      <c r="F40" s="159" t="s">
+      <c r="G37" s="102" t="s">
         <v>198</v>
       </c>
-      <c r="G40" s="103" t="s">
+      <c r="H37" s="103"/>
+      <c r="I37" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="J37" s="65"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="90"/>
+      <c r="P37" s="90"/>
+      <c r="Q37" s="90"/>
+      <c r="R37" s="90"/>
+      <c r="S37" s="90"/>
+      <c r="T37" s="90"/>
+      <c r="U37" s="90"/>
+      <c r="V37" s="90"/>
+      <c r="W37" s="90"/>
+      <c r="X37" s="90"/>
+      <c r="Y37" s="90"/>
+      <c r="Z37" s="90"/>
+    </row>
+    <row r="38" spans="1:26" s="64" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A38" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="H40" s="104"/>
-      <c r="I40" s="60" t="s">
-        <v>30</v>
+      <c r="D38" s="89" t="s">
+        <v>140</v>
       </c>
-      <c r="J40" s="66"/>
-      <c r="K40" s="61"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="87"/>
-      <c r="S40" s="87"/>
-      <c r="T40" s="87"/>
-      <c r="U40" s="87"/>
-      <c r="V40" s="87"/>
-      <c r="W40" s="87"/>
-      <c r="X40" s="87"/>
-      <c r="Y40" s="87"/>
-      <c r="Z40" s="87"/>
-    </row>
-    <row r="41" spans="1:26" s="65" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A41" s="147"/>
-      <c r="B41" s="147"/>
-      <c r="C41" s="159" t="s">
+      <c r="E38" s="89" t="s">
+        <v>189</v>
+      </c>
+      <c r="F38" s="89" t="s">
         <v>200</v>
       </c>
-      <c r="D41" s="159" t="s">
-        <v>141</v>
-      </c>
-      <c r="E41" s="159" t="s">
-        <v>190</v>
-      </c>
-      <c r="F41" s="159" t="s">
+      <c r="G38" s="112" t="s">
         <v>201</v>
       </c>
-      <c r="G41" s="138" t="s">
+      <c r="H38" s="114"/>
+      <c r="I38" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="J38" s="65"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="90"/>
+      <c r="N38" s="90"/>
+      <c r="O38" s="90"/>
+      <c r="P38" s="90"/>
+      <c r="Q38" s="90"/>
+      <c r="R38" s="90"/>
+      <c r="S38" s="90"/>
+      <c r="T38" s="90"/>
+      <c r="U38" s="90"/>
+      <c r="V38" s="90"/>
+      <c r="W38" s="90"/>
+      <c r="X38" s="90"/>
+      <c r="Y38" s="90"/>
+      <c r="Z38" s="90"/>
+    </row>
+    <row r="39" spans="1:26" s="91" customFormat="1" ht="142.5" customHeight="1">
+      <c r="A39" s="160" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="160" t="s">
         <v>202</v>
       </c>
-      <c r="H41" s="143"/>
-      <c r="I41" s="60" t="s">
-        <v>30</v>
+      <c r="C39" s="161" t="s">
+        <v>229</v>
       </c>
-      <c r="J41" s="66"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
-      <c r="O41" s="87"/>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="87"/>
-      <c r="S41" s="87"/>
-      <c r="T41" s="87"/>
-      <c r="U41" s="87"/>
-      <c r="V41" s="87"/>
-      <c r="W41" s="87"/>
-      <c r="X41" s="87"/>
-      <c r="Y41" s="87"/>
-      <c r="Z41" s="87"/>
-    </row>
-    <row r="42" spans="1:26" s="92" customFormat="1" ht="142.5" customHeight="1">
-      <c r="A42" s="88" t="s">
-        <v>33</v>
+      <c r="D39" s="161" t="s">
+        <v>229</v>
       </c>
-      <c r="B42" s="88"/>
-      <c r="C42" s="160"/>
-      <c r="D42" s="160"/>
-      <c r="E42" s="160"/>
-      <c r="F42" s="160"/>
-      <c r="G42" s="134"/>
-      <c r="H42" s="135"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="91"/>
-      <c r="N42" s="91"/>
-      <c r="O42" s="91"/>
-      <c r="P42" s="91"/>
-      <c r="Q42" s="91"/>
-      <c r="R42" s="91"/>
-      <c r="S42" s="91"/>
-      <c r="T42" s="91"/>
-      <c r="U42" s="91"/>
-      <c r="V42" s="91"/>
-      <c r="W42" s="91"/>
-      <c r="X42" s="91"/>
-      <c r="Y42" s="91"/>
-      <c r="Z42" s="91"/>
-    </row>
-    <row r="43" spans="1:26" ht="103.5" customHeight="1">
-      <c r="A43" s="22" t="s">
-        <v>33</v>
+      <c r="E39" s="161" t="s">
+        <v>202</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="161"/>
-      <c r="D43" s="161"/>
-      <c r="E43" s="161"/>
-      <c r="F43" s="161"/>
-      <c r="G43" s="140"/>
-      <c r="H43" s="142"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="28"/>
-      <c r="U43" s="28"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="28"/>
-    </row>
-    <row r="44" spans="1:26" ht="85.5" customHeight="1">
-      <c r="A44" s="22" t="s">
-        <v>33</v>
+      <c r="F39" s="161" t="s">
+        <v>227</v>
       </c>
-      <c r="B44" s="22" t="s">
-        <v>41</v>
+      <c r="G39" s="121" t="s">
+        <v>228</v>
       </c>
-      <c r="C44" s="161"/>
-      <c r="D44" s="161"/>
-      <c r="E44" s="161"/>
-      <c r="F44" s="161"/>
-      <c r="G44" s="140"/>
-      <c r="H44" s="142"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="28"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="28"/>
-      <c r="U44" s="28"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="28"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="28"/>
-      <c r="Z44" s="28"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="160" t="s">
+        <v>281</v>
+      </c>
+      <c r="J39" s="162"/>
+      <c r="K39" s="163">
+        <v>45427</v>
+      </c>
+      <c r="L39" s="160"/>
+      <c r="M39" s="164"/>
+      <c r="N39" s="165"/>
+      <c r="O39" s="165"/>
+      <c r="P39" s="165"/>
+      <c r="Q39" s="165"/>
+      <c r="R39" s="165"/>
+      <c r="S39" s="164"/>
+      <c r="T39" s="164"/>
+      <c r="U39" s="164"/>
+      <c r="V39" s="166"/>
+      <c r="W39" s="166"/>
+      <c r="X39" s="166"/>
+      <c r="Y39" s="166"/>
+      <c r="Z39" s="166"/>
+    </row>
+    <row r="40" spans="1:26" s="91" customFormat="1" ht="142.5" customHeight="1">
+      <c r="A40" s="167" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="167" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" s="168" t="s">
+        <v>231</v>
+      </c>
+      <c r="D40" s="168" t="s">
+        <v>237</v>
+      </c>
+      <c r="E40" s="168" t="s">
+        <v>202</v>
+      </c>
+      <c r="F40" s="168" t="s">
+        <v>230</v>
+      </c>
+      <c r="G40" s="121" t="s">
+        <v>232</v>
+      </c>
+      <c r="H40" s="122"/>
+      <c r="I40" s="167" t="s">
+        <v>281</v>
+      </c>
+      <c r="J40" s="169"/>
+      <c r="K40" s="163">
+        <v>45427</v>
+      </c>
+      <c r="L40" s="167"/>
+      <c r="M40" s="171"/>
+      <c r="N40" s="171"/>
+      <c r="O40" s="171"/>
+      <c r="P40" s="171"/>
+      <c r="Q40" s="171"/>
+      <c r="R40" s="171"/>
+      <c r="S40" s="171"/>
+      <c r="T40" s="171"/>
+      <c r="U40" s="172"/>
+      <c r="V40" s="173"/>
+      <c r="W40" s="173"/>
+      <c r="X40" s="173"/>
+      <c r="Y40" s="173"/>
+      <c r="Z40" s="173"/>
+    </row>
+    <row r="41" spans="1:26" ht="103.5" customHeight="1">
+      <c r="A41" s="167" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="167" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" s="168" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" s="168" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" s="168" t="s">
+        <v>202</v>
+      </c>
+      <c r="F41" s="168" t="s">
+        <v>233</v>
+      </c>
+      <c r="G41" s="121" t="s">
+        <v>235</v>
+      </c>
+      <c r="H41" s="122"/>
+      <c r="I41" s="167" t="s">
+        <v>281</v>
+      </c>
+      <c r="J41" s="169"/>
+      <c r="K41" s="163">
+        <v>45427</v>
+      </c>
+      <c r="L41" s="167"/>
+      <c r="M41" s="172"/>
+      <c r="N41" s="171"/>
+      <c r="O41" s="171"/>
+      <c r="P41" s="171"/>
+      <c r="Q41" s="171"/>
+      <c r="R41" s="171"/>
+      <c r="S41" s="172"/>
+      <c r="T41" s="172"/>
+      <c r="U41" s="172"/>
+      <c r="V41" s="173"/>
+      <c r="W41" s="173"/>
+      <c r="X41" s="173"/>
+      <c r="Y41" s="173"/>
+      <c r="Z41" s="173"/>
+    </row>
+    <row r="42" spans="1:26" ht="85.5" customHeight="1">
+      <c r="A42" s="167" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="167" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="168" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" s="168" t="s">
+        <v>236</v>
+      </c>
+      <c r="E42" s="168" t="s">
+        <v>202</v>
+      </c>
+      <c r="F42" s="168" t="s">
+        <v>238</v>
+      </c>
+      <c r="G42" s="121" t="s">
+        <v>206</v>
+      </c>
+      <c r="H42" s="122"/>
+      <c r="I42" s="167" t="s">
+        <v>281</v>
+      </c>
+      <c r="J42" s="169"/>
+      <c r="K42" s="163">
+        <v>45427</v>
+      </c>
+      <c r="L42" s="167"/>
+      <c r="M42" s="172"/>
+      <c r="N42" s="171"/>
+      <c r="O42" s="171"/>
+      <c r="P42" s="171"/>
+      <c r="Q42" s="171"/>
+      <c r="R42" s="171"/>
+      <c r="S42" s="172"/>
+      <c r="T42" s="172"/>
+      <c r="U42" s="172"/>
+      <c r="V42" s="173"/>
+      <c r="W42" s="173"/>
+      <c r="X42" s="173"/>
+      <c r="Y42" s="173"/>
+      <c r="Z42" s="173"/>
+    </row>
+    <row r="43" spans="1:26" ht="105" customHeight="1">
+      <c r="A43" s="167" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="167" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="168" t="s">
+        <v>241</v>
+      </c>
+      <c r="D43" s="168" t="s">
+        <v>207</v>
+      </c>
+      <c r="E43" s="168" t="s">
+        <v>202</v>
+      </c>
+      <c r="F43" s="168" t="s">
+        <v>242</v>
+      </c>
+      <c r="G43" s="121" t="s">
+        <v>243</v>
+      </c>
+      <c r="H43" s="122"/>
+      <c r="I43" s="167" t="s">
+        <v>281</v>
+      </c>
+      <c r="J43" s="169"/>
+      <c r="K43" s="170">
+        <v>45433</v>
+      </c>
+      <c r="L43" s="167"/>
+      <c r="M43" s="172"/>
+      <c r="N43" s="171"/>
+      <c r="O43" s="171"/>
+      <c r="P43" s="171"/>
+      <c r="Q43" s="171"/>
+      <c r="R43" s="171"/>
+      <c r="S43" s="172"/>
+      <c r="T43" s="172"/>
+      <c r="U43" s="172"/>
+      <c r="V43" s="173"/>
+      <c r="W43" s="173"/>
+      <c r="X43" s="173"/>
+      <c r="Y43" s="173"/>
+      <c r="Z43" s="173"/>
+    </row>
+    <row r="44" spans="1:26" s="106" customFormat="1" ht="159" customHeight="1">
+      <c r="A44" s="167" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="167" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" s="168" t="s">
+        <v>254</v>
+      </c>
+      <c r="D44" s="168" t="s">
+        <v>255</v>
+      </c>
+      <c r="E44" s="168" t="s">
+        <v>265</v>
+      </c>
+      <c r="F44" s="168" t="s">
+        <v>256</v>
+      </c>
+      <c r="G44" s="139" t="s">
+        <v>257</v>
+      </c>
+      <c r="H44" s="138"/>
+      <c r="I44" s="167" t="s">
+        <v>281</v>
+      </c>
+      <c r="J44" s="169"/>
+      <c r="K44" s="170">
+        <v>45434</v>
+      </c>
+      <c r="L44" s="167"/>
+      <c r="M44" s="171"/>
+      <c r="N44" s="171"/>
+      <c r="O44" s="171"/>
+      <c r="P44" s="171"/>
+      <c r="Q44" s="171"/>
+      <c r="R44" s="171"/>
+      <c r="S44" s="171"/>
+      <c r="T44" s="171"/>
+      <c r="U44" s="172"/>
+      <c r="V44" s="173"/>
+      <c r="W44" s="173"/>
+      <c r="X44" s="173"/>
+      <c r="Y44" s="173"/>
+      <c r="Z44" s="173"/>
     </row>
     <row r="45" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="140"/>
-      <c r="H45" s="141"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="28"/>
-      <c r="V45" s="28"/>
-      <c r="W45" s="28"/>
-      <c r="X45" s="28"/>
-      <c r="Y45" s="28"/>
-      <c r="Z45" s="28"/>
-    </row>
-    <row r="46" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="140"/>
-      <c r="H46" s="141"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="28"/>
-      <c r="V46" s="28"/>
-      <c r="W46" s="28"/>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="28"/>
-      <c r="Z46" s="28"/>
-    </row>
-    <row r="47" spans="1:26" ht="70.5" customHeight="1">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="140"/>
-      <c r="H47" s="141"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="28"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="28"/>
-    </row>
-    <row r="48" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="140"/>
+      <c r="A45" s="167" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="167" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" s="168" t="s">
+        <v>208</v>
+      </c>
+      <c r="D45" s="168" t="s">
+        <v>240</v>
+      </c>
+      <c r="E45" s="168" t="s">
+        <v>202</v>
+      </c>
+      <c r="F45" s="168" t="s">
+        <v>239</v>
+      </c>
+      <c r="G45" s="121" t="s">
+        <v>210</v>
+      </c>
+      <c r="H45" s="122"/>
+      <c r="I45" s="167" t="s">
+        <v>281</v>
+      </c>
+      <c r="J45" s="169"/>
+      <c r="K45" s="170">
+        <v>45432</v>
+      </c>
+      <c r="L45" s="167"/>
+      <c r="M45" s="172"/>
+      <c r="N45" s="171"/>
+      <c r="O45" s="171"/>
+      <c r="P45" s="171"/>
+      <c r="Q45" s="171"/>
+      <c r="R45" s="171"/>
+      <c r="S45" s="172"/>
+      <c r="T45" s="172"/>
+      <c r="U45" s="172"/>
+      <c r="V45" s="173"/>
+      <c r="W45" s="173"/>
+      <c r="X45" s="173"/>
+      <c r="Y45" s="173"/>
+      <c r="Z45" s="173"/>
+    </row>
+    <row r="46" spans="1:26" ht="70.5" customHeight="1">
+      <c r="A46" s="167" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="167" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="168" t="s">
+        <v>208</v>
+      </c>
+      <c r="D46" s="168" t="s">
+        <v>209</v>
+      </c>
+      <c r="E46" s="168" t="s">
+        <v>202</v>
+      </c>
+      <c r="F46" s="168" t="s">
+        <v>244</v>
+      </c>
+      <c r="G46" s="121" t="s">
+        <v>245</v>
+      </c>
+      <c r="H46" s="122"/>
+      <c r="I46" s="167" t="s">
+        <v>281</v>
+      </c>
+      <c r="J46" s="169"/>
+      <c r="K46" s="170">
+        <v>45432</v>
+      </c>
+      <c r="L46" s="167"/>
+      <c r="M46" s="172"/>
+      <c r="N46" s="171"/>
+      <c r="O46" s="171"/>
+      <c r="P46" s="171"/>
+      <c r="Q46" s="171"/>
+      <c r="R46" s="171"/>
+      <c r="S46" s="172"/>
+      <c r="T46" s="172"/>
+      <c r="U46" s="172"/>
+      <c r="V46" s="173"/>
+      <c r="W46" s="173"/>
+      <c r="X46" s="173"/>
+      <c r="Y46" s="173"/>
+      <c r="Z46" s="173"/>
+    </row>
+    <row r="47" spans="1:26" ht="159" customHeight="1">
+      <c r="A47" s="167" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="167" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" s="168" t="s">
+        <v>211</v>
+      </c>
+      <c r="D47" s="168" t="s">
+        <v>212</v>
+      </c>
+      <c r="E47" s="168" t="s">
+        <v>202</v>
+      </c>
+      <c r="F47" s="168" t="s">
+        <v>247</v>
+      </c>
+      <c r="G47" s="121" t="s">
+        <v>246</v>
+      </c>
+      <c r="H47" s="122"/>
+      <c r="I47" s="167" t="s">
+        <v>281</v>
+      </c>
+      <c r="J47" s="169"/>
+      <c r="K47" s="170">
+        <v>45432</v>
+      </c>
+      <c r="L47" s="167"/>
+      <c r="M47" s="172"/>
+      <c r="N47" s="171"/>
+      <c r="O47" s="171"/>
+      <c r="P47" s="171"/>
+      <c r="Q47" s="171"/>
+      <c r="R47" s="171"/>
+      <c r="S47" s="172"/>
+      <c r="T47" s="172"/>
+      <c r="U47" s="172"/>
+      <c r="V47" s="173"/>
+      <c r="W47" s="173"/>
+      <c r="X47" s="173"/>
+      <c r="Y47" s="173"/>
+      <c r="Z47" s="173"/>
+    </row>
+    <row r="48" spans="1:26" s="106" customFormat="1" ht="159" customHeight="1">
+      <c r="A48" s="167" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="167" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48" s="168" t="s">
+        <v>218</v>
+      </c>
+      <c r="D48" s="168" t="s">
+        <v>219</v>
+      </c>
+      <c r="E48" s="168" t="s">
+        <v>202</v>
+      </c>
+      <c r="F48" s="168" t="s">
+        <v>220</v>
+      </c>
+      <c r="G48" s="121" t="s">
+        <v>262</v>
+      </c>
       <c r="H48" s="141"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28"/>
-      <c r="T48" s="28"/>
-      <c r="U48" s="28"/>
-      <c r="V48" s="28"/>
-      <c r="W48" s="28"/>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="28"/>
-      <c r="Z48" s="28"/>
-    </row>
-    <row r="49" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="140"/>
-      <c r="H49" s="141"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="28"/>
-      <c r="U49" s="28"/>
-      <c r="V49" s="28"/>
-      <c r="W49" s="28"/>
-      <c r="X49" s="28"/>
-      <c r="Y49" s="28"/>
-      <c r="Z49" s="28"/>
-    </row>
-    <row r="50" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="140"/>
-      <c r="H50" s="141"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="28"/>
-      <c r="U50" s="28"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="28"/>
-      <c r="X50" s="28"/>
-      <c r="Y50" s="28"/>
-      <c r="Z50" s="28"/>
-    </row>
-    <row r="51" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="140"/>
-      <c r="H51" s="141"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="28"/>
-      <c r="U51" s="28"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="28"/>
-      <c r="X51" s="28"/>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="28"/>
+      <c r="I48" s="167" t="s">
+        <v>281</v>
+      </c>
+      <c r="J48" s="169"/>
+      <c r="K48" s="170">
+        <v>45433</v>
+      </c>
+      <c r="L48" s="167"/>
+      <c r="M48" s="174"/>
+      <c r="N48" s="174"/>
+      <c r="O48" s="174"/>
+      <c r="P48" s="174"/>
+      <c r="Q48" s="174"/>
+      <c r="R48" s="174"/>
+      <c r="S48" s="174"/>
+      <c r="T48" s="174"/>
+      <c r="U48" s="174"/>
+      <c r="V48" s="174"/>
+      <c r="W48" s="174"/>
+      <c r="X48" s="174"/>
+      <c r="Y48" s="174"/>
+      <c r="Z48" s="174"/>
+    </row>
+    <row r="49" spans="1:26" ht="159" customHeight="1">
+      <c r="A49" s="167" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="167" t="s">
+        <v>202</v>
+      </c>
+      <c r="C49" s="168" t="s">
+        <v>213</v>
+      </c>
+      <c r="D49" s="168" t="s">
+        <v>214</v>
+      </c>
+      <c r="E49" s="168" t="s">
+        <v>202</v>
+      </c>
+      <c r="F49" s="168" t="s">
+        <v>248</v>
+      </c>
+      <c r="G49" s="121" t="s">
+        <v>215</v>
+      </c>
+      <c r="H49" s="122"/>
+      <c r="I49" s="167" t="s">
+        <v>281</v>
+      </c>
+      <c r="J49" s="169"/>
+      <c r="K49" s="170">
+        <v>45432</v>
+      </c>
+      <c r="L49" s="167"/>
+      <c r="M49" s="174"/>
+      <c r="N49" s="174"/>
+      <c r="O49" s="174"/>
+      <c r="P49" s="174"/>
+      <c r="Q49" s="174"/>
+      <c r="R49" s="174"/>
+      <c r="S49" s="174"/>
+      <c r="T49" s="174"/>
+      <c r="U49" s="174"/>
+      <c r="V49" s="174"/>
+      <c r="W49" s="174"/>
+      <c r="X49" s="174"/>
+      <c r="Y49" s="174"/>
+      <c r="Z49" s="174"/>
+    </row>
+    <row r="50" spans="1:26" s="208" customFormat="1" ht="159" customHeight="1">
+      <c r="A50" s="201" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="201" t="s">
+        <v>264</v>
+      </c>
+      <c r="C50" s="202" t="s">
+        <v>216</v>
+      </c>
+      <c r="D50" s="202" t="s">
+        <v>217</v>
+      </c>
+      <c r="E50" s="202" t="s">
+        <v>264</v>
+      </c>
+      <c r="F50" s="202" t="s">
+        <v>252</v>
+      </c>
+      <c r="G50" s="203" t="s">
+        <v>253</v>
+      </c>
+      <c r="H50" s="204"/>
+      <c r="I50" s="201" t="s">
+        <v>203</v>
+      </c>
+      <c r="J50" s="205"/>
+      <c r="K50" s="206">
+        <v>45433</v>
+      </c>
+      <c r="L50" s="201"/>
+      <c r="M50" s="207"/>
+      <c r="N50" s="207"/>
+      <c r="O50" s="207"/>
+      <c r="P50" s="207"/>
+      <c r="Q50" s="207"/>
+      <c r="R50" s="207"/>
+      <c r="S50" s="207"/>
+      <c r="T50" s="207"/>
+      <c r="U50" s="207"/>
+      <c r="V50" s="207"/>
+      <c r="W50" s="207"/>
+      <c r="X50" s="207"/>
+      <c r="Y50" s="207"/>
+      <c r="Z50" s="207"/>
+    </row>
+    <row r="51" spans="1:26" s="208" customFormat="1" ht="159" customHeight="1">
+      <c r="A51" s="201" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="201" t="s">
+        <v>263</v>
+      </c>
+      <c r="C51" s="202" t="s">
+        <v>249</v>
+      </c>
+      <c r="D51" s="202" t="s">
+        <v>250</v>
+      </c>
+      <c r="E51" s="202" t="s">
+        <v>202</v>
+      </c>
+      <c r="F51" s="202" t="s">
+        <v>251</v>
+      </c>
+      <c r="G51" s="203" t="s">
+        <v>267</v>
+      </c>
+      <c r="H51" s="204"/>
+      <c r="I51" s="201" t="s">
+        <v>203</v>
+      </c>
+      <c r="J51" s="205"/>
+      <c r="K51" s="206">
+        <v>45437</v>
+      </c>
+      <c r="L51" s="201"/>
+      <c r="M51" s="207"/>
+      <c r="N51" s="207"/>
+      <c r="O51" s="207"/>
+      <c r="P51" s="207"/>
+      <c r="Q51" s="207"/>
+      <c r="R51" s="207"/>
+      <c r="S51" s="207"/>
+      <c r="T51" s="207"/>
+      <c r="U51" s="207"/>
+      <c r="V51" s="207"/>
+      <c r="W51" s="207"/>
+      <c r="X51" s="207"/>
+      <c r="Y51" s="207"/>
+      <c r="Z51" s="207"/>
+    </row>
+    <row r="52" spans="1:26" s="87" customFormat="1" ht="159" customHeight="1">
+      <c r="A52" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="191" t="s">
+        <v>268</v>
+      </c>
+      <c r="C52" s="194" t="s">
+        <v>271</v>
+      </c>
+      <c r="D52" s="194" t="s">
+        <v>272</v>
+      </c>
+      <c r="E52" s="195" t="s">
+        <v>268</v>
+      </c>
+      <c r="F52" s="194" t="s">
+        <v>269</v>
+      </c>
+      <c r="G52" s="196" t="s">
+        <v>270</v>
+      </c>
+      <c r="H52" s="197"/>
+      <c r="I52" s="191" t="s">
+        <v>281</v>
+      </c>
+      <c r="J52" s="192"/>
+      <c r="K52" s="193">
+        <v>45437</v>
+      </c>
+      <c r="L52" s="191"/>
+      <c r="M52" s="198"/>
+      <c r="N52" s="198"/>
+      <c r="O52" s="198"/>
+      <c r="P52" s="198"/>
+      <c r="Q52" s="198"/>
+      <c r="R52" s="198"/>
+      <c r="S52" s="198"/>
+      <c r="T52" s="198"/>
+      <c r="U52" s="199"/>
+      <c r="V52" s="200"/>
+      <c r="W52" s="200"/>
+      <c r="X52" s="200"/>
+      <c r="Y52" s="200"/>
+      <c r="Z52" s="200"/>
+    </row>
+    <row r="53" spans="1:26" s="87" customFormat="1" ht="159" customHeight="1">
+      <c r="A53" s="191"/>
+      <c r="B53" s="191" t="s">
+        <v>268</v>
+      </c>
+      <c r="C53" s="194" t="s">
+        <v>276</v>
+      </c>
+      <c r="D53" s="194" t="s">
+        <v>273</v>
+      </c>
+      <c r="E53" s="195" t="s">
+        <v>268</v>
+      </c>
+      <c r="F53" s="194" t="s">
+        <v>274</v>
+      </c>
+      <c r="G53" s="196" t="s">
+        <v>275</v>
+      </c>
+      <c r="H53" s="197"/>
+      <c r="I53" s="191" t="s">
+        <v>281</v>
+      </c>
+      <c r="J53" s="192"/>
+      <c r="K53" s="193"/>
+      <c r="L53" s="191"/>
+      <c r="M53" s="198"/>
+      <c r="N53" s="198"/>
+      <c r="O53" s="198"/>
+      <c r="P53" s="198"/>
+      <c r="Q53" s="198"/>
+      <c r="R53" s="198"/>
+      <c r="S53" s="198"/>
+      <c r="T53" s="198"/>
+      <c r="U53" s="199"/>
+      <c r="V53" s="200"/>
+      <c r="W53" s="200"/>
+      <c r="X53" s="200"/>
+      <c r="Y53" s="200"/>
+      <c r="Z53" s="200"/>
+    </row>
+    <row r="54" spans="1:26" s="87" customFormat="1" ht="159" customHeight="1">
+      <c r="A54" s="191"/>
+      <c r="B54" s="191" t="s">
+        <v>268</v>
+      </c>
+      <c r="C54" s="194" t="s">
+        <v>280</v>
+      </c>
+      <c r="D54" s="194" t="s">
+        <v>277</v>
+      </c>
+      <c r="E54" s="195" t="s">
+        <v>268</v>
+      </c>
+      <c r="F54" s="194" t="s">
+        <v>278</v>
+      </c>
+      <c r="G54" s="196" t="s">
+        <v>279</v>
+      </c>
+      <c r="H54" s="197"/>
+      <c r="I54" s="191" t="s">
+        <v>281</v>
+      </c>
+      <c r="J54" s="192"/>
+      <c r="K54" s="193"/>
+      <c r="L54" s="191"/>
+      <c r="M54" s="198"/>
+      <c r="N54" s="198"/>
+      <c r="O54" s="198"/>
+      <c r="P54" s="198"/>
+      <c r="Q54" s="198"/>
+      <c r="R54" s="198"/>
+      <c r="S54" s="198"/>
+      <c r="T54" s="198"/>
+      <c r="U54" s="199"/>
+      <c r="V54" s="200"/>
+      <c r="W54" s="200"/>
+      <c r="X54" s="200"/>
+      <c r="Y54" s="200"/>
+      <c r="Z54" s="200"/>
+    </row>
+    <row r="55" spans="1:26" s="106" customFormat="1" ht="159" customHeight="1">
+      <c r="A55" s="167" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="167" t="s">
+        <v>258</v>
+      </c>
+      <c r="C55" s="168" t="s">
+        <v>221</v>
+      </c>
+      <c r="D55" s="175" t="s">
+        <v>222</v>
+      </c>
+      <c r="E55" s="168" t="s">
+        <v>258</v>
+      </c>
+      <c r="F55" s="168" t="s">
+        <v>259</v>
+      </c>
+      <c r="G55" s="121" t="s">
+        <v>223</v>
+      </c>
+      <c r="H55" s="141"/>
+      <c r="I55" s="167" t="s">
+        <v>281</v>
+      </c>
+      <c r="J55" s="169"/>
+      <c r="K55" s="170">
+        <v>45440</v>
+      </c>
+      <c r="L55" s="167"/>
+      <c r="M55" s="171"/>
+      <c r="N55" s="171"/>
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="172"/>
+      <c r="V55" s="173"/>
+      <c r="W55" s="173"/>
+      <c r="X55" s="173"/>
+      <c r="Y55" s="173"/>
+      <c r="Z55" s="173"/>
+    </row>
+    <row r="56" spans="1:26" s="106" customFormat="1" ht="159" customHeight="1">
+      <c r="A56" s="167" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="167" t="s">
+        <v>258</v>
+      </c>
+      <c r="C56" s="168" t="s">
+        <v>282</v>
+      </c>
+      <c r="D56" s="175" t="s">
+        <v>285</v>
+      </c>
+      <c r="E56" s="168" t="s">
+        <v>258</v>
+      </c>
+      <c r="F56" s="168" t="s">
+        <v>283</v>
+      </c>
+      <c r="G56" s="121" t="s">
+        <v>284</v>
+      </c>
+      <c r="H56" s="141"/>
+      <c r="I56" s="167" t="s">
+        <v>281</v>
+      </c>
+      <c r="J56" s="169"/>
+      <c r="K56" s="170"/>
+      <c r="L56" s="167"/>
+      <c r="M56" s="171"/>
+      <c r="N56" s="171"/>
+      <c r="O56" s="171"/>
+      <c r="P56" s="171"/>
+      <c r="Q56" s="171"/>
+      <c r="R56" s="171"/>
+      <c r="S56" s="171"/>
+      <c r="T56" s="171"/>
+      <c r="U56" s="172"/>
+      <c r="V56" s="173"/>
+      <c r="W56" s="173"/>
+      <c r="X56" s="173"/>
+      <c r="Y56" s="173"/>
+      <c r="Z56" s="173"/>
+    </row>
+    <row r="57" spans="1:26" s="106" customFormat="1" ht="159" customHeight="1">
+      <c r="A57" s="167" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="167" t="s">
+        <v>258</v>
+      </c>
+      <c r="C57" s="168" t="s">
+        <v>282</v>
+      </c>
+      <c r="D57" s="175" t="s">
+        <v>285</v>
+      </c>
+      <c r="E57" s="168" t="s">
+        <v>258</v>
+      </c>
+      <c r="F57" s="168" t="s">
+        <v>286</v>
+      </c>
+      <c r="G57" s="121" t="s">
+        <v>287</v>
+      </c>
+      <c r="H57" s="141"/>
+      <c r="I57" s="167" t="s">
+        <v>281</v>
+      </c>
+      <c r="J57" s="169"/>
+      <c r="K57" s="170"/>
+      <c r="L57" s="167"/>
+      <c r="M57" s="171"/>
+      <c r="N57" s="171"/>
+      <c r="O57" s="171"/>
+      <c r="P57" s="171"/>
+      <c r="Q57" s="171"/>
+      <c r="R57" s="171"/>
+      <c r="S57" s="171"/>
+      <c r="T57" s="171"/>
+      <c r="U57" s="172"/>
+      <c r="V57" s="173"/>
+      <c r="W57" s="173"/>
+      <c r="X57" s="173"/>
+      <c r="Y57" s="173"/>
+      <c r="Z57" s="173"/>
+    </row>
+    <row r="58" spans="1:26" s="106" customFormat="1" ht="159" customHeight="1">
+      <c r="A58" s="167" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" s="167" t="s">
+        <v>258</v>
+      </c>
+      <c r="C58" s="168" t="s">
+        <v>282</v>
+      </c>
+      <c r="D58" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="E58" s="168" t="s">
+        <v>258</v>
+      </c>
+      <c r="F58" s="168" t="s">
+        <v>288</v>
+      </c>
+      <c r="G58" s="121" t="s">
+        <v>292</v>
+      </c>
+      <c r="H58" s="141"/>
+      <c r="I58" s="167" t="s">
+        <v>281</v>
+      </c>
+      <c r="J58" s="169"/>
+      <c r="K58" s="170"/>
+      <c r="L58" s="167"/>
+      <c r="M58" s="171"/>
+      <c r="N58" s="171"/>
+      <c r="O58" s="171"/>
+      <c r="P58" s="171"/>
+      <c r="Q58" s="171"/>
+      <c r="R58" s="171"/>
+      <c r="S58" s="171"/>
+      <c r="T58" s="171"/>
+      <c r="U58" s="172"/>
+      <c r="V58" s="173"/>
+      <c r="W58" s="173"/>
+      <c r="X58" s="173"/>
+      <c r="Y58" s="173"/>
+      <c r="Z58" s="173"/>
+    </row>
+    <row r="59" spans="1:26" s="106" customFormat="1" ht="159" customHeight="1">
+      <c r="A59" s="167" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" s="167" t="s">
+        <v>258</v>
+      </c>
+      <c r="C59" s="168" t="s">
+        <v>303</v>
+      </c>
+      <c r="D59" s="175" t="s">
+        <v>291</v>
+      </c>
+      <c r="E59" s="168" t="s">
+        <v>258</v>
+      </c>
+      <c r="F59" s="168" t="s">
+        <v>289</v>
+      </c>
+      <c r="G59" s="121" t="s">
+        <v>293</v>
+      </c>
+      <c r="H59" s="141"/>
+      <c r="I59" s="167" t="s">
+        <v>281</v>
+      </c>
+      <c r="J59" s="169"/>
+      <c r="K59" s="170"/>
+      <c r="L59" s="167"/>
+      <c r="M59" s="171"/>
+      <c r="N59" s="171"/>
+      <c r="O59" s="171"/>
+      <c r="P59" s="171"/>
+      <c r="Q59" s="171"/>
+      <c r="R59" s="171"/>
+      <c r="S59" s="171"/>
+      <c r="T59" s="171"/>
+      <c r="U59" s="172"/>
+      <c r="V59" s="173"/>
+      <c r="W59" s="173"/>
+      <c r="X59" s="173"/>
+      <c r="Y59" s="173"/>
+      <c r="Z59" s="173"/>
+    </row>
+    <row r="60" spans="1:26" s="80" customFormat="1" ht="159" customHeight="1">
+      <c r="A60" s="184"/>
+      <c r="B60" s="184" t="s">
+        <v>294</v>
+      </c>
+      <c r="C60" s="190" t="s">
+        <v>295</v>
+      </c>
+      <c r="D60" s="209" t="s">
+        <v>296</v>
+      </c>
+      <c r="E60" s="190" t="s">
+        <v>294</v>
+      </c>
+      <c r="F60" s="190" t="s">
+        <v>297</v>
+      </c>
+      <c r="G60" s="210" t="s">
+        <v>298</v>
+      </c>
+      <c r="H60" s="211"/>
+      <c r="I60" s="184" t="s">
+        <v>281</v>
+      </c>
+      <c r="J60" s="185"/>
+      <c r="K60" s="186"/>
+      <c r="L60" s="184"/>
+      <c r="M60" s="187"/>
+      <c r="N60" s="187"/>
+      <c r="O60" s="187"/>
+      <c r="P60" s="187"/>
+      <c r="Q60" s="187"/>
+      <c r="R60" s="187"/>
+      <c r="S60" s="187"/>
+      <c r="T60" s="187"/>
+      <c r="U60" s="188"/>
+      <c r="V60" s="189"/>
+      <c r="W60" s="189"/>
+      <c r="X60" s="189"/>
+      <c r="Y60" s="189"/>
+      <c r="Z60" s="189"/>
+    </row>
+    <row r="61" spans="1:26" s="80" customFormat="1" ht="159" customHeight="1">
+      <c r="A61" s="184"/>
+      <c r="B61" s="184" t="s">
+        <v>294</v>
+      </c>
+      <c r="C61" s="190" t="s">
+        <v>300</v>
+      </c>
+      <c r="D61" s="209" t="s">
+        <v>302</v>
+      </c>
+      <c r="E61" s="190" t="s">
+        <v>294</v>
+      </c>
+      <c r="F61" s="190" t="s">
+        <v>299</v>
+      </c>
+      <c r="G61" s="210" t="s">
+        <v>301</v>
+      </c>
+      <c r="H61" s="211"/>
+      <c r="I61" s="184" t="s">
+        <v>281</v>
+      </c>
+      <c r="J61" s="185"/>
+      <c r="K61" s="186"/>
+      <c r="L61" s="184"/>
+      <c r="M61" s="187"/>
+      <c r="N61" s="187"/>
+      <c r="O61" s="187"/>
+      <c r="P61" s="187"/>
+      <c r="Q61" s="187"/>
+      <c r="R61" s="187"/>
+      <c r="S61" s="187"/>
+      <c r="T61" s="187"/>
+      <c r="U61" s="188"/>
+      <c r="V61" s="189"/>
+      <c r="W61" s="189"/>
+      <c r="X61" s="189"/>
+      <c r="Y61" s="189"/>
+      <c r="Z61" s="189"/>
+    </row>
+    <row r="62" spans="1:26" s="106" customFormat="1" ht="159" customHeight="1">
+      <c r="A62" s="176" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="176" t="s">
+        <v>266</v>
+      </c>
+      <c r="C62" s="177" t="s">
+        <v>224</v>
+      </c>
+      <c r="D62" s="178" t="s">
+        <v>225</v>
+      </c>
+      <c r="E62" s="177" t="s">
+        <v>226</v>
+      </c>
+      <c r="F62" s="177" t="s">
+        <v>260</v>
+      </c>
+      <c r="G62" s="140" t="s">
+        <v>261</v>
+      </c>
+      <c r="H62" s="159"/>
+      <c r="I62" s="176" t="s">
+        <v>281</v>
+      </c>
+      <c r="J62" s="179"/>
+      <c r="K62" s="180"/>
+      <c r="L62" s="176"/>
+      <c r="M62" s="181"/>
+      <c r="N62" s="181"/>
+      <c r="O62" s="181"/>
+      <c r="P62" s="181"/>
+      <c r="Q62" s="181"/>
+      <c r="R62" s="181"/>
+      <c r="S62" s="181"/>
+      <c r="T62" s="181"/>
+      <c r="U62" s="182"/>
+      <c r="V62" s="183"/>
+      <c r="W62" s="183"/>
+      <c r="X62" s="183"/>
+      <c r="Y62" s="183"/>
+      <c r="Z62" s="183"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
+  <mergeCells count="67">
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G41:H41"/>
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G50:H50"/>
     <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G45:H45"/>
     <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G23:H23"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G32:H32"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G56:H56"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
@@ -61416,6 +62684,13 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G38:H38"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="4">
@@ -61423,13 +62698,13 @@
       <formula1>36526</formula1>
       <formula2>401768</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="J6:J22 J24:J51" xr:uid="{00000000-0002-0000-0300-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="J6:J19 J21:J50" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"추가,수정,삭제"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="I6:I51" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"구현,검증,제안,수용,연기,불가"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="A6 A42:A51 A24 A26 A32 A38 A21 A12 A18" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="A6:A50" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"기능,기술,인터페이스,기본 요건"</formula1>
     </dataValidation>
   </dataValidations>

--- a/요구사항정의서.xlsx
+++ b/요구사항정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\602-01\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\602-01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF70831-4B7A-4483-B602-1FBE1645AD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313EBBA4-094B-41C1-8911-8FD38264045F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="2385" windowWidth="18240" windowHeight="14295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="2" r:id="rId1"/>
@@ -35,22 +35,11 @@
     <definedName name="Z_D0F2CF78_9F87_4403_936B_BC9A9D69B8A3_.wvu.PrintTitles" localSheetId="2">요구사항정의서!$A$3:$IV$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="327">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -839,25 +828,190 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>리뷰게시판</t>
+    <t>정영훈</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
+    <t>배재천</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>정영훈 / 배재천</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 데이터</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속한 시간의 일기예보 조회</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 접속한 위치의 날짜와 시간을 기반으로 기상청 공공데이터 API를 통해 현재 온도, 오늘 최고, 최저온도, 습도, 하늘상태를 화면에 표시.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>온도 그래프</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속한 날짜를 기반으로 오늘, 내일, 모레의 기온을 기상청 API에 요청해서 데이터 반환 &gt; 받은 데이터를 그래프화 해서 화면에 구현.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>일기예보 영상</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>유튜브 API를 통하여 최신 일기예보 조회</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>유튜브 API를 통해 "오늘비와"채널의 일기예보영상 리스트 요청 &gt; 최신순으로 정렬한 동영상을 10개 반환 &gt; 반환된 리스트를 화면에 구현.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 오류 수정</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>오세현</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>기상청 API로 날씨 정보 구현</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>유튜브 API로 일기예보 영상 구현</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 데이터 그래프 구현</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 그래프 오류 수정</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠핑장 추천 관련 페이지에 뒤로가기 및 홈버튼 구현</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>소개페이지 내용 수정</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰게시판</t>
+  </si>
+  <si>
+    <t>유저 리뷰</t>
+  </si>
+  <si>
+    <t>유저들이 작성한 캠핑장리뷰 글 출력</t>
+  </si>
+  <si>
+    <t>유저들이 작성한 캠핑장리뷰 보기</t>
+  </si>
+  <si>
     <t>구현</t>
+  </si>
+  <si>
+    <t>* 제목
+* 글쓴이 :자동
+* 작성일 : 자동
+* 캠핑장명
+* 별점
+* 리뷰내용</t>
+  </si>
+  <si>
+    <t>리뷰게시판 목록으로 이동</t>
+  </si>
+  <si>
+    <t>리뷰 게시판 글쓰기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* 제목, 캠핑장명 , 별점 , 리뷰내용을 사용자가 입력한다.
+(이때 캠핑장명은 캠핑장 검색기능을 이용해서 자동입력한다)
+* 글쓴이, 작성일은 자동입력되며 변경불가능하다.
+* 별점은 별모양 아이콘을 클릭하는것으로 점수를매긴다.
+* 리뷰내용 작성부분은 에디터를 사용해 그림등을 자유롭게 넣을 수 있다.
+</t>
+  </si>
+  <si>
+    <t>* 제목
+* 캠핑장명
+* 별점
+* 리뷰내용</t>
   </si>
   <si>
     <t>"글 수정완료"
 &gt; 해당 상세게시물 페이지로 새로고침</t>
   </si>
   <si>
+    <t>리뷰 게시판 글 수정</t>
+  </si>
+  <si>
+    <t>* 제목, 캠핑장명 , 별점 , 리뷰내용 란만 수정 가능하다.
+* 수정해도 글쓴이, 작성일은 변경되지않는다.
+*기존의 글쓴 데이터가 불러와진다.</t>
+  </si>
+  <si>
     <t>글삭제 버튼 
 클릭</t>
+  </si>
+  <si>
+    <t>"글 삭제완료"
+&gt; 리뷰게시판 목록으로 이동</t>
+  </si>
+  <si>
+    <t>리뷰 게시판 글 삭제</t>
   </si>
   <si>
     <t>* 게시글이 삭제된다. 데이터베이스에서도 제거됨.</t>
   </si>
   <si>
+    <t>* 글제목, 작성자, 캠핑장명 검색</t>
+  </si>
+  <si>
     <t>커뮤니티 페이지에서 검색결과 보여줌</t>
+  </si>
+  <si>
+    <t>리뷰 게시판 글 검색</t>
+  </si>
+  <si>
+    <t>* 해당 검색키워드가 포함된 제목으로 검색을 할수있다.
+* 해당 키워드와 닉네임이 일치하는 사용자의 글을 보여준다.
+* 해당 키워드와 캠핑장명이 일치하는 글을 보여준다.
+* 게시글 6개마다 페이징처리한다.</t>
+  </si>
+  <si>
+    <t>1. 게시글 추천아이콘 클릭
+2. 게시글 공유 아이콘 클릭
+3. 게시글 소셜공유 아이콘 클릭
+4. 게시글 북마크 아이콘 클릭</t>
+  </si>
+  <si>
+    <t>1. 추천했다고 버튼이 바뀐다.
+2. "복사 되었습니다" 안내문이 나타나고 클립보드에 url 복사됨.
+3. 소셜페이지로 연결
+4. 북마크 등록했다고 버튼이 바뀐다.</t>
+  </si>
+  <si>
+    <t>리뷰 게시판</t>
+  </si>
+  <si>
+    <t>게시글 추천
+게시글 공유
+게시글 북마크</t>
+  </si>
+  <si>
+    <t>1. 추천 아이콘 클릭시 해당게시글의 추천횟수 +1 증가.
+2. 공유하기 아이콘 클릭시 해당게시글의 url 클립보드로 자동 복사.
+3. 소셜 공유페이지로 이동( 로그인필요)
+4. 북마크 아이콘 클릭시 해당북마크 횟수가 +1 증가하며 마이페이지에서 북마크 리뷰를 볼수있게된다.</t>
   </si>
   <si>
     <t>* 댓글내용
@@ -867,7 +1021,16 @@
     <t>상세게시물 페이지 새로고침</t>
   </si>
   <si>
+    <t>리뷰 게시판 댓글 출력</t>
+  </si>
+  <si>
     <t>* 게시글을 클릭해 해당 게시글 상세페이지에서 댓글을 볼수 있다.</t>
+  </si>
+  <si>
+    <t>리뷰 게시판 댓글 쓰기</t>
+  </si>
+  <si>
+    <t>* 게시글 상세페이지에서 댓글을 작성할 수 있다.</t>
   </si>
   <si>
     <t>* 댓글내용</t>
@@ -876,19 +1039,10 @@
     <t xml:space="preserve">"댓글 수정완료" &gt;해당 상세게시물페이지 새로고침 </t>
   </si>
   <si>
-    <t>댓글의 삭제 버튼 클릭</t>
+    <t>리뷰 게시판 댓글 수정</t>
   </si>
   <si>
-    <t>"댓글 삭제완료" &gt; 해당 상세게시물페이지 새로고침</t>
-  </si>
-  <si>
-    <t>* 본인이 작성한 댓글에만 삭제버튼이 나타나 삭제할수있다.</t>
-  </si>
-  <si>
-    <t>해당 카테고리 키워드 클릭</t>
-  </si>
-  <si>
-    <t>일치 게시글만 출력</t>
+    <t>* 본인이 작성한 댓글에만 수정버튼이 나타나 수정할수있다.</t>
   </si>
   <si>
     <t>원하는 정렬조건 클릭</t>
@@ -901,6 +1055,95 @@
 정렬</t>
   </si>
   <si>
+    <t xml:space="preserve">정렬 기준을 클릭하면 해당 정렬방법에의해 게시글이 재정렬된다. </t>
+  </si>
+  <si>
+    <t>댓글의 삭제 버튼 클릭</t>
+  </si>
+  <si>
+    <t>"댓글 삭제완료" &gt; 해당 상세게시물페이지 새로고침</t>
+  </si>
+  <si>
+    <t>리뷰 게시판 댓글 삭제</t>
+  </si>
+  <si>
+    <t>* 본인이 작성한 댓글에만 삭제버튼이 나타나 삭제할수있다.</t>
+  </si>
+  <si>
+    <t>공지사항/이벤트 게시판</t>
+  </si>
+  <si>
+    <t>해당 카테고리 키워드 클릭</t>
+  </si>
+  <si>
+    <t>일치 게시글만 출력</t>
+  </si>
+  <si>
+    <t>공지사항/이벤트 게시판
+카테고리 분류</t>
+  </si>
+  <si>
+    <t>분류 키워드를 클릭하면 해당 카테고리의 글만 나온다.
+(키워드 : 공지사항, 이벤트)</t>
+  </si>
+  <si>
+    <t>메뉴바에서 'notice' 버튼을 클릭</t>
+  </si>
+  <si>
+    <t>*게시글 모두 출력</t>
+  </si>
+  <si>
+    <t>공지사항/이벤트 글 출력</t>
+  </si>
+  <si>
+    <t>* 공지사항/이벤트 게시판에 작성된 유저들의 글을 모두 보여준다. 게시글 6개마다 페이징처리한다.
+* 클릭시 상세정보를 볼수있다.</t>
+  </si>
+  <si>
+    <t>가이드 페이지</t>
+  </si>
+  <si>
+    <t>캠핑 공부하러 go! 버튼을 누른다.</t>
+  </si>
+  <si>
+    <t>네이버 카페 API 데이터</t>
+  </si>
+  <si>
+    <t>네이버 카페 api를 이용해 카페 검색 목록 출력</t>
+  </si>
+  <si>
+    <t>API를 이용해서 네이버 카페에 작성되 있는 글 목록을 불러오고, 클릭시 카페의 본문내용만 크롤링해서 가져와서 출력한다.</t>
+  </si>
+  <si>
+    <t>캠핑 물품 준비하기 버튼을 누른다.</t>
+  </si>
+  <si>
+    <t>네이버 쇼핑 API 데이터</t>
+  </si>
+  <si>
+    <t>네이버 쇼핑 api를 이용해 검색 목록 출력</t>
+  </si>
+  <si>
+    <t>검색시 네이버 쇼핑 api 를 이용해서 검색결과를 받아와서 출력한다. 
+(이름, 최저가, 분류등)
+이름을 누르면 해당 쇼핑페이지로 이동한다.</t>
+  </si>
+  <si>
+    <t>요리 준비하러 go! 버튼을 누른다.</t>
+  </si>
+  <si>
+    <t>식품 DB API 데이터</t>
+  </si>
+  <si>
+    <t>식품 데이터베이스 API를 이용해서 정보를 출력한다.</t>
+  </si>
+  <si>
+    <t>음식 상위 6가지만 검색결과를 받아와서 출력하고 클릭시 해당 재료, 레시피등의 내용과 사진을 출력한다.</t>
+  </si>
+  <si>
+    <t>예약 페이지</t>
+  </si>
+  <si>
     <t>1.프린트 버튼 클릭
 2. pdf 파일 다운 버튼 클릭</t>
   </si>
@@ -908,8 +1151,90 @@
     <t>pdf 파일 저장, 프린트</t>
   </si>
   <si>
+    <t>예약 상세정보 pdf 저장, 프린트 출력</t>
+  </si>
+  <si>
     <t>1. 해당페이지 프린트 창 열림
 2. 해당 게시물 내용 pdf 파일로 자동 다운로드.</t>
+  </si>
+  <si>
+    <t>날짜, 캠핑장명, 인원수, 연락처, 이름, 추가정보</t>
+  </si>
+  <si>
+    <t>해당 예약의 상세페이지</t>
+  </si>
+  <si>
+    <t>예약하기</t>
+  </si>
+  <si>
+    <t>예약할 경우 날짜, 캠핑장명, 인원수, 연락처, 이름, 추가정보 등을 입력하면 예약 신청이 완료된다.</t>
+  </si>
+  <si>
+    <t>예약 출력</t>
+  </si>
+  <si>
+    <t>나의 예약보기에서 나의 예약목록들을 볼수있고, 클릭시 예약 상세정보 확인이 가능하다.</t>
+  </si>
+  <si>
+    <t>수정완료버튼 &gt; 해당 예약의 상세페이지로 이동</t>
+  </si>
+  <si>
+    <t>예약 수정</t>
+  </si>
+  <si>
+    <t>날짜, 캠핑장명, 인원수, 연락처, 이름, 추가정보 등을 수정가능하다.
+(단 예약상태가 대기중일 경우에만 가능하다.)</t>
+  </si>
+  <si>
+    <t>삭제버튼 클릭</t>
+  </si>
+  <si>
+    <t>삭제버튼 &gt; 나의 예약목록 페이지로</t>
+  </si>
+  <si>
+    <t>예약 삭제</t>
+  </si>
+  <si>
+    <t>예약을 삭제가능하다.
+(단 예약상태가 대기중일 경우에만 가능하다.)</t>
+  </si>
+  <si>
+    <t>지도 페이지</t>
+  </si>
+  <si>
+    <t>캠핑장명 검색</t>
+  </si>
+  <si>
+    <t>검색결과 출력</t>
+  </si>
+  <si>
+    <t>카카오 맵 api를 이용한 지도검색</t>
+  </si>
+  <si>
+    <t>검색결과를 지도 왼쪽에 표시하고, 지도상에도 마커로 검색결과 출력.
+해당 검색결과를 클릭시 해당마커를 중심으로 지도위치가 변경된다.</t>
+  </si>
+  <si>
+    <t>* 
+- 아이콘으로 주변가게 보기
+-로드뷰 보기
+-교통상황확인
+-지역검색</t>
+  </si>
+  <si>
+    <t>지도상 표시</t>
+  </si>
+  <si>
+    <t>지도 추가기능</t>
+  </si>
+  <si>
+    <t>* - 마켓, 병원, 약국등의 위치를 현재 지도위치 기준으로 지도상에 표시한다.
+- 로드뷰를 나타내는 창이 하나 더 생기며 지도상의 로드뷰 아이콘 위치를 옮기는것에 맞춰서 로드뷰창의 화면도 바뀐다.
+- 도로에서 교통상황을 빨간색~녹색으로 표시한다.
+- 시군구 순으로 지역을 select 할수있으며 동까지 선택시 해당위치로 지도가 이동한다.</t>
+  </si>
+  <si>
+    <t>도움 챗봇</t>
   </si>
   <si>
     <t>응답 챗봇 제시 키워드 클릭 or 채팅입력</t>
@@ -921,380 +1246,28 @@
     <t>전체 페이지</t>
   </si>
   <si>
-    <t>유저들이 작성한 캠핑장리뷰 글 출력</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저들이 작성한 캠핑장리뷰 보기</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 리뷰</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 게시판 글쓰기</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 제목
-* 글쓴이 :자동
-* 작성일 : 자동
-* 캠핑장명
-* 별점
-* 리뷰내용</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">* 제목, 캠핑장명 , 별점 , 리뷰내용을 사용자가 입력한다.
-(이때 캠핑장명은 캠핑장 검색기능을 이용해서 자동입력한다)
-* 글쓴이, 작성일은 자동입력되며 변경불가능하다.
-* 별점은 별모양 아이콘을 클릭하는것으로 점수를매긴다.
-* 리뷰내용 작성부분은 에디터를 사용해 그림등을 자유롭게 넣을 수 있다.
-</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 게시판 글 수정</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 제목
-* 캠핑장명
-* 별점
-* 리뷰내용</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 제목, 캠핑장명 , 별점 , 리뷰내용 란만 수정 가능하다.
-* 수정해도 글쓴이, 작성일은 변경되지않는다.
-*기존의 글쓴 데이터가 불러와진다.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>"글 삭제완료"
-&gt; 리뷰게시판 목록으로 이동</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰게시판 목록으로 이동</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 게시판 글 삭제</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 게시판 댓글 출력</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세게시물 페이지 새로고침</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 글제목, 작성자, 캠핑장명 검색</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 게시판 글 검색</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 해당 검색키워드가 포함된 제목으로 검색을 할수있다.
-* 해당 키워드와 닉네임이 일치하는 사용자의 글을 보여준다.
-* 해당 키워드와 캠핑장명이 일치하는 글을 보여준다.
-* 게시글 6개마다 페이징처리한다.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 게시판 댓글 쓰기</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 게시글 상세페이지에서 댓글을 작성할 수 있다.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 본인이 작성한 댓글에만 수정버튼이 나타나 수정할수있다.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 게시판 댓글 수정</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 게시판 댓글 삭제</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴바에서 'notice' 버튼을 클릭</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>*게시글 모두 출력</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항/이벤트 글 출력</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항/이벤트 게시판
-카테고리 분류</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류 키워드를 클릭하면 해당 카테고리의 글만 나온다.
-(키워드 : 공지사항, 이벤트)</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 게시글 추천아이콘 클릭
-2. 게시글 공유 아이콘 클릭
-3. 게시글 소셜공유 아이콘 클릭
-4. 게시글 북마크 아이콘 클릭</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 추천했다고 버튼이 바뀐다.
-2. "복사 되었습니다" 안내문이 나타나고 클립보드에 url 복사됨.
-3. 소셜페이지로 연결
-4. 북마크 등록했다고 버튼이 바뀐다.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 추천
-게시글 공유
-게시글 북마크</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 추천 아이콘 클릭시 해당게시글의 추천횟수 +1 증가.
-2. 공유하기 아이콘 클릭시 해당게시글의 url 클립보드로 자동 복사.
-3. 소셜 공유페이지로 이동( 로그인필요)
-4. 북마크 아이콘 클릭시 해당북마크 횟수가 +1 증가하며 마이페이지에서 북마크 리뷰를 볼수있게된다.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약 페이지</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약 상세정보 pdf 저장, 프린트 출력</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>kakao API를 통한 고객문의 응답 챗봇</t>
-    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1. 키워드 클릭시 지정해둔 응답에 따라 대답.
 2. 채팅시 gpt 자체 대답.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">정렬 기준을 클릭하면 해당 정렬방법에의해 게시글이 재정렬된다. </t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항/이벤트 게시판</t>
-  </si>
-  <si>
-    <t>공지사항/이벤트 게시판</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 게시판</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>도움 챗봇</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 공지사항/이벤트 게시판에 작성된 유저들의 글을 모두 보여준다. 게시글 6개마다 페이징처리한다.
-* 클릭시 상세정보를 볼수있다.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>가이드 페이지</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>네이버 카페 api를 이용해 카페 검색 목록 출력</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>API를 이용해서 네이버 카페에 작성되 있는 글 목록을 불러오고, 클릭시 카페의 본문내용만 크롤링해서 가져와서 출력한다.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>캠핑 공부하러 go! 버튼을 누른다.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>네이버 카페 API 데이터</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>네이버 쇼핑 API 데이터</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>네이버 쇼핑 api를 이용해 검색 목록 출력</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색시 네이버 쇼핑 api 를 이용해서 검색결과를 받아와서 출력한다. 
-(이름, 최저가, 분류등)
-이름을 누르면 해당 쇼핑페이지로 이동한다.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>캠핑 물품 준비하기 버튼을 누른다.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>식품 DB API 데이터</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>식품 데이터베이스 API를 이용해서 정보를 출력한다.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>음식 상위 6가지만 검색결과를 받아와서 출력하고 클릭시 해당 재료, 레시피등의 내용과 사진을 출력한다.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>요리 준비하러 go! 버튼을 누른다.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>구현</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜, 캠핑장명, 인원수, 연락처, 이름, 추가정보</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약하기</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약할 경우 날짜, 캠핑장명, 인원수, 연락처, 이름, 추가정보 등을 입력하면 예약 신청이 완료된다.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 예약의 상세페이지</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약 출력</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>나의 예약보기에서 나의 예약목록들을 볼수있고, 클릭시 예약 상세정보 확인이 가능하다.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약 수정</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약 삭제</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정완료버튼 &gt; 해당 예약의 상세페이지로 이동</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제버튼 &gt; 나의 예약목록 페이지로</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜, 캠핑장명, 인원수, 연락처, 이름, 추가정보 등을 수정가능하다.
-(단 예약상태가 대기중일 경우에만 가능하다.)</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약을 삭제가능하다.
-(단 예약상태가 대기중일 경우에만 가능하다.)</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>지도 페이지</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>캠핑장명 검색</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색결과 출력</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>카카오 맵 api를 이용한 지도검색</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색결과를 지도 왼쪽에 표시하고, 지도상에도 마커로 검색결과 출력.
-해당 검색결과를 클릭시 해당마커를 중심으로 지도위치가 변경된다.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>지도 추가기능</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 
-- 아이콘으로 주변가게 보기
--로드뷰 보기
--교통상황확인
--지역검색</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>* - 마켓, 병원, 약국등의 위치를 현재 지도위치 기준으로 지도상에 표시한다.
-- 로드뷰를 나타내는 창이 하나 더 생기며 지도상의 로드뷰 아이콘 위치를 옮기는것에 맞춰서 로드뷰창의 화면도 바뀐다.
-- 도로에서 교통상황을 빨간색~녹색으로 표시한다.
-- 시군구 순으로 지역을 select 할수있으며 동까지 선택시 해당위치로 지도가 이동한다.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>지도상 표시</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제버튼 클릭</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>응답 챗봇 구현</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <t>카카오 api를 이용한 지도 페이지 및 기능 구현</t>
   </si>
   <si>
     <t>권민채</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>리뷰게시판 페이지 및 기능 구현</t>
+    <t>이벤트/ 공지사항 게시판 페이지 및 기능 구현</t>
+  </si>
+  <si>
+    <t>예약 페이지 및 기능 구현</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>이벤트/ 공지사항 게시판 페이지 및 기능 구현</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>카카오 api를 이용한 지도 페이지 및 기능 구현</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약 페이지 및 기능 구현</t>
+    <t>리뷰게시판 페이지 및 기능 구현</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
@@ -1602,7 +1575,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1695,12 +1668,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1807,18 +1817,12 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="15" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1838,14 +1842,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="15" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1867,9 +1880,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="15" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1913,9 +1923,6 @@
     <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="15" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1940,9 +1947,6 @@
     <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="15" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1955,13 +1959,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2004,10 +2005,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2015,52 +2012,10 @@
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2096,80 +2051,131 @@
     <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="15" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2177,64 +2183,13 @@
     <xf numFmtId="177" fontId="15" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="15" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="15" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2246,18 +2201,6 @@
     <xf numFmtId="177" fontId="15" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2267,31 +2210,28 @@
     <xf numFmtId="177" fontId="15" fillId="11" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="15" fillId="15" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="15" fillId="15" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2300,26 +2240,38 @@
     <xf numFmtId="0" fontId="15" fillId="15" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="15" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="15" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2709,9 +2661,9 @@
     </row>
     <row r="5" spans="1:26" ht="28.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -30608,10 +30560,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:Z1035"/>
+  <dimension ref="A1:Z1040"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -30626,14 +30578,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" customHeight="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -30768,7 +30720,9 @@
       <c r="D5" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="22" t="s">
+        <v>202</v>
+      </c>
       <c r="F5" s="22"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
@@ -30791,10 +30745,8 @@
       <c r="Y5" s="25"/>
       <c r="Z5" s="25"/>
     </row>
-    <row r="6" spans="1:26" s="101" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="22">
-        <v>3</v>
-      </c>
+    <row r="6" spans="1:26" s="98" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
       <c r="D6" s="24" t="s">
@@ -30825,10 +30777,8 @@
       <c r="Y6" s="25"/>
       <c r="Z6" s="25"/>
     </row>
-    <row r="7" spans="1:26" s="101" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="22">
-        <v>4</v>
-      </c>
+    <row r="7" spans="1:26" s="98" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24" t="s">
@@ -30859,17 +30809,15 @@
       <c r="Y7" s="25"/>
       <c r="Z7" s="25"/>
     </row>
-    <row r="8" spans="1:26" s="105" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="22">
-        <v>5</v>
-      </c>
+    <row r="8" spans="1:26" s="98" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="25"/>
@@ -30895,7 +30843,7 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="23">
@@ -30904,7 +30852,9 @@
       <c r="D9" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="22" t="s">
+        <v>204</v>
+      </c>
       <c r="F9" s="22"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -30927,10 +30877,8 @@
       <c r="Y9" s="25"/>
       <c r="Z9" s="25"/>
     </row>
-    <row r="10" spans="1:26" s="101" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A10" s="22">
-        <v>7</v>
-      </c>
+    <row r="10" spans="1:26" s="98" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24" t="s">
@@ -30963,7 +30911,7 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="22">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="23">
@@ -30972,7 +30920,9 @@
       <c r="D11" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="22" t="s">
+        <v>202</v>
+      </c>
       <c r="F11" s="22"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
@@ -30995,10 +30945,8 @@
       <c r="Y11" s="25"/>
       <c r="Z11" s="25"/>
     </row>
-    <row r="12" spans="1:26" s="101" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A12" s="22">
-        <v>9</v>
-      </c>
+    <row r="12" spans="1:26" s="98" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24" t="s">
@@ -31031,14 +30979,16 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
       <c r="D13" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="22"/>
+      <c r="E13" s="22" t="s">
+        <v>204</v>
+      </c>
       <c r="F13" s="22"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -31061,17 +31011,15 @@
       <c r="Y13" s="25"/>
       <c r="Z13" s="25"/>
     </row>
-    <row r="14" spans="1:26" s="105" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A14" s="22">
-        <v>11</v>
-      </c>
+    <row r="14" spans="1:26" s="98" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="C14" s="23"/>
       <c r="D14" s="24" t="s">
-        <v>307</v>
+        <v>220</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>305</v>
+        <v>214</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="25"/>
@@ -31095,18 +31043,16 @@
       <c r="Y14" s="25"/>
       <c r="Z14" s="25"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="22">
-        <v>12</v>
+    <row r="15" spans="1:26" s="98" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24" t="s">
+        <v>322</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23">
-        <v>45450</v>
+      <c r="E15" s="22" t="s">
+        <v>321</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
@@ -31129,17 +31075,19 @@
       <c r="Y15" s="25"/>
       <c r="Z15" s="25"/>
     </row>
-    <row r="16" spans="1:26" s="101" customFormat="1" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="22">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
+      <c r="C16" s="23">
+        <v>45450</v>
+      </c>
       <c r="D16" s="24" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="25"/>
@@ -31163,16 +31111,16 @@
       <c r="Y16" s="25"/>
       <c r="Z16" s="25"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A17" s="22">
-        <v>14</v>
-      </c>
+    <row r="17" spans="1:26" s="98" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A17" s="22"/>
       <c r="B17" s="22"/>
       <c r="C17" s="23"/>
       <c r="D17" s="24" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="22" t="s">
+        <v>135</v>
+      </c>
       <c r="F17" s="22"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
@@ -31195,17 +31143,17 @@
       <c r="Y17" s="25"/>
       <c r="Z17" s="25"/>
     </row>
-    <row r="18" spans="1:26" s="105" customFormat="1" ht="15.75" customHeight="1">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="22">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
       <c r="D18" s="24" t="s">
-        <v>309</v>
+        <v>109</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>305</v>
+        <v>202</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="25"/>
@@ -31229,18 +31177,16 @@
       <c r="Y18" s="25"/>
       <c r="Z18" s="25"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A19" s="22">
-        <v>16</v>
+    <row r="19" spans="1:26" s="98" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24" t="s">
+        <v>323</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23">
-        <v>45453</v>
+      <c r="E19" s="22" t="s">
+        <v>321</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
@@ -31263,17 +31209,19 @@
       <c r="Y19" s="25"/>
       <c r="Z19" s="25"/>
     </row>
-    <row r="20" spans="1:26" s="101" customFormat="1" ht="15.75" customHeight="1">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="22">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
+      <c r="C20" s="23">
+        <v>45453</v>
+      </c>
       <c r="D20" s="24" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="25"/>
@@ -31297,16 +31245,16 @@
       <c r="Y20" s="25"/>
       <c r="Z20" s="25"/>
     </row>
-    <row r="21" spans="1:26" s="105" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A21" s="22">
-        <v>18</v>
-      </c>
+    <row r="21" spans="1:26" s="98" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="23"/>
       <c r="D21" s="24" t="s">
-        <v>304</v>
+        <v>134</v>
       </c>
-      <c r="E21" s="22"/>
+      <c r="E21" s="22" t="s">
+        <v>135</v>
+      </c>
       <c r="F21" s="22"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -31329,18 +31277,16 @@
       <c r="Y21" s="25"/>
       <c r="Z21" s="25"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A22" s="22">
-        <v>19</v>
+    <row r="22" spans="1:26" s="98" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24" t="s">
+        <v>215</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23">
-        <v>45455</v>
+      <c r="E22" s="22" t="s">
+        <v>214</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
@@ -31363,16 +31309,16 @@
       <c r="Y22" s="25"/>
       <c r="Z22" s="25"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="22">
-        <v>20</v>
-      </c>
+    <row r="23" spans="1:26" s="98" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="23"/>
       <c r="D23" s="24" t="s">
-        <v>111</v>
+        <v>216</v>
       </c>
-      <c r="E23" s="22"/>
+      <c r="E23" s="22" t="s">
+        <v>214</v>
+      </c>
       <c r="F23" s="22"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
@@ -31397,14 +31343,18 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="22">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
+      <c r="C24" s="23">
+        <v>45455</v>
+      </c>
       <c r="D24" s="24" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
-      <c r="E24" s="22"/>
+      <c r="E24" s="22" t="s">
+        <v>204</v>
+      </c>
       <c r="F24" s="22"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
@@ -31427,17 +31377,17 @@
       <c r="Y24" s="25"/>
       <c r="Z24" s="25"/>
     </row>
-    <row r="25" spans="1:26" s="101" customFormat="1" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="22">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
       <c r="D25" s="24" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="25"/>
@@ -31461,17 +31411,17 @@
       <c r="Y25" s="25"/>
       <c r="Z25" s="25"/>
     </row>
-    <row r="26" spans="1:26" s="105" customFormat="1" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="22">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="23"/>
       <c r="D26" s="24" t="s">
-        <v>306</v>
+        <v>123</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>305</v>
+        <v>202</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="25"/>
@@ -31495,18 +31445,16 @@
       <c r="Y26" s="25"/>
       <c r="Z26" s="25"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A27" s="22">
-        <v>24</v>
+    <row r="27" spans="1:26" s="98" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="24" t="s">
+        <v>137</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23">
-        <v>45456</v>
+      <c r="E27" s="22" t="s">
+        <v>135</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="22"/>
       <c r="F27" s="22"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -31529,16 +31477,16 @@
       <c r="Y27" s="25"/>
       <c r="Z27" s="25"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="22">
-        <v>25</v>
-      </c>
+    <row r="28" spans="1:26" s="98" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
       <c r="D28" s="24" t="s">
-        <v>114</v>
+        <v>324</v>
       </c>
-      <c r="E28" s="22"/>
+      <c r="E28" s="22" t="s">
+        <v>321</v>
+      </c>
       <c r="F28" s="22"/>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
@@ -31561,17 +31509,19 @@
       <c r="Y28" s="25"/>
       <c r="Z28" s="25"/>
     </row>
-    <row r="29" spans="1:26" s="101" customFormat="1" ht="15.75" customHeight="1">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="22">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
+      <c r="C29" s="23">
+        <v>45456</v>
+      </c>
       <c r="D29" s="24" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="25"/>
@@ -31597,16 +31547,16 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="22">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B30" s="22"/>
-      <c r="C30" s="23">
-        <v>45457</v>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24" t="s">
+        <v>114</v>
       </c>
-      <c r="D30" s="24" t="s">
-        <v>115</v>
+      <c r="E30" s="22" t="s">
+        <v>204</v>
       </c>
-      <c r="E30" s="22"/>
       <c r="F30" s="22"/>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
@@ -31629,15 +31579,16 @@
       <c r="Y30" s="25"/>
       <c r="Z30" s="25"/>
     </row>
-    <row r="31" spans="1:26" ht="15" customHeight="1">
-      <c r="A31" s="22">
-        <v>28</v>
+    <row r="31" spans="1:26" s="98" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="24" t="s">
+        <v>132</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="D31" s="24" t="s">
-        <v>125</v>
+      <c r="E31" s="22" t="s">
+        <v>135</v>
       </c>
-      <c r="E31" s="22"/>
       <c r="F31" s="22"/>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
@@ -31660,16 +31611,15 @@
       <c r="Y31" s="25"/>
       <c r="Z31" s="25"/>
     </row>
-    <row r="32" spans="1:26" s="105" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="22">
-        <v>29</v>
-      </c>
+    <row r="32" spans="1:26" s="98" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A32" s="22"/>
       <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
       <c r="D32" s="24" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>305</v>
+        <v>214</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="25"/>
@@ -31693,18 +31643,20 @@
       <c r="Y32" s="25"/>
       <c r="Z32" s="25"/>
     </row>
-    <row r="33" spans="1:26" ht="15" customHeight="1">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="22">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="23">
-        <v>45460</v>
+        <v>45457</v>
       </c>
-      <c r="D33" s="100" t="s">
-        <v>118</v>
+      <c r="D33" s="24" t="s">
+        <v>115</v>
       </c>
-      <c r="E33" s="22"/>
+      <c r="E33" s="22" t="s">
+        <v>203</v>
+      </c>
       <c r="F33" s="22"/>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
@@ -31729,14 +31681,16 @@
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1">
       <c r="A34" s="22">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="23"/>
-      <c r="D34" s="100" t="s">
-        <v>116</v>
+      <c r="D34" s="24" t="s">
+        <v>125</v>
       </c>
-      <c r="E34" s="22"/>
+      <c r="E34" s="22" t="s">
+        <v>202</v>
+      </c>
       <c r="F34" s="22"/>
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
@@ -31759,17 +31713,15 @@
       <c r="Y34" s="25"/>
       <c r="Z34" s="25"/>
     </row>
-    <row r="35" spans="1:26" s="101" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="22">
-        <v>32</v>
-      </c>
+    <row r="35" spans="1:26" s="98" customFormat="1" ht="15" customHeight="1">
+      <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="100" t="s">
-        <v>131</v>
+      <c r="D35" s="24" t="s">
+        <v>217</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="25"/>
@@ -31793,16 +31745,16 @@
       <c r="Y35" s="25"/>
       <c r="Z35" s="25"/>
     </row>
-    <row r="36" spans="1:26" ht="15" customHeight="1">
-      <c r="A36" s="22">
-        <v>33</v>
-      </c>
+    <row r="36" spans="1:26" s="98" customFormat="1" ht="15" customHeight="1">
+      <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="23"/>
       <c r="D36" s="24" t="s">
-        <v>117</v>
+        <v>325</v>
       </c>
-      <c r="E36" s="22"/>
+      <c r="E36" s="22" t="s">
+        <v>321</v>
+      </c>
       <c r="F36" s="22"/>
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
@@ -31825,17 +31777,19 @@
       <c r="Y36" s="25"/>
       <c r="Z36" s="25"/>
     </row>
-    <row r="37" spans="1:26" s="105" customFormat="1" ht="15" customHeight="1">
+    <row r="37" spans="1:26" ht="15" customHeight="1">
       <c r="A37" s="22">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="24" t="s">
-        <v>311</v>
+      <c r="C37" s="23">
+        <v>45460</v>
+      </c>
+      <c r="D37" s="97" t="s">
+        <v>118</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>305</v>
+        <v>203</v>
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="25"/>
@@ -31861,16 +31815,16 @@
     </row>
     <row r="38" spans="1:26" ht="15" customHeight="1">
       <c r="A38" s="22">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B38" s="22"/>
-      <c r="C38" s="23">
-        <v>45461</v>
+      <c r="C38" s="23"/>
+      <c r="D38" s="97" t="s">
+        <v>116</v>
       </c>
-      <c r="D38" s="24" t="s">
-        <v>124</v>
+      <c r="E38" s="22" t="s">
+        <v>204</v>
       </c>
-      <c r="E38" s="22"/>
       <c r="F38" s="22"/>
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
@@ -31893,15 +31847,16 @@
       <c r="Y38" s="25"/>
       <c r="Z38" s="25"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A39" s="22">
-        <v>36</v>
+    <row r="39" spans="1:26" s="98" customFormat="1" ht="15" customHeight="1">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="97" t="s">
+        <v>131</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="D39" s="24" t="s">
-        <v>119</v>
+      <c r="E39" s="22" t="s">
+        <v>135</v>
       </c>
-      <c r="E39" s="22"/>
       <c r="F39" s="22"/>
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
@@ -31924,18 +31879,18 @@
       <c r="Y39" s="25"/>
       <c r="Z39" s="25"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1">
+    <row r="40" spans="1:26" ht="15" customHeight="1">
       <c r="A40" s="22">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B40" s="22"/>
-      <c r="C40" s="23">
-        <v>45462</v>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24" t="s">
+        <v>117</v>
       </c>
-      <c r="D40" s="24" t="s">
-        <v>120</v>
+      <c r="E40" s="22" t="s">
+        <v>202</v>
       </c>
-      <c r="E40" s="22"/>
       <c r="F40" s="22"/>
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
@@ -31958,18 +31913,16 @@
       <c r="Y40" s="25"/>
       <c r="Z40" s="25"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A41" s="22">
-        <v>38</v>
+    <row r="41" spans="1:26" s="98" customFormat="1" ht="15" customHeight="1">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="24" t="s">
+        <v>218</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="23">
-        <v>45463</v>
+      <c r="E41" s="22" t="s">
+        <v>214</v>
       </c>
-      <c r="D41" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="E41" s="22"/>
       <c r="F41" s="22"/>
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
@@ -31992,16 +31945,16 @@
       <c r="Y41" s="25"/>
       <c r="Z41" s="25"/>
     </row>
-    <row r="42" spans="1:26" s="101" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="22">
-        <v>39</v>
-      </c>
+    <row r="42" spans="1:26" s="98" customFormat="1" ht="15" customHeight="1">
+      <c r="A42" s="22"/>
       <c r="B42" s="22"/>
       <c r="C42" s="23"/>
       <c r="D42" s="24" t="s">
-        <v>129</v>
+        <v>326</v>
       </c>
-      <c r="E42" s="22"/>
+      <c r="E42" s="22" t="s">
+        <v>321</v>
+      </c>
       <c r="F42" s="22"/>
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
@@ -32024,17 +31977,19 @@
       <c r="Y42" s="25"/>
       <c r="Z42" s="25"/>
     </row>
-    <row r="43" spans="1:26" s="101" customFormat="1" ht="15.75" customHeight="1">
+    <row r="43" spans="1:26" ht="15" customHeight="1">
       <c r="A43" s="22">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
+      <c r="C43" s="23">
+        <v>45461</v>
+      </c>
       <c r="D43" s="24" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="25"/>
@@ -32060,16 +32015,15 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="22">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B44" s="22"/>
-      <c r="C44" s="23">
-        <v>45464</v>
+      <c r="D44" s="24" t="s">
+        <v>119</v>
       </c>
-      <c r="D44" s="24" t="s">
-        <v>122</v>
+      <c r="E44" s="22" t="s">
+        <v>202</v>
       </c>
-      <c r="E44" s="22"/>
       <c r="F44" s="22"/>
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
@@ -32093,11 +32047,19 @@
       <c r="Z44" s="25"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A45" s="22"/>
+      <c r="A45" s="22">
+        <v>19</v>
+      </c>
       <c r="B45" s="22"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="22"/>
+      <c r="C45" s="23">
+        <v>45462</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>202</v>
+      </c>
       <c r="F45" s="22"/>
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
@@ -32121,11 +32083,19 @@
       <c r="Z45" s="25"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A46" s="22"/>
+      <c r="A46" s="22">
+        <v>20</v>
+      </c>
       <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="22"/>
+      <c r="C46" s="23">
+        <v>45463</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>202</v>
+      </c>
       <c r="F46" s="22"/>
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
@@ -32148,12 +32118,16 @@
       <c r="Y46" s="25"/>
       <c r="Z46" s="25"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1">
+    <row r="47" spans="1:26" s="98" customFormat="1" ht="15.75" customHeight="1">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="22"/>
+      <c r="D47" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>202</v>
+      </c>
       <c r="F47" s="22"/>
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
@@ -32176,12 +32150,16 @@
       <c r="Y47" s="25"/>
       <c r="Z47" s="25"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1">
+    <row r="48" spans="1:26" s="98" customFormat="1" ht="15.75" customHeight="1">
       <c r="A48" s="22"/>
       <c r="B48" s="22"/>
       <c r="C48" s="23"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="22"/>
+      <c r="D48" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>135</v>
+      </c>
       <c r="F48" s="22"/>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
@@ -32205,11 +32183,19 @@
       <c r="Z48" s="25"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A49" s="22"/>
+      <c r="A49" s="22">
+        <v>21</v>
+      </c>
       <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="22"/>
+      <c r="C49" s="23">
+        <v>45464</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>202</v>
+      </c>
       <c r="F49" s="22"/>
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
@@ -32233,11 +32219,17 @@
       <c r="Z49" s="25"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A50" s="22"/>
+      <c r="A50" s="22">
+        <v>22</v>
+      </c>
       <c r="B50" s="22"/>
       <c r="C50" s="23"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="22"/>
+      <c r="D50" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>214</v>
+      </c>
       <c r="F50" s="22"/>
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
@@ -32261,7 +32253,9 @@
       <c r="Z50" s="25"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A51" s="22"/>
+      <c r="A51" s="22">
+        <v>23</v>
+      </c>
       <c r="B51" s="22"/>
       <c r="C51" s="23"/>
       <c r="D51" s="24"/>
@@ -32429,12 +32423,12 @@
       <c r="Z56" s="25"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
@@ -32456,15 +32450,13 @@
       <c r="Y57" s="25"/>
       <c r="Z57" s="25"/>
     </row>
-    <row r="58" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A58" s="109" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" s="109"/>
-      <c r="C58" s="109"/>
-      <c r="D58" s="109"/>
-      <c r="E58" s="109"/>
-      <c r="F58" s="109"/>
+    <row r="58" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A58" s="22"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
@@ -32486,173 +32478,161 @@
       <c r="Y58" s="25"/>
       <c r="Z58" s="25"/>
     </row>
-    <row r="59" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A59" s="92"/>
-      <c r="B59" s="93" t="s">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="25"/>
+      <c r="T59" s="25"/>
+      <c r="U59" s="25"/>
+      <c r="V59" s="25"/>
+      <c r="W59" s="25"/>
+      <c r="X59" s="25"/>
+      <c r="Y59" s="25"/>
+      <c r="Z59" s="25"/>
+    </row>
+    <row r="60" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="25"/>
+      <c r="T60" s="25"/>
+      <c r="U60" s="25"/>
+      <c r="V60" s="25"/>
+      <c r="W60" s="25"/>
+      <c r="X60" s="25"/>
+      <c r="Y60" s="25"/>
+      <c r="Z60" s="25"/>
+    </row>
+    <row r="61" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="25"/>
+      <c r="T61" s="25"/>
+      <c r="U61" s="25"/>
+      <c r="V61" s="25"/>
+      <c r="W61" s="25"/>
+      <c r="X61" s="25"/>
+      <c r="Y61" s="25"/>
+      <c r="Z61" s="25"/>
+    </row>
+    <row r="62" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="25"/>
+      <c r="R62" s="25"/>
+      <c r="S62" s="25"/>
+      <c r="T62" s="25"/>
+      <c r="U62" s="25"/>
+      <c r="V62" s="25"/>
+      <c r="W62" s="25"/>
+      <c r="X62" s="25"/>
+      <c r="Y62" s="25"/>
+      <c r="Z62" s="25"/>
+    </row>
+    <row r="63" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A63" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" s="104"/>
+      <c r="C63" s="104"/>
+      <c r="D63" s="104"/>
+      <c r="E63" s="104"/>
+      <c r="F63" s="104"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="25"/>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="25"/>
+      <c r="R63" s="25"/>
+      <c r="S63" s="25"/>
+      <c r="T63" s="25"/>
+      <c r="U63" s="25"/>
+      <c r="V63" s="25"/>
+      <c r="W63" s="25"/>
+      <c r="X63" s="25"/>
+      <c r="Y63" s="25"/>
+      <c r="Z63" s="25"/>
+    </row>
+    <row r="64" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A64" s="89"/>
+      <c r="B64" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="94" t="s">
+      <c r="C64" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="95" t="s">
+      <c r="D64" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="92"/>
-      <c r="F59" s="92"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="15"/>
-      <c r="S59" s="15"/>
-      <c r="T59" s="15"/>
-      <c r="U59" s="15"/>
-      <c r="V59" s="15"/>
-      <c r="W59" s="15"/>
-      <c r="X59" s="15"/>
-      <c r="Y59" s="15"/>
-      <c r="Z59" s="15"/>
-    </row>
-    <row r="60" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A60" s="92"/>
-      <c r="B60" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="97">
-        <v>45413</v>
-      </c>
-      <c r="D60" s="98" t="s">
-        <v>39</v>
-      </c>
-      <c r="E60" s="92"/>
-      <c r="F60" s="92"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="15"/>
-      <c r="S60" s="15"/>
-      <c r="T60" s="15"/>
-      <c r="U60" s="15"/>
-      <c r="V60" s="15"/>
-      <c r="W60" s="15"/>
-      <c r="X60" s="15"/>
-      <c r="Y60" s="15"/>
-      <c r="Z60" s="15"/>
-    </row>
-    <row r="61" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A61" s="92"/>
-      <c r="B61" s="92"/>
-      <c r="C61" s="99"/>
-      <c r="D61" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="E61" s="92"/>
-      <c r="F61" s="92"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="15"/>
-      <c r="S61" s="15"/>
-      <c r="T61" s="15"/>
-      <c r="U61" s="15"/>
-      <c r="V61" s="15"/>
-      <c r="W61" s="15"/>
-      <c r="X61" s="15"/>
-      <c r="Y61" s="15"/>
-      <c r="Z61" s="15"/>
-    </row>
-    <row r="62" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A62" s="92"/>
-      <c r="B62" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62" s="99">
-        <v>45416</v>
-      </c>
-      <c r="D62" s="98" t="s">
-        <v>39</v>
-      </c>
-      <c r="E62" s="92"/>
-      <c r="F62" s="92"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="15"/>
-      <c r="S62" s="15"/>
-      <c r="T62" s="15"/>
-      <c r="U62" s="15"/>
-      <c r="V62" s="15"/>
-      <c r="W62" s="15"/>
-      <c r="X62" s="15"/>
-      <c r="Y62" s="15"/>
-      <c r="Z62" s="15"/>
-    </row>
-    <row r="63" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A63" s="92"/>
-      <c r="B63" s="92"/>
-      <c r="C63" s="99"/>
-      <c r="D63" s="98"/>
-      <c r="E63" s="92"/>
-      <c r="F63" s="92"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="15"/>
-      <c r="R63" s="15"/>
-      <c r="S63" s="15"/>
-      <c r="T63" s="15"/>
-      <c r="U63" s="15"/>
-      <c r="V63" s="15"/>
-      <c r="W63" s="15"/>
-      <c r="X63" s="15"/>
-      <c r="Y63" s="15"/>
-      <c r="Z63" s="15"/>
-    </row>
-    <row r="64" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A64" s="28"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
@@ -32675,12 +32655,18 @@
       <c r="Z64" s="15"/>
     </row>
     <row r="65" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
+      <c r="A65" s="89"/>
+      <c r="B65" s="93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="94">
+        <v>45413</v>
+      </c>
+      <c r="D65" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="E65" s="89"/>
+      <c r="F65" s="89"/>
       <c r="G65" s="15"/>
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
@@ -32703,12 +32689,14 @@
       <c r="Z65" s="15"/>
     </row>
     <row r="66" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A66" s="28"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
+      <c r="A66" s="89"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" s="89"/>
+      <c r="F66" s="89"/>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
@@ -32731,12 +32719,18 @@
       <c r="Z66" s="15"/>
     </row>
     <row r="67" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
+      <c r="A67" s="89"/>
+      <c r="B67" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="96">
+        <v>45416</v>
+      </c>
+      <c r="D67" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" s="89"/>
+      <c r="F67" s="89"/>
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
@@ -32759,12 +32753,12 @@
       <c r="Z67" s="15"/>
     </row>
     <row r="68" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
+      <c r="A68" s="89"/>
+      <c r="B68" s="89"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="95"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="89"/>
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
       <c r="I68" s="15"/>
@@ -59862,10 +59856,150 @@
       <c r="Y1035" s="15"/>
       <c r="Z1035" s="15"/>
     </row>
+    <row r="1036" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A1036" s="28"/>
+      <c r="B1036" s="28"/>
+      <c r="C1036" s="29"/>
+      <c r="D1036" s="15"/>
+      <c r="E1036" s="28"/>
+      <c r="F1036" s="28"/>
+      <c r="G1036" s="15"/>
+      <c r="H1036" s="15"/>
+      <c r="I1036" s="15"/>
+      <c r="J1036" s="15"/>
+      <c r="K1036" s="15"/>
+      <c r="L1036" s="15"/>
+      <c r="M1036" s="15"/>
+      <c r="N1036" s="15"/>
+      <c r="O1036" s="15"/>
+      <c r="P1036" s="15"/>
+      <c r="Q1036" s="15"/>
+      <c r="R1036" s="15"/>
+      <c r="S1036" s="15"/>
+      <c r="T1036" s="15"/>
+      <c r="U1036" s="15"/>
+      <c r="V1036" s="15"/>
+      <c r="W1036" s="15"/>
+      <c r="X1036" s="15"/>
+      <c r="Y1036" s="15"/>
+      <c r="Z1036" s="15"/>
+    </row>
+    <row r="1037" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A1037" s="28"/>
+      <c r="B1037" s="28"/>
+      <c r="C1037" s="29"/>
+      <c r="D1037" s="15"/>
+      <c r="E1037" s="28"/>
+      <c r="F1037" s="28"/>
+      <c r="G1037" s="15"/>
+      <c r="H1037" s="15"/>
+      <c r="I1037" s="15"/>
+      <c r="J1037" s="15"/>
+      <c r="K1037" s="15"/>
+      <c r="L1037" s="15"/>
+      <c r="M1037" s="15"/>
+      <c r="N1037" s="15"/>
+      <c r="O1037" s="15"/>
+      <c r="P1037" s="15"/>
+      <c r="Q1037" s="15"/>
+      <c r="R1037" s="15"/>
+      <c r="S1037" s="15"/>
+      <c r="T1037" s="15"/>
+      <c r="U1037" s="15"/>
+      <c r="V1037" s="15"/>
+      <c r="W1037" s="15"/>
+      <c r="X1037" s="15"/>
+      <c r="Y1037" s="15"/>
+      <c r="Z1037" s="15"/>
+    </row>
+    <row r="1038" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A1038" s="28"/>
+      <c r="B1038" s="28"/>
+      <c r="C1038" s="29"/>
+      <c r="D1038" s="15"/>
+      <c r="E1038" s="28"/>
+      <c r="F1038" s="28"/>
+      <c r="G1038" s="15"/>
+      <c r="H1038" s="15"/>
+      <c r="I1038" s="15"/>
+      <c r="J1038" s="15"/>
+      <c r="K1038" s="15"/>
+      <c r="L1038" s="15"/>
+      <c r="M1038" s="15"/>
+      <c r="N1038" s="15"/>
+      <c r="O1038" s="15"/>
+      <c r="P1038" s="15"/>
+      <c r="Q1038" s="15"/>
+      <c r="R1038" s="15"/>
+      <c r="S1038" s="15"/>
+      <c r="T1038" s="15"/>
+      <c r="U1038" s="15"/>
+      <c r="V1038" s="15"/>
+      <c r="W1038" s="15"/>
+      <c r="X1038" s="15"/>
+      <c r="Y1038" s="15"/>
+      <c r="Z1038" s="15"/>
+    </row>
+    <row r="1039" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A1039" s="28"/>
+      <c r="B1039" s="28"/>
+      <c r="C1039" s="29"/>
+      <c r="D1039" s="15"/>
+      <c r="E1039" s="28"/>
+      <c r="F1039" s="28"/>
+      <c r="G1039" s="15"/>
+      <c r="H1039" s="15"/>
+      <c r="I1039" s="15"/>
+      <c r="J1039" s="15"/>
+      <c r="K1039" s="15"/>
+      <c r="L1039" s="15"/>
+      <c r="M1039" s="15"/>
+      <c r="N1039" s="15"/>
+      <c r="O1039" s="15"/>
+      <c r="P1039" s="15"/>
+      <c r="Q1039" s="15"/>
+      <c r="R1039" s="15"/>
+      <c r="S1039" s="15"/>
+      <c r="T1039" s="15"/>
+      <c r="U1039" s="15"/>
+      <c r="V1039" s="15"/>
+      <c r="W1039" s="15"/>
+      <c r="X1039" s="15"/>
+      <c r="Y1039" s="15"/>
+      <c r="Z1039" s="15"/>
+    </row>
+    <row r="1040" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A1040" s="28"/>
+      <c r="B1040" s="28"/>
+      <c r="C1040" s="29"/>
+      <c r="D1040" s="15"/>
+      <c r="E1040" s="28"/>
+      <c r="F1040" s="28"/>
+      <c r="G1040" s="15"/>
+      <c r="H1040" s="15"/>
+      <c r="I1040" s="15"/>
+      <c r="J1040" s="15"/>
+      <c r="K1040" s="15"/>
+      <c r="L1040" s="15"/>
+      <c r="M1040" s="15"/>
+      <c r="N1040" s="15"/>
+      <c r="O1040" s="15"/>
+      <c r="P1040" s="15"/>
+      <c r="Q1040" s="15"/>
+      <c r="R1040" s="15"/>
+      <c r="S1040" s="15"/>
+      <c r="T1040" s="15"/>
+      <c r="U1040" s="15"/>
+      <c r="V1040" s="15"/>
+      <c r="W1040" s="15"/>
+      <c r="X1040" s="15"/>
+      <c r="Y1040" s="15"/>
+      <c r="Z1040" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A63:F63"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -59882,19 +60016,18 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
-  <dimension ref="A1:Z62"/>
+  <dimension ref="A1:Z65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L59" sqref="L59"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="36" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="36" customWidth="1"/>
     <col min="5" max="5" width="17.88671875" style="36" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" style="36" customWidth="1"/>
     <col min="7" max="7" width="15" style="36" customWidth="1"/>
@@ -59912,27 +60045,27 @@
     <col min="20" max="20" width="12" style="36" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="14.6640625" style="36" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="8.6640625" style="36" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="8.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" style="36" customWidth="1"/>
     <col min="24" max="25" width="8.88671875" style="36" customWidth="1"/>
     <col min="26" max="26" width="8" style="36" customWidth="1"/>
     <col min="27" max="16384" width="12.5546875" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
       <c r="M1" s="28"/>
       <c r="N1" s="28"/>
       <c r="O1" s="28"/>
@@ -59949,15 +60082,15 @@
       <c r="Z1" s="28"/>
     </row>
     <row r="2" spans="1:26" ht="9.75" customHeight="1">
-      <c r="A2" s="127"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
       <c r="L2" s="28"/>
@@ -59977,12 +60110,12 @@
       <c r="Z2" s="28"/>
     </row>
     <row r="3" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="130"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="37" t="s">
         <v>12</v>
       </c>
@@ -59995,12 +60128,12 @@
       <c r="H3" s="30">
         <v>45474</v>
       </c>
-      <c r="I3" s="134" t="s">
+      <c r="I3" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="130"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="130"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="111"/>
       <c r="M3" s="28"/>
       <c r="N3" s="28"/>
       <c r="O3" s="28"/>
@@ -60012,17 +60145,16 @@
       <c r="U3" s="28"/>
       <c r="V3" s="28"/>
       <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
       <c r="Y3" s="28"/>
       <c r="Z3" s="28"/>
     </row>
     <row r="4" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="130"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="37" t="s">
         <v>16</v>
       </c>
@@ -60031,12 +60163,12 @@
         <v>17</v>
       </c>
       <c r="H4" s="30"/>
-      <c r="I4" s="134" t="s">
+      <c r="I4" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="130"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="130"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="111"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
       <c r="O4" s="28"/>
@@ -60071,10 +60203,10 @@
       <c r="F5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="135" t="s">
+      <c r="G5" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="130"/>
+      <c r="H5" s="111"/>
       <c r="I5" s="33" t="s">
         <v>25</v>
       </c>
@@ -60103,10 +60235,10 @@
       <c r="Z5" s="28"/>
     </row>
     <row r="6" spans="1:26" s="64" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="138" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="59" t="s">
@@ -60121,16 +60253,16 @@
       <c r="F6" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="118" t="s">
+      <c r="G6" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="136"/>
-      <c r="I6" s="58" t="s">
+      <c r="H6" s="117"/>
+      <c r="I6" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="58"/>
+      <c r="J6" s="59"/>
       <c r="K6" s="60"/>
-      <c r="L6" s="58"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="61"/>
       <c r="N6" s="61"/>
       <c r="O6" s="61"/>
@@ -60147,12 +60279,8 @@
       <c r="Z6" s="63"/>
     </row>
     <row r="7" spans="1:26" s="64" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A7" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>88</v>
-      </c>
+      <c r="A7" s="139"/>
+      <c r="B7" s="139"/>
       <c r="C7" s="59" t="s">
         <v>32</v>
       </c>
@@ -60165,16 +60293,16 @@
       <c r="F7" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="118" t="s">
+      <c r="G7" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="119"/>
-      <c r="I7" s="58" t="s">
+      <c r="H7" s="106"/>
+      <c r="I7" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="58"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="60"/>
-      <c r="L7" s="58"/>
+      <c r="L7" s="59"/>
       <c r="M7" s="61"/>
       <c r="N7" s="61"/>
       <c r="O7" s="61"/>
@@ -60191,12 +60319,8 @@
       <c r="Z7" s="63"/>
     </row>
     <row r="8" spans="1:26" s="64" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A8" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>88</v>
-      </c>
+      <c r="A8" s="139"/>
+      <c r="B8" s="139"/>
       <c r="C8" s="59" t="s">
         <v>49</v>
       </c>
@@ -60209,16 +60333,16 @@
       <c r="F8" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="118" t="s">
+      <c r="G8" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="119"/>
-      <c r="I8" s="58" t="s">
+      <c r="H8" s="106"/>
+      <c r="I8" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="58"/>
+      <c r="J8" s="59"/>
       <c r="K8" s="60"/>
-      <c r="L8" s="58"/>
+      <c r="L8" s="59"/>
       <c r="M8" s="61"/>
       <c r="N8" s="61"/>
       <c r="O8" s="61"/>
@@ -60235,12 +60359,8 @@
       <c r="Z8" s="63"/>
     </row>
     <row r="9" spans="1:26" s="64" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A9" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>88</v>
-      </c>
+      <c r="A9" s="139"/>
+      <c r="B9" s="139"/>
       <c r="C9" s="59" t="s">
         <v>53</v>
       </c>
@@ -60253,16 +60373,16 @@
       <c r="F9" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="118" t="s">
+      <c r="G9" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="119"/>
-      <c r="I9" s="58" t="s">
+      <c r="H9" s="106"/>
+      <c r="I9" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="58"/>
+      <c r="J9" s="59"/>
       <c r="K9" s="60"/>
-      <c r="L9" s="58"/>
+      <c r="L9" s="59"/>
       <c r="M9" s="61"/>
       <c r="N9" s="61"/>
       <c r="O9" s="61"/>
@@ -60279,12 +60399,8 @@
       <c r="Z9" s="63"/>
     </row>
     <row r="10" spans="1:26" s="64" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A10" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>88</v>
-      </c>
+      <c r="A10" s="139"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="59" t="s">
         <v>43</v>
       </c>
@@ -60297,16 +60413,16 @@
       <c r="F10" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="118" t="s">
+      <c r="G10" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="119"/>
-      <c r="I10" s="58" t="s">
+      <c r="H10" s="106"/>
+      <c r="I10" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="58"/>
+      <c r="J10" s="59"/>
       <c r="K10" s="60"/>
-      <c r="L10" s="58"/>
+      <c r="L10" s="59"/>
       <c r="M10" s="61"/>
       <c r="N10" s="61"/>
       <c r="O10" s="61"/>
@@ -60323,12 +60439,8 @@
       <c r="Z10" s="63"/>
     </row>
     <row r="11" spans="1:26" s="64" customFormat="1" ht="93.75" customHeight="1">
-      <c r="A11" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>88</v>
-      </c>
+      <c r="A11" s="140"/>
+      <c r="B11" s="140"/>
       <c r="C11" s="59" t="s">
         <v>57</v>
       </c>
@@ -60341,16 +60453,16 @@
       <c r="F11" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="118" t="s">
+      <c r="G11" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="119"/>
-      <c r="I11" s="58" t="s">
+      <c r="H11" s="106"/>
+      <c r="I11" s="59" t="s">
         <v>30</v>
       </c>
       <c r="J11" s="65"/>
       <c r="K11" s="60"/>
-      <c r="L11" s="58"/>
+      <c r="L11" s="59"/>
       <c r="M11" s="61"/>
       <c r="N11" s="61"/>
       <c r="O11" s="61"/>
@@ -60366,639 +60478,603 @@
       <c r="Y11" s="63"/>
       <c r="Z11" s="63"/>
     </row>
-    <row r="12" spans="1:26" s="48" customFormat="1" ht="84" customHeight="1">
-      <c r="A12" s="41" t="s">
+    <row r="12" spans="1:26" s="46" customFormat="1" ht="84" customHeight="1">
+      <c r="A12" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="120" t="s">
+      <c r="G12" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="158"/>
-      <c r="I12" s="41" t="s">
+      <c r="H12" s="154"/>
+      <c r="I12" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="43"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-    </row>
-    <row r="13" spans="1:26" s="48" customFormat="1" ht="93" customHeight="1">
-      <c r="A13" s="144" t="s">
+      <c r="J12" s="41"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+    </row>
+    <row r="13" spans="1:26" s="46" customFormat="1" ht="93" customHeight="1">
+      <c r="A13" s="139"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="155" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="156"/>
+      <c r="I13" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="48"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+    </row>
+    <row r="14" spans="1:26" s="46" customFormat="1" ht="93" customHeight="1">
+      <c r="A14" s="139"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="155" t="s">
+        <v>188</v>
+      </c>
+      <c r="H14" s="136"/>
+      <c r="I14" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="48"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+    </row>
+    <row r="15" spans="1:26" s="46" customFormat="1" ht="93" customHeight="1">
+      <c r="A15" s="139"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="147" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="G15" s="155" t="s">
+        <v>207</v>
+      </c>
+      <c r="H15" s="136"/>
+      <c r="I15" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="48"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="51"/>
+    </row>
+    <row r="16" spans="1:26" s="46" customFormat="1" ht="93" customHeight="1">
+      <c r="A16" s="139"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" s="155" t="s">
+        <v>209</v>
+      </c>
+      <c r="H16" s="136"/>
+      <c r="I16" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="48"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="51"/>
+    </row>
+    <row r="17" spans="1:26" s="46" customFormat="1" ht="93" customHeight="1">
+      <c r="A17" s="140"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="G17" s="155" t="s">
+        <v>212</v>
+      </c>
+      <c r="H17" s="136"/>
+      <c r="I17" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="48"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="51"/>
+    </row>
+    <row r="18" spans="1:26" s="58" customFormat="1" ht="103.5" customHeight="1">
+      <c r="A18" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="41" t="s">
-        <v>89</v>
+      <c r="B18" s="145" t="s">
+        <v>90</v>
       </c>
-      <c r="C13" s="145" t="s">
-        <v>66</v>
+      <c r="C18" s="52" t="s">
+        <v>71</v>
       </c>
-      <c r="D13" s="145" t="s">
-        <v>44</v>
+      <c r="D18" s="148" t="s">
+        <v>72</v>
       </c>
-      <c r="E13" s="145" t="s">
-        <v>62</v>
+      <c r="E18" s="52" t="s">
+        <v>96</v>
       </c>
-      <c r="F13" s="145" t="s">
-        <v>67</v>
+      <c r="F18" s="52" t="s">
+        <v>73</v>
       </c>
-      <c r="G13" s="121" t="s">
-        <v>68</v>
+      <c r="G18" s="120" t="s">
+        <v>74</v>
       </c>
-      <c r="H13" s="141"/>
-      <c r="I13" s="41" t="s">
+      <c r="H18" s="121"/>
+      <c r="I18" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="146"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="147"/>
-      <c r="N13" s="147"/>
-      <c r="O13" s="147"/>
-      <c r="P13" s="147"/>
-      <c r="Q13" s="147"/>
-      <c r="R13" s="147"/>
-      <c r="S13" s="147"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="148"/>
-      <c r="V13" s="149"/>
-      <c r="W13" s="149"/>
-      <c r="X13" s="149"/>
-      <c r="Y13" s="149"/>
-      <c r="Z13" s="149"/>
-    </row>
-    <row r="14" spans="1:26" s="48" customFormat="1" ht="93" customHeight="1">
-      <c r="A14" s="144"/>
-      <c r="B14" s="41" t="s">
-        <v>89</v>
+      <c r="J18" s="53"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+    </row>
+    <row r="19" spans="1:26" s="58" customFormat="1" ht="103.5" customHeight="1">
+      <c r="A19" s="139"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="52" t="s">
+        <v>75</v>
       </c>
-      <c r="C14" s="145" t="s">
-        <v>186</v>
+      <c r="D19" s="52" t="s">
+        <v>72</v>
       </c>
-      <c r="D14" s="145" t="s">
-        <v>44</v>
+      <c r="E19" s="52" t="s">
+        <v>96</v>
       </c>
-      <c r="E14" s="145" t="s">
-        <v>62</v>
+      <c r="F19" s="52" t="s">
+        <v>76</v>
       </c>
-      <c r="F14" s="145" t="s">
-        <v>187</v>
+      <c r="G19" s="120" t="s">
+        <v>77</v>
       </c>
-      <c r="G14" s="121" t="s">
-        <v>188</v>
+      <c r="H19" s="121"/>
+      <c r="I19" s="52" t="s">
+        <v>65</v>
       </c>
-      <c r="H14" s="141"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="147"/>
-      <c r="N14" s="147"/>
-      <c r="O14" s="147"/>
-      <c r="P14" s="147"/>
-      <c r="Q14" s="147"/>
-      <c r="R14" s="147"/>
-      <c r="S14" s="147"/>
-      <c r="T14" s="147"/>
-      <c r="U14" s="148"/>
-      <c r="V14" s="149"/>
-      <c r="W14" s="149"/>
-      <c r="X14" s="149"/>
-      <c r="Y14" s="149"/>
-      <c r="Z14" s="149"/>
-    </row>
-    <row r="15" spans="1:26" s="57" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A15" s="49" t="s">
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+    </row>
+    <row r="20" spans="1:26" s="58" customFormat="1" ht="123.75" customHeight="1">
+      <c r="A20" s="140"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="120" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="121"/>
+      <c r="I20" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+    </row>
+    <row r="21" spans="1:26" s="79" customFormat="1" ht="102" customHeight="1">
+      <c r="A21" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="49" t="s">
-        <v>90</v>
+      <c r="B21" s="144" t="s">
+        <v>91</v>
       </c>
-      <c r="C15" s="50" t="s">
-        <v>71</v>
+      <c r="C21" s="73" t="s">
+        <v>79</v>
       </c>
-      <c r="D15" s="51" t="s">
-        <v>72</v>
+      <c r="D21" s="73" t="s">
+        <v>78</v>
       </c>
-      <c r="E15" s="50" t="s">
-        <v>96</v>
+      <c r="E21" s="73" t="s">
+        <v>97</v>
       </c>
-      <c r="F15" s="50" t="s">
-        <v>73</v>
+      <c r="F21" s="73" t="s">
+        <v>80</v>
       </c>
-      <c r="G15" s="123" t="s">
-        <v>74</v>
+      <c r="G21" s="124" t="s">
+        <v>81</v>
       </c>
-      <c r="H15" s="155"/>
-      <c r="I15" s="49" t="s">
+      <c r="H21" s="125"/>
+      <c r="I21" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-    </row>
-    <row r="16" spans="1:26" s="57" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A16" s="49" t="s">
+      <c r="J21" s="74"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="76"/>
+      <c r="T21" s="76"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="78"/>
+      <c r="W21" s="78"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="78"/>
+    </row>
+    <row r="22" spans="1:26" s="79" customFormat="1" ht="105.75" customHeight="1">
+      <c r="A22" s="139"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="149" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="124" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="125"/>
+      <c r="I22" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="74"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="76"/>
+      <c r="S22" s="76"/>
+      <c r="T22" s="76"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="78"/>
+      <c r="Z22" s="78"/>
+    </row>
+    <row r="23" spans="1:26" s="79" customFormat="1" ht="91.5" customHeight="1">
+      <c r="A23" s="140"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="149" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="122" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="123"/>
+      <c r="I23" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="74"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="76"/>
+      <c r="T23" s="76"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="78"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="78"/>
+      <c r="Z23" s="78"/>
+    </row>
+    <row r="24" spans="1:26" s="72" customFormat="1" ht="84" customHeight="1">
+      <c r="A24" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="49" t="s">
-        <v>90</v>
+      <c r="B24" s="143" t="s">
+        <v>99</v>
       </c>
-      <c r="C16" s="50" t="s">
-        <v>75</v>
+      <c r="C24" s="150" t="s">
+        <v>100</v>
       </c>
-      <c r="D16" s="50" t="s">
-        <v>72</v>
+      <c r="D24" s="150" t="s">
+        <v>100</v>
       </c>
-      <c r="E16" s="50" t="s">
-        <v>96</v>
+      <c r="E24" s="150" t="s">
+        <v>101</v>
       </c>
-      <c r="F16" s="50" t="s">
-        <v>76</v>
+      <c r="F24" s="150" t="s">
+        <v>102</v>
       </c>
-      <c r="G16" s="123" t="s">
-        <v>77</v>
+      <c r="G24" s="126" t="s">
+        <v>103</v>
       </c>
-      <c r="H16" s="155"/>
-      <c r="I16" s="49" t="s">
+      <c r="H24" s="127"/>
+      <c r="I24" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="J16" s="52"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-    </row>
-    <row r="17" spans="1:26" s="57" customFormat="1" ht="123.75" customHeight="1">
-      <c r="A17" s="49" t="s">
-        <v>29</v>
+      <c r="J24" s="67"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="71"/>
+      <c r="Z24" s="71"/>
+    </row>
+    <row r="25" spans="1:26" s="72" customFormat="1" ht="98.25" customHeight="1">
+      <c r="A25" s="140"/>
+      <c r="B25" s="140"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150" t="s">
+        <v>163</v>
       </c>
-      <c r="B17" s="49" t="s">
-        <v>90</v>
+      <c r="E25" s="150" t="s">
+        <v>164</v>
       </c>
-      <c r="C17" s="50" t="s">
-        <v>92</v>
+      <c r="F25" s="150" t="s">
+        <v>165</v>
       </c>
-      <c r="D17" s="50" t="s">
-        <v>93</v>
+      <c r="G25" s="126" t="s">
+        <v>166</v>
       </c>
-      <c r="E17" s="50" t="s">
-        <v>96</v>
+      <c r="H25" s="127"/>
+      <c r="I25" s="66" t="s">
+        <v>31</v>
       </c>
-      <c r="F17" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="123" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="155"/>
-      <c r="I17" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" s="52"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-    </row>
-    <row r="18" spans="1:26" s="80" customFormat="1" ht="102" customHeight="1">
-      <c r="A18" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="125" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="156"/>
-      <c r="I18" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" s="75"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="78"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="79"/>
-      <c r="Y18" s="79"/>
-      <c r="Z18" s="79"/>
-    </row>
-    <row r="19" spans="1:26" s="80" customFormat="1" ht="105.75" customHeight="1">
-      <c r="A19" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="151" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="125" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="156"/>
-      <c r="I19" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="J19" s="75"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="79"/>
-      <c r="Y19" s="79"/>
-      <c r="Z19" s="79"/>
-    </row>
-    <row r="20" spans="1:26" s="80" customFormat="1" ht="91.5" customHeight="1">
-      <c r="A20" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="151" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="74" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="124" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="157"/>
-      <c r="I20" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" s="75"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="79"/>
-      <c r="X20" s="79"/>
-      <c r="Y20" s="79"/>
-      <c r="Z20" s="79"/>
-    </row>
-    <row r="21" spans="1:26" s="72" customFormat="1" ht="84" customHeight="1">
-      <c r="A21" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="137" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="150" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="150" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="150" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="150" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="115" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="153"/>
-      <c r="I21" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21" s="67"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="71"/>
-      <c r="Z21" s="71"/>
-    </row>
-    <row r="22" spans="1:26" s="72" customFormat="1" ht="98.25" customHeight="1">
-      <c r="A22" s="66" t="s">
+      <c r="J25" s="67"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="80"/>
+      <c r="Q25" s="80"/>
+      <c r="R25" s="80"/>
+      <c r="S25" s="80"/>
+      <c r="T25" s="80"/>
+      <c r="U25" s="80"/>
+      <c r="V25" s="80"/>
+      <c r="W25" s="80"/>
+      <c r="X25" s="80"/>
+      <c r="Y25" s="80"/>
+      <c r="Z25" s="80"/>
+    </row>
+    <row r="26" spans="1:26" ht="116.25" customHeight="1">
+      <c r="A26" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150" t="s">
-        <v>163</v>
-      </c>
-      <c r="E22" s="150" t="s">
-        <v>164</v>
-      </c>
-      <c r="F22" s="150" t="s">
-        <v>165</v>
-      </c>
-      <c r="G22" s="115" t="s">
-        <v>166</v>
-      </c>
-      <c r="H22" s="153"/>
-      <c r="I22" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="J22" s="67"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="81"/>
-      <c r="V22" s="81"/>
-      <c r="W22" s="81"/>
-      <c r="X22" s="81"/>
-      <c r="Y22" s="81"/>
-      <c r="Z22" s="81"/>
-    </row>
-    <row r="23" spans="1:26" ht="116.25" customHeight="1">
-      <c r="A23" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="22" t="s">
+      <c r="B26" s="142" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C26" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D26" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="E26" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F26" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="G23" s="117" t="s">
+      <c r="G26" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="H23" s="142"/>
-      <c r="I23" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-    </row>
-    <row r="24" spans="1:26" s="104" customFormat="1" ht="116.25" customHeight="1">
-      <c r="A24" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="G24" s="117" t="s">
-        <v>146</v>
-      </c>
-      <c r="H24" s="142"/>
-      <c r="I24" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-    </row>
-    <row r="25" spans="1:26" s="104" customFormat="1" ht="116.25" customHeight="1">
-      <c r="A25" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="G25" s="117" t="s">
-        <v>150</v>
-      </c>
-      <c r="H25" s="142"/>
-      <c r="I25" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-    </row>
-    <row r="26" spans="1:26" s="104" customFormat="1" ht="116.25" customHeight="1">
-      <c r="A26" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="G26" s="117" t="s">
-        <v>154</v>
-      </c>
-      <c r="H26" s="142"/>
-      <c r="I26" s="66" t="s">
-        <v>203</v>
+      <c r="H26" s="131"/>
+      <c r="I26" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J26" s="23"/>
       <c r="K26" s="35"/>
@@ -61018,31 +61094,27 @@
       <c r="Y26" s="28"/>
       <c r="Z26" s="28"/>
     </row>
-    <row r="27" spans="1:26" s="104" customFormat="1" ht="116.25" customHeight="1">
-      <c r="A27" s="22" t="s">
-        <v>33</v>
+    <row r="27" spans="1:26" s="101" customFormat="1" ht="116.25" customHeight="1">
+      <c r="A27" s="139"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="22" t="s">
+        <v>143</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="D27" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="38" t="s">
-        <v>156</v>
+      <c r="F27" s="22" t="s">
+        <v>145</v>
       </c>
-      <c r="D27" s="38" t="s">
-        <v>155</v>
+      <c r="G27" s="130" t="s">
+        <v>146</v>
       </c>
-      <c r="E27" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="F27" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="G27" s="117" t="s">
-        <v>158</v>
-      </c>
-      <c r="H27" s="142"/>
-      <c r="I27" s="66" t="s">
-        <v>203</v>
+      <c r="H27" s="136"/>
+      <c r="I27" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J27" s="23"/>
       <c r="K27" s="35"/>
@@ -61062,31 +61134,27 @@
       <c r="Y27" s="28"/>
       <c r="Z27" s="28"/>
     </row>
-    <row r="28" spans="1:26" s="104" customFormat="1" ht="116.25" customHeight="1">
-      <c r="A28" s="22" t="s">
-        <v>33</v>
+    <row r="28" spans="1:26" s="101" customFormat="1" ht="116.25" customHeight="1">
+      <c r="A28" s="139"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="22" t="s">
+        <v>147</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="D28" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="38" t="s">
-        <v>159</v>
+      <c r="F28" s="22" t="s">
+        <v>149</v>
       </c>
-      <c r="D28" s="38" t="s">
-        <v>160</v>
+      <c r="G28" s="130" t="s">
+        <v>150</v>
       </c>
-      <c r="E28" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="F28" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="G28" s="117" t="s">
-        <v>162</v>
-      </c>
-      <c r="H28" s="142"/>
-      <c r="I28" s="66" t="s">
-        <v>203</v>
+      <c r="H28" s="137"/>
+      <c r="I28" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J28" s="23"/>
       <c r="K28" s="35"/>
@@ -61106,1568 +61174,1427 @@
       <c r="Y28" s="28"/>
       <c r="Z28" s="28"/>
     </row>
-    <row r="29" spans="1:26" s="87" customFormat="1" ht="84.75" customHeight="1">
-      <c r="A29" s="82" t="s">
+    <row r="29" spans="1:26" s="101" customFormat="1" ht="116.25" customHeight="1">
+      <c r="A29" s="139"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" s="130" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" s="136"/>
+      <c r="I29" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="23"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+    </row>
+    <row r="30" spans="1:26" s="101" customFormat="1" ht="116.25" customHeight="1">
+      <c r="A30" s="139"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30" s="130" t="s">
+        <v>158</v>
+      </c>
+      <c r="H30" s="136"/>
+      <c r="I30" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="23"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+    </row>
+    <row r="31" spans="1:26" s="101" customFormat="1" ht="116.25" customHeight="1">
+      <c r="A31" s="140"/>
+      <c r="B31" s="140"/>
+      <c r="C31" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="G31" s="130" t="s">
+        <v>162</v>
+      </c>
+      <c r="H31" s="136"/>
+      <c r="I31" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="23"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+    </row>
+    <row r="32" spans="1:26" s="85" customFormat="1" ht="84.75" customHeight="1">
+      <c r="A32" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="82" t="s">
+      <c r="B32" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="C29" s="83" t="s">
+      <c r="C32" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="D29" s="83" t="s">
+      <c r="D32" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="E29" s="83" t="s">
+      <c r="E32" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="F29" s="83" t="s">
+      <c r="F32" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="G29" s="116" t="s">
+      <c r="G32" s="128" t="s">
         <v>171</v>
       </c>
-      <c r="H29" s="154"/>
-      <c r="I29" s="66" t="s">
-        <v>203</v>
+      <c r="H32" s="129"/>
+      <c r="I32" s="81" t="s">
+        <v>30</v>
       </c>
-      <c r="J29" s="84"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="86"/>
-      <c r="V29" s="86"/>
-      <c r="W29" s="86"/>
-      <c r="X29" s="86"/>
-      <c r="Y29" s="86"/>
-      <c r="Z29" s="86"/>
-    </row>
-    <row r="30" spans="1:26" s="87" customFormat="1" ht="90" customHeight="1">
-      <c r="A30" s="82" t="s">
-        <v>29</v>
+      <c r="J32" s="82"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="84"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="84"/>
+      <c r="S32" s="84"/>
+      <c r="T32" s="84"/>
+      <c r="U32" s="84"/>
+      <c r="V32" s="84"/>
+      <c r="W32" s="84"/>
+      <c r="X32" s="84"/>
+      <c r="Y32" s="84"/>
+      <c r="Z32" s="84"/>
+    </row>
+    <row r="33" spans="1:26" s="85" customFormat="1" ht="90" customHeight="1">
+      <c r="A33" s="139"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="151" t="s">
+        <v>143</v>
       </c>
-      <c r="B30" s="82" t="s">
+      <c r="D33" s="151" t="s">
+        <v>172</v>
+      </c>
+      <c r="E33" s="151" t="s">
         <v>167</v>
       </c>
-      <c r="C30" s="152" t="s">
+      <c r="F33" s="151" t="s">
+        <v>173</v>
+      </c>
+      <c r="G33" s="132" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33" s="133"/>
+      <c r="I33" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" s="82"/>
+      <c r="K33" s="83"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="84"/>
+      <c r="S33" s="84"/>
+      <c r="T33" s="84"/>
+      <c r="U33" s="84"/>
+      <c r="V33" s="84"/>
+      <c r="W33" s="84"/>
+      <c r="X33" s="84"/>
+      <c r="Y33" s="84"/>
+      <c r="Z33" s="84"/>
+    </row>
+    <row r="34" spans="1:26" s="85" customFormat="1" ht="87" customHeight="1">
+      <c r="A34" s="139"/>
+      <c r="B34" s="139"/>
+      <c r="C34" s="151" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="152" t="s">
-        <v>172</v>
+      <c r="D34" s="151" t="s">
+        <v>175</v>
       </c>
-      <c r="E30" s="152" t="s">
+      <c r="E34" s="151" t="s">
         <v>167</v>
       </c>
-      <c r="F30" s="152" t="s">
-        <v>173</v>
+      <c r="F34" s="151" t="s">
+        <v>176</v>
       </c>
-      <c r="G30" s="110" t="s">
-        <v>174</v>
+      <c r="G34" s="132" t="s">
+        <v>177</v>
       </c>
-      <c r="H30" s="143"/>
-      <c r="I30" s="66" t="s">
-        <v>203</v>
+      <c r="H34" s="133"/>
+      <c r="I34" s="81" t="s">
+        <v>30</v>
       </c>
-      <c r="J30" s="84"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="86"/>
-      <c r="O30" s="86"/>
-      <c r="P30" s="86"/>
-      <c r="Q30" s="86"/>
-      <c r="R30" s="86"/>
-      <c r="S30" s="86"/>
-      <c r="T30" s="86"/>
-      <c r="U30" s="86"/>
-      <c r="V30" s="86"/>
-      <c r="W30" s="86"/>
-      <c r="X30" s="86"/>
-      <c r="Y30" s="86"/>
-      <c r="Z30" s="86"/>
-    </row>
-    <row r="31" spans="1:26" s="87" customFormat="1" ht="87" customHeight="1">
-      <c r="A31" s="82" t="s">
-        <v>29</v>
+      <c r="J34" s="82"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="84"/>
+      <c r="R34" s="84"/>
+      <c r="S34" s="84"/>
+      <c r="T34" s="84"/>
+      <c r="U34" s="84"/>
+      <c r="V34" s="84"/>
+      <c r="W34" s="84"/>
+      <c r="X34" s="84"/>
+      <c r="Y34" s="84"/>
+      <c r="Z34" s="84"/>
+    </row>
+    <row r="35" spans="1:26" s="85" customFormat="1" ht="89.25" customHeight="1">
+      <c r="A35" s="139"/>
+      <c r="B35" s="139"/>
+      <c r="C35" s="151" t="s">
+        <v>143</v>
       </c>
-      <c r="B31" s="82" t="s">
+      <c r="D35" s="151" t="s">
+        <v>178</v>
+      </c>
+      <c r="E35" s="151" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="152" t="s">
+      <c r="F35" s="151" t="s">
+        <v>179</v>
+      </c>
+      <c r="G35" s="132" t="s">
+        <v>180</v>
+      </c>
+      <c r="H35" s="133"/>
+      <c r="I35" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="82"/>
+      <c r="K35" s="83"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="84"/>
+      <c r="R35" s="84"/>
+      <c r="S35" s="84"/>
+      <c r="T35" s="84"/>
+      <c r="U35" s="84"/>
+      <c r="V35" s="84"/>
+      <c r="W35" s="84"/>
+      <c r="X35" s="84"/>
+      <c r="Y35" s="84"/>
+      <c r="Z35" s="84"/>
+    </row>
+    <row r="36" spans="1:26" s="85" customFormat="1" ht="81" customHeight="1">
+      <c r="A36" s="139"/>
+      <c r="B36" s="139"/>
+      <c r="C36" s="151" t="s">
         <v>143</v>
       </c>
-      <c r="D31" s="152" t="s">
-        <v>175</v>
+      <c r="D36" s="151" t="s">
+        <v>181</v>
       </c>
-      <c r="E31" s="152" t="s">
+      <c r="E36" s="151" t="s">
         <v>167</v>
       </c>
-      <c r="F31" s="152" t="s">
-        <v>176</v>
+      <c r="F36" s="151" t="s">
+        <v>182</v>
       </c>
-      <c r="G31" s="110" t="s">
-        <v>177</v>
+      <c r="G36" s="132" t="s">
+        <v>183</v>
       </c>
-      <c r="H31" s="143"/>
-      <c r="I31" s="66" t="s">
-        <v>203</v>
+      <c r="H36" s="133"/>
+      <c r="I36" s="81" t="s">
+        <v>30</v>
       </c>
-      <c r="J31" s="84"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="86"/>
-      <c r="N31" s="86"/>
-      <c r="O31" s="86"/>
-      <c r="P31" s="86"/>
-      <c r="Q31" s="86"/>
-      <c r="R31" s="86"/>
-      <c r="S31" s="86"/>
-      <c r="T31" s="86"/>
-      <c r="U31" s="86"/>
-      <c r="V31" s="86"/>
-      <c r="W31" s="86"/>
-      <c r="X31" s="86"/>
-      <c r="Y31" s="86"/>
-      <c r="Z31" s="86"/>
-    </row>
-    <row r="32" spans="1:26" s="87" customFormat="1" ht="89.25" customHeight="1">
-      <c r="A32" s="82" t="s">
-        <v>29</v>
+      <c r="J36" s="82"/>
+      <c r="K36" s="83"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="84"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="84"/>
+      <c r="Q36" s="84"/>
+      <c r="R36" s="84"/>
+      <c r="S36" s="84"/>
+      <c r="T36" s="84"/>
+      <c r="U36" s="84"/>
+      <c r="V36" s="84"/>
+      <c r="W36" s="84"/>
+      <c r="X36" s="84"/>
+      <c r="Y36" s="84"/>
+      <c r="Z36" s="84"/>
+    </row>
+    <row r="37" spans="1:26" s="85" customFormat="1" ht="75" customHeight="1">
+      <c r="A37" s="140"/>
+      <c r="B37" s="140"/>
+      <c r="C37" s="151" t="s">
+        <v>143</v>
       </c>
-      <c r="B32" s="82" t="s">
+      <c r="D37" s="151" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="151" t="s">
         <v>167</v>
       </c>
-      <c r="C32" s="152" t="s">
-        <v>143</v>
-      </c>
-      <c r="D32" s="152" t="s">
-        <v>178</v>
-      </c>
-      <c r="E32" s="152" t="s">
-        <v>167</v>
-      </c>
-      <c r="F32" s="152" t="s">
-        <v>179</v>
-      </c>
-      <c r="G32" s="110" t="s">
-        <v>180</v>
-      </c>
-      <c r="H32" s="143"/>
-      <c r="I32" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="J32" s="84"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="86"/>
-      <c r="P32" s="86"/>
-      <c r="Q32" s="86"/>
-      <c r="R32" s="86"/>
-      <c r="S32" s="86"/>
-      <c r="T32" s="86"/>
-      <c r="U32" s="86"/>
-      <c r="V32" s="86"/>
-      <c r="W32" s="86"/>
-      <c r="X32" s="86"/>
-      <c r="Y32" s="86"/>
-      <c r="Z32" s="86"/>
-    </row>
-    <row r="33" spans="1:26" s="87" customFormat="1" ht="81" customHeight="1">
-      <c r="A33" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="82" t="s">
-        <v>167</v>
-      </c>
-      <c r="C33" s="88" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33" s="88" t="s">
-        <v>181</v>
-      </c>
-      <c r="E33" s="88" t="s">
-        <v>167</v>
-      </c>
-      <c r="F33" s="88" t="s">
-        <v>182</v>
-      </c>
-      <c r="G33" s="110" t="s">
-        <v>183</v>
-      </c>
-      <c r="H33" s="111"/>
-      <c r="I33" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="J33" s="84"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="86"/>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="86"/>
-      <c r="R33" s="86"/>
-      <c r="S33" s="86"/>
-      <c r="T33" s="86"/>
-      <c r="U33" s="86"/>
-      <c r="V33" s="86"/>
-      <c r="W33" s="86"/>
-      <c r="X33" s="86"/>
-      <c r="Y33" s="86"/>
-      <c r="Z33" s="86"/>
-    </row>
-    <row r="34" spans="1:26" s="87" customFormat="1" ht="75" customHeight="1">
-      <c r="A34" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="82" t="s">
-        <v>167</v>
-      </c>
-      <c r="C34" s="88" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="E34" s="88" t="s">
-        <v>167</v>
-      </c>
-      <c r="F34" s="88" t="s">
+      <c r="F37" s="151" t="s">
         <v>184</v>
       </c>
-      <c r="G34" s="110" t="s">
+      <c r="G37" s="132" t="s">
         <v>185</v>
       </c>
-      <c r="H34" s="111"/>
-      <c r="I34" s="66" t="s">
-        <v>203</v>
+      <c r="H37" s="133"/>
+      <c r="I37" s="81" t="s">
+        <v>30</v>
       </c>
-      <c r="J34" s="84"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="86"/>
-      <c r="N34" s="86"/>
-      <c r="O34" s="86"/>
-      <c r="P34" s="86"/>
-      <c r="Q34" s="86"/>
-      <c r="R34" s="86"/>
-      <c r="S34" s="86"/>
-      <c r="T34" s="86"/>
-      <c r="U34" s="86"/>
-      <c r="V34" s="86"/>
-      <c r="W34" s="86"/>
-      <c r="X34" s="86"/>
-      <c r="Y34" s="86"/>
-      <c r="Z34" s="86"/>
-    </row>
-    <row r="35" spans="1:26" s="64" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A35" s="58" t="s">
+      <c r="J37" s="82"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="84"/>
+      <c r="N37" s="84"/>
+      <c r="O37" s="84"/>
+      <c r="P37" s="84"/>
+      <c r="Q37" s="84"/>
+      <c r="R37" s="84"/>
+      <c r="S37" s="84"/>
+      <c r="T37" s="84"/>
+      <c r="U37" s="84"/>
+      <c r="V37" s="84"/>
+      <c r="W37" s="84"/>
+      <c r="X37" s="84"/>
+      <c r="Y37" s="84"/>
+      <c r="Z37" s="84"/>
+    </row>
+    <row r="38" spans="1:26" s="64" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A38" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="58" t="s">
+      <c r="B38" s="138" t="s">
         <v>189</v>
       </c>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89" t="s">
+      <c r="C38" s="152"/>
+      <c r="D38" s="152" t="s">
         <v>190</v>
       </c>
-      <c r="E35" s="89" t="s">
+      <c r="E38" s="152" t="s">
         <v>189</v>
       </c>
-      <c r="F35" s="89" t="s">
+      <c r="F38" s="152" t="s">
         <v>191</v>
       </c>
-      <c r="G35" s="112" t="s">
+      <c r="G38" s="134" t="s">
         <v>192</v>
       </c>
-      <c r="H35" s="113"/>
-      <c r="I35" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="J35" s="65"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="90"/>
-      <c r="N35" s="90"/>
-      <c r="O35" s="90"/>
-      <c r="P35" s="90"/>
-      <c r="Q35" s="90"/>
-      <c r="R35" s="90"/>
-      <c r="S35" s="90"/>
-      <c r="T35" s="90"/>
-      <c r="U35" s="90"/>
-      <c r="V35" s="90"/>
-      <c r="W35" s="90"/>
-      <c r="X35" s="90"/>
-      <c r="Y35" s="90"/>
-      <c r="Z35" s="90"/>
-    </row>
-    <row r="36" spans="1:26" s="64" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A36" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="C36" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="D36" s="89" t="s">
-        <v>140</v>
-      </c>
-      <c r="E36" s="89" t="s">
-        <v>189</v>
-      </c>
-      <c r="F36" s="89" t="s">
-        <v>194</v>
-      </c>
-      <c r="G36" s="112" t="s">
-        <v>195</v>
-      </c>
-      <c r="H36" s="113"/>
-      <c r="I36" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="J36" s="65"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="90"/>
-      <c r="N36" s="90"/>
-      <c r="O36" s="90"/>
-      <c r="P36" s="90"/>
-      <c r="Q36" s="90"/>
-      <c r="R36" s="90"/>
-      <c r="S36" s="90"/>
-      <c r="T36" s="90"/>
-      <c r="U36" s="90"/>
-      <c r="V36" s="90"/>
-      <c r="W36" s="90"/>
-      <c r="X36" s="90"/>
-      <c r="Y36" s="90"/>
-      <c r="Z36" s="90"/>
-    </row>
-    <row r="37" spans="1:26" s="64" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A37" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="C37" s="89" t="s">
-        <v>196</v>
-      </c>
-      <c r="D37" s="89" t="s">
-        <v>140</v>
-      </c>
-      <c r="E37" s="89" t="s">
-        <v>189</v>
-      </c>
-      <c r="F37" s="89" t="s">
-        <v>197</v>
-      </c>
-      <c r="G37" s="102" t="s">
-        <v>198</v>
-      </c>
-      <c r="H37" s="103"/>
-      <c r="I37" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="J37" s="65"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="90"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="90"/>
-      <c r="P37" s="90"/>
-      <c r="Q37" s="90"/>
-      <c r="R37" s="90"/>
-      <c r="S37" s="90"/>
-      <c r="T37" s="90"/>
-      <c r="U37" s="90"/>
-      <c r="V37" s="90"/>
-      <c r="W37" s="90"/>
-      <c r="X37" s="90"/>
-      <c r="Y37" s="90"/>
-      <c r="Z37" s="90"/>
-    </row>
-    <row r="38" spans="1:26" s="64" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A38" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="C38" s="89" t="s">
-        <v>199</v>
-      </c>
-      <c r="D38" s="89" t="s">
-        <v>140</v>
-      </c>
-      <c r="E38" s="89" t="s">
-        <v>189</v>
-      </c>
-      <c r="F38" s="89" t="s">
-        <v>200</v>
-      </c>
-      <c r="G38" s="112" t="s">
-        <v>201</v>
-      </c>
-      <c r="H38" s="114"/>
-      <c r="I38" s="66" t="s">
-        <v>203</v>
+      <c r="H38" s="135"/>
+      <c r="I38" s="59" t="s">
+        <v>30</v>
       </c>
       <c r="J38" s="65"/>
       <c r="K38" s="60"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="90"/>
-      <c r="N38" s="90"/>
-      <c r="O38" s="90"/>
-      <c r="P38" s="90"/>
-      <c r="Q38" s="90"/>
-      <c r="R38" s="90"/>
-      <c r="S38" s="90"/>
-      <c r="T38" s="90"/>
-      <c r="U38" s="90"/>
-      <c r="V38" s="90"/>
-      <c r="W38" s="90"/>
-      <c r="X38" s="90"/>
-      <c r="Y38" s="90"/>
-      <c r="Z38" s="90"/>
-    </row>
-    <row r="39" spans="1:26" s="91" customFormat="1" ht="142.5" customHeight="1">
-      <c r="A39" s="160" t="s">
+      <c r="L38" s="59"/>
+      <c r="M38" s="86"/>
+      <c r="N38" s="86"/>
+      <c r="O38" s="86"/>
+      <c r="P38" s="86"/>
+      <c r="Q38" s="86"/>
+      <c r="R38" s="86"/>
+      <c r="S38" s="86"/>
+      <c r="T38" s="86"/>
+      <c r="U38" s="86"/>
+      <c r="V38" s="86"/>
+      <c r="W38" s="86"/>
+      <c r="X38" s="86"/>
+      <c r="Y38" s="86"/>
+      <c r="Z38" s="86"/>
+    </row>
+    <row r="39" spans="1:26" s="64" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A39" s="139"/>
+      <c r="B39" s="139"/>
+      <c r="C39" s="152" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="152" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="152" t="s">
+        <v>189</v>
+      </c>
+      <c r="F39" s="152" t="s">
+        <v>194</v>
+      </c>
+      <c r="G39" s="134" t="s">
+        <v>195</v>
+      </c>
+      <c r="H39" s="135"/>
+      <c r="I39" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39" s="65"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="86"/>
+      <c r="N39" s="86"/>
+      <c r="O39" s="86"/>
+      <c r="P39" s="86"/>
+      <c r="Q39" s="86"/>
+      <c r="R39" s="86"/>
+      <c r="S39" s="86"/>
+      <c r="T39" s="86"/>
+      <c r="U39" s="86"/>
+      <c r="V39" s="86"/>
+      <c r="W39" s="86"/>
+      <c r="X39" s="86"/>
+      <c r="Y39" s="86"/>
+      <c r="Z39" s="86"/>
+    </row>
+    <row r="40" spans="1:26" s="64" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A40" s="139"/>
+      <c r="B40" s="139"/>
+      <c r="C40" s="152" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40" s="152" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" s="152" t="s">
+        <v>189</v>
+      </c>
+      <c r="F40" s="152" t="s">
+        <v>197</v>
+      </c>
+      <c r="G40" s="99" t="s">
+        <v>198</v>
+      </c>
+      <c r="H40" s="100"/>
+      <c r="I40" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" s="65"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="86"/>
+      <c r="N40" s="86"/>
+      <c r="O40" s="86"/>
+      <c r="P40" s="86"/>
+      <c r="Q40" s="86"/>
+      <c r="R40" s="86"/>
+      <c r="S40" s="86"/>
+      <c r="T40" s="86"/>
+      <c r="U40" s="86"/>
+      <c r="V40" s="86"/>
+      <c r="W40" s="86"/>
+      <c r="X40" s="86"/>
+      <c r="Y40" s="86"/>
+      <c r="Z40" s="86"/>
+    </row>
+    <row r="41" spans="1:26" s="64" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A41" s="140"/>
+      <c r="B41" s="140"/>
+      <c r="C41" s="152" t="s">
+        <v>199</v>
+      </c>
+      <c r="D41" s="152" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" s="152" t="s">
+        <v>189</v>
+      </c>
+      <c r="F41" s="152" t="s">
+        <v>200</v>
+      </c>
+      <c r="G41" s="134" t="s">
+        <v>201</v>
+      </c>
+      <c r="H41" s="136"/>
+      <c r="I41" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" s="65"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="86"/>
+      <c r="N41" s="86"/>
+      <c r="O41" s="86"/>
+      <c r="P41" s="86"/>
+      <c r="Q41" s="86"/>
+      <c r="R41" s="86"/>
+      <c r="S41" s="86"/>
+      <c r="T41" s="86"/>
+      <c r="U41" s="86"/>
+      <c r="V41" s="86"/>
+      <c r="W41" s="86"/>
+      <c r="X41" s="86"/>
+      <c r="Y41" s="86"/>
+      <c r="Z41" s="86"/>
+    </row>
+    <row r="42" spans="1:26" s="88" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A42" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="160" t="s">
-        <v>202</v>
+      <c r="B42" s="147" t="s">
+        <v>221</v>
       </c>
-      <c r="C39" s="161" t="s">
+      <c r="C42" s="159" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" s="159" t="s">
+        <v>222</v>
+      </c>
+      <c r="E42" s="159" t="s">
+        <v>221</v>
+      </c>
+      <c r="F42" s="159" t="s">
+        <v>223</v>
+      </c>
+      <c r="G42" s="118" t="s">
+        <v>224</v>
+      </c>
+      <c r="H42" s="119"/>
+      <c r="I42" s="159" t="s">
+        <v>225</v>
+      </c>
+      <c r="J42" s="160"/>
+      <c r="K42" s="161">
+        <v>45427</v>
+      </c>
+      <c r="L42" s="159"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="87"/>
+      <c r="O42" s="87"/>
+      <c r="P42" s="87"/>
+      <c r="Q42" s="87"/>
+      <c r="R42" s="87"/>
+      <c r="S42" s="87"/>
+      <c r="T42" s="87"/>
+      <c r="U42" s="87"/>
+      <c r="V42" s="87"/>
+      <c r="W42" s="87"/>
+      <c r="X42" s="87"/>
+      <c r="Y42" s="87"/>
+      <c r="Z42" s="87"/>
+    </row>
+    <row r="43" spans="1:26" ht="147.75" customHeight="1">
+      <c r="A43" s="139"/>
+      <c r="B43" s="139"/>
+      <c r="C43" s="159" t="s">
+        <v>226</v>
+      </c>
+      <c r="D43" s="159" t="s">
+        <v>227</v>
+      </c>
+      <c r="E43" s="159" t="s">
+        <v>221</v>
+      </c>
+      <c r="F43" s="159" t="s">
+        <v>228</v>
+      </c>
+      <c r="G43" s="118" t="s">
         <v>229</v>
       </c>
-      <c r="D39" s="161" t="s">
-        <v>229</v>
+      <c r="H43" s="119"/>
+      <c r="I43" s="159" t="s">
+        <v>225</v>
       </c>
-      <c r="E39" s="161" t="s">
-        <v>202</v>
-      </c>
-      <c r="F39" s="161" t="s">
-        <v>227</v>
-      </c>
-      <c r="G39" s="121" t="s">
-        <v>228</v>
-      </c>
-      <c r="H39" s="122"/>
-      <c r="I39" s="160" t="s">
-        <v>281</v>
-      </c>
-      <c r="J39" s="162"/>
-      <c r="K39" s="163">
+      <c r="J43" s="160"/>
+      <c r="K43" s="161">
         <v>45427</v>
       </c>
-      <c r="L39" s="160"/>
-      <c r="M39" s="164"/>
-      <c r="N39" s="165"/>
-      <c r="O39" s="165"/>
-      <c r="P39" s="165"/>
-      <c r="Q39" s="165"/>
-      <c r="R39" s="165"/>
-      <c r="S39" s="164"/>
-      <c r="T39" s="164"/>
-      <c r="U39" s="164"/>
-      <c r="V39" s="166"/>
-      <c r="W39" s="166"/>
-      <c r="X39" s="166"/>
-      <c r="Y39" s="166"/>
-      <c r="Z39" s="166"/>
-    </row>
-    <row r="40" spans="1:26" s="91" customFormat="1" ht="142.5" customHeight="1">
-      <c r="A40" s="167" t="s">
+      <c r="L43" s="159"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+    </row>
+    <row r="44" spans="1:26" ht="85.5" customHeight="1">
+      <c r="A44" s="139"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="159" t="s">
+        <v>230</v>
+      </c>
+      <c r="D44" s="159" t="s">
+        <v>231</v>
+      </c>
+      <c r="E44" s="159" t="s">
+        <v>221</v>
+      </c>
+      <c r="F44" s="159" t="s">
+        <v>232</v>
+      </c>
+      <c r="G44" s="118" t="s">
+        <v>233</v>
+      </c>
+      <c r="H44" s="119"/>
+      <c r="I44" s="159" t="s">
+        <v>225</v>
+      </c>
+      <c r="J44" s="160"/>
+      <c r="K44" s="161">
+        <v>45427</v>
+      </c>
+      <c r="L44" s="159"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28"/>
+    </row>
+    <row r="45" spans="1:26" ht="57.75" customHeight="1">
+      <c r="A45" s="139"/>
+      <c r="B45" s="139"/>
+      <c r="C45" s="159" t="s">
+        <v>234</v>
+      </c>
+      <c r="D45" s="159" t="s">
+        <v>235</v>
+      </c>
+      <c r="E45" s="159" t="s">
+        <v>221</v>
+      </c>
+      <c r="F45" s="159" t="s">
+        <v>236</v>
+      </c>
+      <c r="G45" s="118" t="s">
+        <v>237</v>
+      </c>
+      <c r="H45" s="119"/>
+      <c r="I45" s="159" t="s">
+        <v>225</v>
+      </c>
+      <c r="J45" s="160"/>
+      <c r="K45" s="161">
+        <v>45427</v>
+      </c>
+      <c r="L45" s="159"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+    </row>
+    <row r="46" spans="1:26" ht="105" customHeight="1">
+      <c r="A46" s="139"/>
+      <c r="B46" s="139"/>
+      <c r="C46" s="159" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" s="159" t="s">
+        <v>239</v>
+      </c>
+      <c r="E46" s="159" t="s">
+        <v>221</v>
+      </c>
+      <c r="F46" s="159" t="s">
+        <v>240</v>
+      </c>
+      <c r="G46" s="118" t="s">
+        <v>241</v>
+      </c>
+      <c r="H46" s="119"/>
+      <c r="I46" s="159" t="s">
+        <v>225</v>
+      </c>
+      <c r="J46" s="160"/>
+      <c r="K46" s="161">
+        <v>45433</v>
+      </c>
+      <c r="L46" s="159"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+    </row>
+    <row r="47" spans="1:26" ht="148.5" customHeight="1">
+      <c r="A47" s="139"/>
+      <c r="B47" s="139"/>
+      <c r="C47" s="159" t="s">
+        <v>242</v>
+      </c>
+      <c r="D47" s="159" t="s">
+        <v>243</v>
+      </c>
+      <c r="E47" s="159" t="s">
+        <v>244</v>
+      </c>
+      <c r="F47" s="159" t="s">
+        <v>245</v>
+      </c>
+      <c r="G47" s="181" t="s">
+        <v>246</v>
+      </c>
+      <c r="H47" s="182"/>
+      <c r="I47" s="159" t="s">
+        <v>225</v>
+      </c>
+      <c r="J47" s="160"/>
+      <c r="K47" s="161">
+        <v>45434</v>
+      </c>
+      <c r="L47" s="159"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28"/>
+    </row>
+    <row r="48" spans="1:26" ht="58.5" customHeight="1">
+      <c r="A48" s="139"/>
+      <c r="B48" s="139"/>
+      <c r="C48" s="159" t="s">
+        <v>247</v>
+      </c>
+      <c r="D48" s="159" t="s">
+        <v>248</v>
+      </c>
+      <c r="E48" s="159" t="s">
+        <v>221</v>
+      </c>
+      <c r="F48" s="159" t="s">
+        <v>249</v>
+      </c>
+      <c r="G48" s="118" t="s">
+        <v>250</v>
+      </c>
+      <c r="H48" s="119"/>
+      <c r="I48" s="159" t="s">
+        <v>225</v>
+      </c>
+      <c r="J48" s="160"/>
+      <c r="K48" s="161">
+        <v>45432</v>
+      </c>
+      <c r="L48" s="159"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="28"/>
+    </row>
+    <row r="49" spans="1:26" ht="50.25" customHeight="1">
+      <c r="A49" s="139"/>
+      <c r="B49" s="139"/>
+      <c r="C49" s="159" t="s">
+        <v>247</v>
+      </c>
+      <c r="D49" s="159" t="s">
+        <v>248</v>
+      </c>
+      <c r="E49" s="159" t="s">
+        <v>221</v>
+      </c>
+      <c r="F49" s="159" t="s">
+        <v>251</v>
+      </c>
+      <c r="G49" s="118" t="s">
+        <v>252</v>
+      </c>
+      <c r="H49" s="119"/>
+      <c r="I49" s="159" t="s">
+        <v>225</v>
+      </c>
+      <c r="J49" s="160"/>
+      <c r="K49" s="161">
+        <v>45432</v>
+      </c>
+      <c r="L49" s="159"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="28"/>
+    </row>
+    <row r="50" spans="1:26" ht="54.75" customHeight="1">
+      <c r="A50" s="139"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="159" t="s">
+        <v>253</v>
+      </c>
+      <c r="D50" s="159" t="s">
+        <v>254</v>
+      </c>
+      <c r="E50" s="159" t="s">
+        <v>221</v>
+      </c>
+      <c r="F50" s="159" t="s">
+        <v>255</v>
+      </c>
+      <c r="G50" s="118" t="s">
+        <v>256</v>
+      </c>
+      <c r="H50" s="119"/>
+      <c r="I50" s="159" t="s">
+        <v>225</v>
+      </c>
+      <c r="J50" s="160"/>
+      <c r="K50" s="161">
+        <v>45432</v>
+      </c>
+      <c r="L50" s="159"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="28"/>
+    </row>
+    <row r="51" spans="1:26" ht="62.25" customHeight="1">
+      <c r="A51" s="139"/>
+      <c r="B51" s="139"/>
+      <c r="C51" s="159" t="s">
+        <v>257</v>
+      </c>
+      <c r="D51" s="159" t="s">
+        <v>258</v>
+      </c>
+      <c r="E51" s="159" t="s">
+        <v>221</v>
+      </c>
+      <c r="F51" s="159" t="s">
+        <v>259</v>
+      </c>
+      <c r="G51" s="118" t="s">
+        <v>260</v>
+      </c>
+      <c r="H51" s="158"/>
+      <c r="I51" s="159" t="s">
+        <v>225</v>
+      </c>
+      <c r="J51" s="160"/>
+      <c r="K51" s="161">
+        <v>45433</v>
+      </c>
+      <c r="L51" s="159"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="28"/>
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="28"/>
+    </row>
+    <row r="52" spans="1:26" ht="50.25" customHeight="1">
+      <c r="A52" s="140"/>
+      <c r="B52" s="140"/>
+      <c r="C52" s="159" t="s">
+        <v>261</v>
+      </c>
+      <c r="D52" s="159" t="s">
+        <v>262</v>
+      </c>
+      <c r="E52" s="159" t="s">
+        <v>221</v>
+      </c>
+      <c r="F52" s="159" t="s">
+        <v>263</v>
+      </c>
+      <c r="G52" s="118" t="s">
+        <v>264</v>
+      </c>
+      <c r="H52" s="119"/>
+      <c r="I52" s="159" t="s">
+        <v>225</v>
+      </c>
+      <c r="J52" s="160"/>
+      <c r="K52" s="161">
+        <v>45432</v>
+      </c>
+      <c r="L52" s="159"/>
+    </row>
+    <row r="53" spans="1:26" ht="69.75" customHeight="1">
+      <c r="A53" s="190" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="167" t="s">
-        <v>202</v>
+      <c r="B53" s="190" t="s">
+        <v>265</v>
       </c>
-      <c r="C40" s="168" t="s">
-        <v>231</v>
+      <c r="C53" s="171" t="s">
+        <v>266</v>
       </c>
-      <c r="D40" s="168" t="s">
-        <v>237</v>
+      <c r="D53" s="171" t="s">
+        <v>267</v>
       </c>
-      <c r="E40" s="168" t="s">
-        <v>202</v>
+      <c r="E53" s="171" t="s">
+        <v>265</v>
       </c>
-      <c r="F40" s="168" t="s">
-        <v>230</v>
+      <c r="F53" s="171" t="s">
+        <v>268</v>
       </c>
-      <c r="G40" s="121" t="s">
-        <v>232</v>
+      <c r="G53" s="179" t="s">
+        <v>269</v>
       </c>
-      <c r="H40" s="122"/>
-      <c r="I40" s="167" t="s">
-        <v>281</v>
+      <c r="H53" s="180"/>
+      <c r="I53" s="171" t="s">
+        <v>225</v>
       </c>
-      <c r="J40" s="169"/>
-      <c r="K40" s="163">
-        <v>45427</v>
+      <c r="J53" s="172"/>
+      <c r="K53" s="173">
+        <v>45433</v>
       </c>
-      <c r="L40" s="167"/>
-      <c r="M40" s="171"/>
-      <c r="N40" s="171"/>
-      <c r="O40" s="171"/>
-      <c r="P40" s="171"/>
-      <c r="Q40" s="171"/>
-      <c r="R40" s="171"/>
-      <c r="S40" s="171"/>
-      <c r="T40" s="171"/>
-      <c r="U40" s="172"/>
-      <c r="V40" s="173"/>
-      <c r="W40" s="173"/>
-      <c r="X40" s="173"/>
-      <c r="Y40" s="173"/>
-      <c r="Z40" s="173"/>
-    </row>
-    <row r="41" spans="1:26" ht="103.5" customHeight="1">
-      <c r="A41" s="167" t="s">
+      <c r="L53" s="171"/>
+    </row>
+    <row r="54" spans="1:26" ht="66.75" customHeight="1">
+      <c r="A54" s="140"/>
+      <c r="B54" s="140"/>
+      <c r="C54" s="171" t="s">
+        <v>270</v>
+      </c>
+      <c r="D54" s="171" t="s">
+        <v>271</v>
+      </c>
+      <c r="E54" s="171" t="s">
+        <v>221</v>
+      </c>
+      <c r="F54" s="171" t="s">
+        <v>272</v>
+      </c>
+      <c r="G54" s="179" t="s">
+        <v>273</v>
+      </c>
+      <c r="H54" s="180"/>
+      <c r="I54" s="171" t="s">
+        <v>225</v>
+      </c>
+      <c r="J54" s="172"/>
+      <c r="K54" s="173">
+        <v>45437</v>
+      </c>
+      <c r="L54" s="171"/>
+    </row>
+    <row r="55" spans="1:26" ht="60.75" customHeight="1">
+      <c r="A55" s="186" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="167" t="s">
-        <v>202</v>
+      <c r="B55" s="186" t="s">
+        <v>274</v>
       </c>
-      <c r="C41" s="168" t="s">
-        <v>234</v>
+      <c r="C55" s="168" t="s">
+        <v>275</v>
       </c>
-      <c r="D41" s="168" t="s">
-        <v>204</v>
-      </c>
-      <c r="E41" s="168" t="s">
-        <v>202</v>
-      </c>
-      <c r="F41" s="168" t="s">
-        <v>233</v>
-      </c>
-      <c r="G41" s="121" t="s">
-        <v>235</v>
-      </c>
-      <c r="H41" s="122"/>
-      <c r="I41" s="167" t="s">
-        <v>281</v>
-      </c>
-      <c r="J41" s="169"/>
-      <c r="K41" s="163">
-        <v>45427</v>
-      </c>
-      <c r="L41" s="167"/>
-      <c r="M41" s="172"/>
-      <c r="N41" s="171"/>
-      <c r="O41" s="171"/>
-      <c r="P41" s="171"/>
-      <c r="Q41" s="171"/>
-      <c r="R41" s="171"/>
-      <c r="S41" s="172"/>
-      <c r="T41" s="172"/>
-      <c r="U41" s="172"/>
-      <c r="V41" s="173"/>
-      <c r="W41" s="173"/>
-      <c r="X41" s="173"/>
-      <c r="Y41" s="173"/>
-      <c r="Z41" s="173"/>
-    </row>
-    <row r="42" spans="1:26" ht="85.5" customHeight="1">
-      <c r="A42" s="167" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="167" t="s">
-        <v>202</v>
-      </c>
-      <c r="C42" s="168" t="s">
-        <v>205</v>
-      </c>
-      <c r="D42" s="168" t="s">
-        <v>236</v>
-      </c>
-      <c r="E42" s="168" t="s">
-        <v>202</v>
-      </c>
-      <c r="F42" s="168" t="s">
-        <v>238</v>
-      </c>
-      <c r="G42" s="121" t="s">
-        <v>206</v>
-      </c>
-      <c r="H42" s="122"/>
-      <c r="I42" s="167" t="s">
-        <v>281</v>
-      </c>
-      <c r="J42" s="169"/>
-      <c r="K42" s="163">
-        <v>45427</v>
-      </c>
-      <c r="L42" s="167"/>
-      <c r="M42" s="172"/>
-      <c r="N42" s="171"/>
-      <c r="O42" s="171"/>
-      <c r="P42" s="171"/>
-      <c r="Q42" s="171"/>
-      <c r="R42" s="171"/>
-      <c r="S42" s="172"/>
-      <c r="T42" s="172"/>
-      <c r="U42" s="172"/>
-      <c r="V42" s="173"/>
-      <c r="W42" s="173"/>
-      <c r="X42" s="173"/>
-      <c r="Y42" s="173"/>
-      <c r="Z42" s="173"/>
-    </row>
-    <row r="43" spans="1:26" ht="105" customHeight="1">
-      <c r="A43" s="167" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="167" t="s">
-        <v>202</v>
-      </c>
-      <c r="C43" s="168" t="s">
-        <v>241</v>
-      </c>
-      <c r="D43" s="168" t="s">
-        <v>207</v>
-      </c>
-      <c r="E43" s="168" t="s">
-        <v>202</v>
-      </c>
-      <c r="F43" s="168" t="s">
-        <v>242</v>
-      </c>
-      <c r="G43" s="121" t="s">
-        <v>243</v>
-      </c>
-      <c r="H43" s="122"/>
-      <c r="I43" s="167" t="s">
-        <v>281</v>
-      </c>
-      <c r="J43" s="169"/>
-      <c r="K43" s="170">
-        <v>45433</v>
-      </c>
-      <c r="L43" s="167"/>
-      <c r="M43" s="172"/>
-      <c r="N43" s="171"/>
-      <c r="O43" s="171"/>
-      <c r="P43" s="171"/>
-      <c r="Q43" s="171"/>
-      <c r="R43" s="171"/>
-      <c r="S43" s="172"/>
-      <c r="T43" s="172"/>
-      <c r="U43" s="172"/>
-      <c r="V43" s="173"/>
-      <c r="W43" s="173"/>
-      <c r="X43" s="173"/>
-      <c r="Y43" s="173"/>
-      <c r="Z43" s="173"/>
-    </row>
-    <row r="44" spans="1:26" s="106" customFormat="1" ht="159" customHeight="1">
-      <c r="A44" s="167" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="167" t="s">
-        <v>202</v>
-      </c>
-      <c r="C44" s="168" t="s">
-        <v>254</v>
-      </c>
-      <c r="D44" s="168" t="s">
-        <v>255</v>
-      </c>
-      <c r="E44" s="168" t="s">
-        <v>265</v>
-      </c>
-      <c r="F44" s="168" t="s">
-        <v>256</v>
-      </c>
-      <c r="G44" s="139" t="s">
-        <v>257</v>
-      </c>
-      <c r="H44" s="138"/>
-      <c r="I44" s="167" t="s">
-        <v>281</v>
-      </c>
-      <c r="J44" s="169"/>
-      <c r="K44" s="170">
-        <v>45434</v>
-      </c>
-      <c r="L44" s="167"/>
-      <c r="M44" s="171"/>
-      <c r="N44" s="171"/>
-      <c r="O44" s="171"/>
-      <c r="P44" s="171"/>
-      <c r="Q44" s="171"/>
-      <c r="R44" s="171"/>
-      <c r="S44" s="171"/>
-      <c r="T44" s="171"/>
-      <c r="U44" s="172"/>
-      <c r="V44" s="173"/>
-      <c r="W44" s="173"/>
-      <c r="X44" s="173"/>
-      <c r="Y44" s="173"/>
-      <c r="Z44" s="173"/>
-    </row>
-    <row r="45" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A45" s="167" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="167" t="s">
-        <v>202</v>
-      </c>
-      <c r="C45" s="168" t="s">
-        <v>208</v>
-      </c>
-      <c r="D45" s="168" t="s">
-        <v>240</v>
-      </c>
-      <c r="E45" s="168" t="s">
-        <v>202</v>
-      </c>
-      <c r="F45" s="168" t="s">
-        <v>239</v>
-      </c>
-      <c r="G45" s="121" t="s">
-        <v>210</v>
-      </c>
-      <c r="H45" s="122"/>
-      <c r="I45" s="167" t="s">
-        <v>281</v>
-      </c>
-      <c r="J45" s="169"/>
-      <c r="K45" s="170">
-        <v>45432</v>
-      </c>
-      <c r="L45" s="167"/>
-      <c r="M45" s="172"/>
-      <c r="N45" s="171"/>
-      <c r="O45" s="171"/>
-      <c r="P45" s="171"/>
-      <c r="Q45" s="171"/>
-      <c r="R45" s="171"/>
-      <c r="S45" s="172"/>
-      <c r="T45" s="172"/>
-      <c r="U45" s="172"/>
-      <c r="V45" s="173"/>
-      <c r="W45" s="173"/>
-      <c r="X45" s="173"/>
-      <c r="Y45" s="173"/>
-      <c r="Z45" s="173"/>
-    </row>
-    <row r="46" spans="1:26" ht="70.5" customHeight="1">
-      <c r="A46" s="167" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="167" t="s">
-        <v>202</v>
-      </c>
-      <c r="C46" s="168" t="s">
-        <v>208</v>
-      </c>
-      <c r="D46" s="168" t="s">
-        <v>209</v>
-      </c>
-      <c r="E46" s="168" t="s">
-        <v>202</v>
-      </c>
-      <c r="F46" s="168" t="s">
-        <v>244</v>
-      </c>
-      <c r="G46" s="121" t="s">
-        <v>245</v>
-      </c>
-      <c r="H46" s="122"/>
-      <c r="I46" s="167" t="s">
-        <v>281</v>
-      </c>
-      <c r="J46" s="169"/>
-      <c r="K46" s="170">
-        <v>45432</v>
-      </c>
-      <c r="L46" s="167"/>
-      <c r="M46" s="172"/>
-      <c r="N46" s="171"/>
-      <c r="O46" s="171"/>
-      <c r="P46" s="171"/>
-      <c r="Q46" s="171"/>
-      <c r="R46" s="171"/>
-      <c r="S46" s="172"/>
-      <c r="T46" s="172"/>
-      <c r="U46" s="172"/>
-      <c r="V46" s="173"/>
-      <c r="W46" s="173"/>
-      <c r="X46" s="173"/>
-      <c r="Y46" s="173"/>
-      <c r="Z46" s="173"/>
-    </row>
-    <row r="47" spans="1:26" ht="159" customHeight="1">
-      <c r="A47" s="167" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="167" t="s">
-        <v>202</v>
-      </c>
-      <c r="C47" s="168" t="s">
-        <v>211</v>
-      </c>
-      <c r="D47" s="168" t="s">
-        <v>212</v>
-      </c>
-      <c r="E47" s="168" t="s">
-        <v>202</v>
-      </c>
-      <c r="F47" s="168" t="s">
-        <v>247</v>
-      </c>
-      <c r="G47" s="121" t="s">
-        <v>246</v>
-      </c>
-      <c r="H47" s="122"/>
-      <c r="I47" s="167" t="s">
-        <v>281</v>
-      </c>
-      <c r="J47" s="169"/>
-      <c r="K47" s="170">
-        <v>45432</v>
-      </c>
-      <c r="L47" s="167"/>
-      <c r="M47" s="172"/>
-      <c r="N47" s="171"/>
-      <c r="O47" s="171"/>
-      <c r="P47" s="171"/>
-      <c r="Q47" s="171"/>
-      <c r="R47" s="171"/>
-      <c r="S47" s="172"/>
-      <c r="T47" s="172"/>
-      <c r="U47" s="172"/>
-      <c r="V47" s="173"/>
-      <c r="W47" s="173"/>
-      <c r="X47" s="173"/>
-      <c r="Y47" s="173"/>
-      <c r="Z47" s="173"/>
-    </row>
-    <row r="48" spans="1:26" s="106" customFormat="1" ht="159" customHeight="1">
-      <c r="A48" s="167" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="167" t="s">
-        <v>202</v>
-      </c>
-      <c r="C48" s="168" t="s">
-        <v>218</v>
-      </c>
-      <c r="D48" s="168" t="s">
-        <v>219</v>
-      </c>
-      <c r="E48" s="168" t="s">
-        <v>202</v>
-      </c>
-      <c r="F48" s="168" t="s">
-        <v>220</v>
-      </c>
-      <c r="G48" s="121" t="s">
-        <v>262</v>
-      </c>
-      <c r="H48" s="141"/>
-      <c r="I48" s="167" t="s">
-        <v>281</v>
-      </c>
-      <c r="J48" s="169"/>
-      <c r="K48" s="170">
-        <v>45433</v>
-      </c>
-      <c r="L48" s="167"/>
-      <c r="M48" s="174"/>
-      <c r="N48" s="174"/>
-      <c r="O48" s="174"/>
-      <c r="P48" s="174"/>
-      <c r="Q48" s="174"/>
-      <c r="R48" s="174"/>
-      <c r="S48" s="174"/>
-      <c r="T48" s="174"/>
-      <c r="U48" s="174"/>
-      <c r="V48" s="174"/>
-      <c r="W48" s="174"/>
-      <c r="X48" s="174"/>
-      <c r="Y48" s="174"/>
-      <c r="Z48" s="174"/>
-    </row>
-    <row r="49" spans="1:26" ht="159" customHeight="1">
-      <c r="A49" s="167" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="167" t="s">
-        <v>202</v>
-      </c>
-      <c r="C49" s="168" t="s">
-        <v>213</v>
-      </c>
-      <c r="D49" s="168" t="s">
-        <v>214</v>
-      </c>
-      <c r="E49" s="168" t="s">
-        <v>202</v>
-      </c>
-      <c r="F49" s="168" t="s">
-        <v>248</v>
-      </c>
-      <c r="G49" s="121" t="s">
-        <v>215</v>
-      </c>
-      <c r="H49" s="122"/>
-      <c r="I49" s="167" t="s">
-        <v>281</v>
-      </c>
-      <c r="J49" s="169"/>
-      <c r="K49" s="170">
-        <v>45432</v>
-      </c>
-      <c r="L49" s="167"/>
-      <c r="M49" s="174"/>
-      <c r="N49" s="174"/>
-      <c r="O49" s="174"/>
-      <c r="P49" s="174"/>
-      <c r="Q49" s="174"/>
-      <c r="R49" s="174"/>
-      <c r="S49" s="174"/>
-      <c r="T49" s="174"/>
-      <c r="U49" s="174"/>
-      <c r="V49" s="174"/>
-      <c r="W49" s="174"/>
-      <c r="X49" s="174"/>
-      <c r="Y49" s="174"/>
-      <c r="Z49" s="174"/>
-    </row>
-    <row r="50" spans="1:26" s="208" customFormat="1" ht="159" customHeight="1">
-      <c r="A50" s="201" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" s="201" t="s">
-        <v>264</v>
-      </c>
-      <c r="C50" s="202" t="s">
-        <v>216</v>
-      </c>
-      <c r="D50" s="202" t="s">
-        <v>217</v>
-      </c>
-      <c r="E50" s="202" t="s">
-        <v>264</v>
-      </c>
-      <c r="F50" s="202" t="s">
-        <v>252</v>
-      </c>
-      <c r="G50" s="203" t="s">
-        <v>253</v>
-      </c>
-      <c r="H50" s="204"/>
-      <c r="I50" s="201" t="s">
-        <v>203</v>
-      </c>
-      <c r="J50" s="205"/>
-      <c r="K50" s="206">
-        <v>45433</v>
-      </c>
-      <c r="L50" s="201"/>
-      <c r="M50" s="207"/>
-      <c r="N50" s="207"/>
-      <c r="O50" s="207"/>
-      <c r="P50" s="207"/>
-      <c r="Q50" s="207"/>
-      <c r="R50" s="207"/>
-      <c r="S50" s="207"/>
-      <c r="T50" s="207"/>
-      <c r="U50" s="207"/>
-      <c r="V50" s="207"/>
-      <c r="W50" s="207"/>
-      <c r="X50" s="207"/>
-      <c r="Y50" s="207"/>
-      <c r="Z50" s="207"/>
-    </row>
-    <row r="51" spans="1:26" s="208" customFormat="1" ht="159" customHeight="1">
-      <c r="A51" s="201" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" s="201" t="s">
-        <v>263</v>
-      </c>
-      <c r="C51" s="202" t="s">
-        <v>249</v>
-      </c>
-      <c r="D51" s="202" t="s">
-        <v>250</v>
-      </c>
-      <c r="E51" s="202" t="s">
-        <v>202</v>
-      </c>
-      <c r="F51" s="202" t="s">
-        <v>251</v>
-      </c>
-      <c r="G51" s="203" t="s">
-        <v>267</v>
-      </c>
-      <c r="H51" s="204"/>
-      <c r="I51" s="201" t="s">
-        <v>203</v>
-      </c>
-      <c r="J51" s="205"/>
-      <c r="K51" s="206">
-        <v>45437</v>
-      </c>
-      <c r="L51" s="201"/>
-      <c r="M51" s="207"/>
-      <c r="N51" s="207"/>
-      <c r="O51" s="207"/>
-      <c r="P51" s="207"/>
-      <c r="Q51" s="207"/>
-      <c r="R51" s="207"/>
-      <c r="S51" s="207"/>
-      <c r="T51" s="207"/>
-      <c r="U51" s="207"/>
-      <c r="V51" s="207"/>
-      <c r="W51" s="207"/>
-      <c r="X51" s="207"/>
-      <c r="Y51" s="207"/>
-      <c r="Z51" s="207"/>
-    </row>
-    <row r="52" spans="1:26" s="87" customFormat="1" ht="159" customHeight="1">
-      <c r="A52" s="191" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="191" t="s">
-        <v>268</v>
-      </c>
-      <c r="C52" s="194" t="s">
-        <v>271</v>
-      </c>
-      <c r="D52" s="194" t="s">
-        <v>272</v>
-      </c>
-      <c r="E52" s="195" t="s">
-        <v>268</v>
-      </c>
-      <c r="F52" s="194" t="s">
-        <v>269</v>
-      </c>
-      <c r="G52" s="196" t="s">
-        <v>270</v>
-      </c>
-      <c r="H52" s="197"/>
-      <c r="I52" s="191" t="s">
-        <v>281</v>
-      </c>
-      <c r="J52" s="192"/>
-      <c r="K52" s="193">
-        <v>45437</v>
-      </c>
-      <c r="L52" s="191"/>
-      <c r="M52" s="198"/>
-      <c r="N52" s="198"/>
-      <c r="O52" s="198"/>
-      <c r="P52" s="198"/>
-      <c r="Q52" s="198"/>
-      <c r="R52" s="198"/>
-      <c r="S52" s="198"/>
-      <c r="T52" s="198"/>
-      <c r="U52" s="199"/>
-      <c r="V52" s="200"/>
-      <c r="W52" s="200"/>
-      <c r="X52" s="200"/>
-      <c r="Y52" s="200"/>
-      <c r="Z52" s="200"/>
-    </row>
-    <row r="53" spans="1:26" s="87" customFormat="1" ht="159" customHeight="1">
-      <c r="A53" s="191"/>
-      <c r="B53" s="191" t="s">
-        <v>268</v>
-      </c>
-      <c r="C53" s="194" t="s">
+      <c r="D55" s="168" t="s">
         <v>276</v>
       </c>
-      <c r="D53" s="194" t="s">
-        <v>273</v>
-      </c>
-      <c r="E53" s="195" t="s">
-        <v>268</v>
-      </c>
-      <c r="F53" s="194" t="s">
+      <c r="E55" s="183" t="s">
         <v>274</v>
       </c>
-      <c r="G53" s="196" t="s">
-        <v>275</v>
-      </c>
-      <c r="H53" s="197"/>
-      <c r="I53" s="191" t="s">
-        <v>281</v>
-      </c>
-      <c r="J53" s="192"/>
-      <c r="K53" s="193"/>
-      <c r="L53" s="191"/>
-      <c r="M53" s="198"/>
-      <c r="N53" s="198"/>
-      <c r="O53" s="198"/>
-      <c r="P53" s="198"/>
-      <c r="Q53" s="198"/>
-      <c r="R53" s="198"/>
-      <c r="S53" s="198"/>
-      <c r="T53" s="198"/>
-      <c r="U53" s="199"/>
-      <c r="V53" s="200"/>
-      <c r="W53" s="200"/>
-      <c r="X53" s="200"/>
-      <c r="Y53" s="200"/>
-      <c r="Z53" s="200"/>
-    </row>
-    <row r="54" spans="1:26" s="87" customFormat="1" ht="159" customHeight="1">
-      <c r="A54" s="191"/>
-      <c r="B54" s="191" t="s">
-        <v>268</v>
-      </c>
-      <c r="C54" s="194" t="s">
-        <v>280</v>
-      </c>
-      <c r="D54" s="194" t="s">
+      <c r="F55" s="168" t="s">
         <v>277</v>
       </c>
-      <c r="E54" s="195" t="s">
-        <v>268</v>
-      </c>
-      <c r="F54" s="194" t="s">
+      <c r="G55" s="157" t="s">
         <v>278</v>
       </c>
-      <c r="G54" s="196" t="s">
-        <v>279</v>
-      </c>
-      <c r="H54" s="197"/>
-      <c r="I54" s="191" t="s">
-        <v>281</v>
-      </c>
-      <c r="J54" s="192"/>
-      <c r="K54" s="193"/>
-      <c r="L54" s="191"/>
-      <c r="M54" s="198"/>
-      <c r="N54" s="198"/>
-      <c r="O54" s="198"/>
-      <c r="P54" s="198"/>
-      <c r="Q54" s="198"/>
-      <c r="R54" s="198"/>
-      <c r="S54" s="198"/>
-      <c r="T54" s="198"/>
-      <c r="U54" s="199"/>
-      <c r="V54" s="200"/>
-      <c r="W54" s="200"/>
-      <c r="X54" s="200"/>
-      <c r="Y54" s="200"/>
-      <c r="Z54" s="200"/>
-    </row>
-    <row r="55" spans="1:26" s="106" customFormat="1" ht="159" customHeight="1">
-      <c r="A55" s="167" t="s">
-        <v>29</v>
-      </c>
-      <c r="B55" s="167" t="s">
-        <v>258</v>
-      </c>
-      <c r="C55" s="168" t="s">
-        <v>221</v>
-      </c>
-      <c r="D55" s="175" t="s">
-        <v>222</v>
-      </c>
-      <c r="E55" s="168" t="s">
-        <v>258</v>
-      </c>
-      <c r="F55" s="168" t="s">
-        <v>259</v>
-      </c>
-      <c r="G55" s="121" t="s">
-        <v>223</v>
-      </c>
-      <c r="H55" s="141"/>
-      <c r="I55" s="167" t="s">
-        <v>281</v>
+      <c r="H55" s="174"/>
+      <c r="I55" s="168" t="s">
+        <v>225</v>
       </c>
       <c r="J55" s="169"/>
       <c r="K55" s="170">
-        <v>45440</v>
+        <v>45437</v>
       </c>
-      <c r="L55" s="167"/>
-      <c r="M55" s="171"/>
-      <c r="N55" s="171"/>
-      <c r="O55" s="171"/>
-      <c r="P55" s="171"/>
-      <c r="Q55" s="171"/>
-      <c r="R55" s="171"/>
-      <c r="S55" s="171"/>
-      <c r="T55" s="171"/>
-      <c r="U55" s="172"/>
-      <c r="V55" s="173"/>
-      <c r="W55" s="173"/>
-      <c r="X55" s="173"/>
-      <c r="Y55" s="173"/>
-      <c r="Z55" s="173"/>
-    </row>
-    <row r="56" spans="1:26" s="106" customFormat="1" ht="159" customHeight="1">
-      <c r="A56" s="167" t="s">
-        <v>29</v>
+      <c r="L55" s="168"/>
+    </row>
+    <row r="56" spans="1:26" ht="75.75" customHeight="1">
+      <c r="A56" s="139"/>
+      <c r="B56" s="139"/>
+      <c r="C56" s="168" t="s">
+        <v>279</v>
       </c>
-      <c r="B56" s="167" t="s">
-        <v>258</v>
+      <c r="D56" s="168" t="s">
+        <v>280</v>
       </c>
-      <c r="C56" s="168" t="s">
+      <c r="E56" s="184"/>
+      <c r="F56" s="168" t="s">
+        <v>281</v>
+      </c>
+      <c r="G56" s="157" t="s">
         <v>282</v>
       </c>
-      <c r="D56" s="175" t="s">
-        <v>285</v>
-      </c>
-      <c r="E56" s="168" t="s">
-        <v>258</v>
-      </c>
-      <c r="F56" s="168" t="s">
-        <v>283</v>
-      </c>
-      <c r="G56" s="121" t="s">
-        <v>284</v>
-      </c>
-      <c r="H56" s="141"/>
-      <c r="I56" s="167" t="s">
-        <v>281</v>
+      <c r="H56" s="174"/>
+      <c r="I56" s="168" t="s">
+        <v>225</v>
       </c>
       <c r="J56" s="169"/>
       <c r="K56" s="170"/>
-      <c r="L56" s="167"/>
-      <c r="M56" s="171"/>
-      <c r="N56" s="171"/>
-      <c r="O56" s="171"/>
-      <c r="P56" s="171"/>
-      <c r="Q56" s="171"/>
-      <c r="R56" s="171"/>
-      <c r="S56" s="171"/>
-      <c r="T56" s="171"/>
-      <c r="U56" s="172"/>
-      <c r="V56" s="173"/>
-      <c r="W56" s="173"/>
-      <c r="X56" s="173"/>
-      <c r="Y56" s="173"/>
-      <c r="Z56" s="173"/>
-    </row>
-    <row r="57" spans="1:26" s="106" customFormat="1" ht="159" customHeight="1">
-      <c r="A57" s="167" t="s">
-        <v>29</v>
+      <c r="L56" s="168"/>
+    </row>
+    <row r="57" spans="1:26" ht="66.75" customHeight="1">
+      <c r="A57" s="140"/>
+      <c r="B57" s="140"/>
+      <c r="C57" s="168" t="s">
+        <v>283</v>
       </c>
-      <c r="B57" s="167" t="s">
-        <v>258</v>
+      <c r="D57" s="168" t="s">
+        <v>284</v>
       </c>
-      <c r="C57" s="168" t="s">
-        <v>282</v>
-      </c>
-      <c r="D57" s="175" t="s">
+      <c r="E57" s="185"/>
+      <c r="F57" s="168" t="s">
         <v>285</v>
       </c>
-      <c r="E57" s="168" t="s">
-        <v>258</v>
-      </c>
-      <c r="F57" s="168" t="s">
+      <c r="G57" s="157" t="s">
         <v>286</v>
       </c>
-      <c r="G57" s="121" t="s">
-        <v>287</v>
-      </c>
-      <c r="H57" s="141"/>
-      <c r="I57" s="167" t="s">
-        <v>281</v>
+      <c r="H57" s="174"/>
+      <c r="I57" s="168" t="s">
+        <v>225</v>
       </c>
       <c r="J57" s="169"/>
       <c r="K57" s="170"/>
-      <c r="L57" s="167"/>
-      <c r="M57" s="171"/>
-      <c r="N57" s="171"/>
-      <c r="O57" s="171"/>
-      <c r="P57" s="171"/>
-      <c r="Q57" s="171"/>
-      <c r="R57" s="171"/>
-      <c r="S57" s="171"/>
-      <c r="T57" s="171"/>
-      <c r="U57" s="172"/>
-      <c r="V57" s="173"/>
-      <c r="W57" s="173"/>
-      <c r="X57" s="173"/>
-      <c r="Y57" s="173"/>
-      <c r="Z57" s="173"/>
-    </row>
-    <row r="58" spans="1:26" s="106" customFormat="1" ht="159" customHeight="1">
-      <c r="A58" s="167" t="s">
+      <c r="L57" s="168"/>
+    </row>
+    <row r="58" spans="1:26" ht="57.75" customHeight="1">
+      <c r="A58" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="167" t="s">
-        <v>258</v>
+      <c r="B58" s="147" t="s">
+        <v>287</v>
       </c>
-      <c r="C58" s="168" t="s">
-        <v>282</v>
+      <c r="C58" s="159" t="s">
+        <v>288</v>
       </c>
-      <c r="D58" s="175" t="s">
+      <c r="D58" s="187" t="s">
+        <v>289</v>
+      </c>
+      <c r="E58" s="159" t="s">
+        <v>287</v>
+      </c>
+      <c r="F58" s="159" t="s">
         <v>290</v>
       </c>
-      <c r="E58" s="168" t="s">
-        <v>258</v>
+      <c r="G58" s="118" t="s">
+        <v>291</v>
       </c>
-      <c r="F58" s="168" t="s">
-        <v>288</v>
+      <c r="H58" s="158"/>
+      <c r="I58" s="159" t="s">
+        <v>225</v>
       </c>
-      <c r="G58" s="121" t="s">
+      <c r="J58" s="160"/>
+      <c r="K58" s="161">
+        <v>45440</v>
+      </c>
+      <c r="L58" s="159"/>
+    </row>
+    <row r="59" spans="1:26" ht="63" customHeight="1">
+      <c r="A59" s="139"/>
+      <c r="B59" s="139"/>
+      <c r="C59" s="159" t="s">
         <v>292</v>
       </c>
-      <c r="H58" s="141"/>
-      <c r="I58" s="167" t="s">
-        <v>281</v>
+      <c r="D59" s="187" t="s">
+        <v>293</v>
       </c>
-      <c r="J58" s="169"/>
-      <c r="K58" s="170"/>
-      <c r="L58" s="167"/>
-      <c r="M58" s="171"/>
-      <c r="N58" s="171"/>
-      <c r="O58" s="171"/>
-      <c r="P58" s="171"/>
-      <c r="Q58" s="171"/>
-      <c r="R58" s="171"/>
-      <c r="S58" s="171"/>
-      <c r="T58" s="171"/>
-      <c r="U58" s="172"/>
-      <c r="V58" s="173"/>
-      <c r="W58" s="173"/>
-      <c r="X58" s="173"/>
-      <c r="Y58" s="173"/>
-      <c r="Z58" s="173"/>
-    </row>
-    <row r="59" spans="1:26" s="106" customFormat="1" ht="159" customHeight="1">
-      <c r="A59" s="167" t="s">
+      <c r="E59" s="159" t="s">
+        <v>287</v>
+      </c>
+      <c r="F59" s="159" t="s">
+        <v>294</v>
+      </c>
+      <c r="G59" s="118" t="s">
+        <v>295</v>
+      </c>
+      <c r="H59" s="158"/>
+      <c r="I59" s="159" t="s">
+        <v>225</v>
+      </c>
+      <c r="J59" s="160"/>
+      <c r="K59" s="161"/>
+      <c r="L59" s="159"/>
+    </row>
+    <row r="60" spans="1:26" ht="62.25" customHeight="1">
+      <c r="A60" s="139"/>
+      <c r="B60" s="139"/>
+      <c r="C60" s="159" t="s">
+        <v>292</v>
+      </c>
+      <c r="D60" s="187" t="s">
+        <v>293</v>
+      </c>
+      <c r="E60" s="159" t="s">
+        <v>287</v>
+      </c>
+      <c r="F60" s="159" t="s">
+        <v>296</v>
+      </c>
+      <c r="G60" s="118" t="s">
+        <v>297</v>
+      </c>
+      <c r="H60" s="158"/>
+      <c r="I60" s="159" t="s">
+        <v>225</v>
+      </c>
+      <c r="J60" s="160"/>
+      <c r="K60" s="161"/>
+      <c r="L60" s="159"/>
+    </row>
+    <row r="61" spans="1:26" ht="53.25" customHeight="1">
+      <c r="A61" s="139"/>
+      <c r="B61" s="139"/>
+      <c r="C61" s="159" t="s">
+        <v>292</v>
+      </c>
+      <c r="D61" s="187" t="s">
+        <v>298</v>
+      </c>
+      <c r="E61" s="159" t="s">
+        <v>287</v>
+      </c>
+      <c r="F61" s="159" t="s">
+        <v>299</v>
+      </c>
+      <c r="G61" s="118" t="s">
+        <v>300</v>
+      </c>
+      <c r="H61" s="158"/>
+      <c r="I61" s="159" t="s">
+        <v>225</v>
+      </c>
+      <c r="J61" s="160"/>
+      <c r="K61" s="161"/>
+      <c r="L61" s="159"/>
+    </row>
+    <row r="62" spans="1:26" ht="67.5" customHeight="1">
+      <c r="A62" s="140"/>
+      <c r="B62" s="140"/>
+      <c r="C62" s="159" t="s">
+        <v>301</v>
+      </c>
+      <c r="D62" s="187" t="s">
+        <v>302</v>
+      </c>
+      <c r="E62" s="159" t="s">
+        <v>287</v>
+      </c>
+      <c r="F62" s="159" t="s">
+        <v>303</v>
+      </c>
+      <c r="G62" s="118" t="s">
+        <v>304</v>
+      </c>
+      <c r="H62" s="158"/>
+      <c r="I62" s="159" t="s">
+        <v>225</v>
+      </c>
+      <c r="J62" s="160"/>
+      <c r="K62" s="161"/>
+      <c r="L62" s="159"/>
+    </row>
+    <row r="63" spans="1:26" ht="93.75" customHeight="1">
+      <c r="A63" s="165"/>
+      <c r="B63" s="191" t="s">
+        <v>305</v>
+      </c>
+      <c r="C63" s="165" t="s">
+        <v>306</v>
+      </c>
+      <c r="D63" s="188" t="s">
+        <v>307</v>
+      </c>
+      <c r="E63" s="165" t="s">
+        <v>305</v>
+      </c>
+      <c r="F63" s="165" t="s">
+        <v>308</v>
+      </c>
+      <c r="G63" s="175" t="s">
+        <v>309</v>
+      </c>
+      <c r="H63" s="176"/>
+      <c r="I63" s="165" t="s">
+        <v>225</v>
+      </c>
+      <c r="J63" s="166"/>
+      <c r="K63" s="167"/>
+      <c r="L63" s="165"/>
+    </row>
+    <row r="64" spans="1:26" ht="117.75" customHeight="1">
+      <c r="A64" s="165"/>
+      <c r="B64" s="140"/>
+      <c r="C64" s="165" t="s">
+        <v>310</v>
+      </c>
+      <c r="D64" s="188" t="s">
+        <v>311</v>
+      </c>
+      <c r="E64" s="165" t="s">
+        <v>305</v>
+      </c>
+      <c r="F64" s="165" t="s">
+        <v>312</v>
+      </c>
+      <c r="G64" s="175" t="s">
+        <v>313</v>
+      </c>
+      <c r="H64" s="176"/>
+      <c r="I64" s="165" t="s">
+        <v>225</v>
+      </c>
+      <c r="J64" s="166"/>
+      <c r="K64" s="167"/>
+      <c r="L64" s="165"/>
+    </row>
+    <row r="65" spans="1:12" ht="54.75" customHeight="1">
+      <c r="A65" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="167" t="s">
-        <v>258</v>
+      <c r="B65" s="162" t="s">
+        <v>314</v>
       </c>
-      <c r="C59" s="168" t="s">
-        <v>303</v>
+      <c r="C65" s="162" t="s">
+        <v>315</v>
       </c>
-      <c r="D59" s="175" t="s">
-        <v>291</v>
+      <c r="D65" s="189" t="s">
+        <v>316</v>
       </c>
-      <c r="E59" s="168" t="s">
-        <v>258</v>
+      <c r="E65" s="162" t="s">
+        <v>317</v>
       </c>
-      <c r="F59" s="168" t="s">
-        <v>289</v>
+      <c r="F65" s="162" t="s">
+        <v>318</v>
       </c>
-      <c r="G59" s="121" t="s">
-        <v>293</v>
+      <c r="G65" s="177" t="s">
+        <v>319</v>
       </c>
-      <c r="H59" s="141"/>
-      <c r="I59" s="167" t="s">
-        <v>281</v>
-      </c>
-      <c r="J59" s="169"/>
-      <c r="K59" s="170"/>
-      <c r="L59" s="167"/>
-      <c r="M59" s="171"/>
-      <c r="N59" s="171"/>
-      <c r="O59" s="171"/>
-      <c r="P59" s="171"/>
-      <c r="Q59" s="171"/>
-      <c r="R59" s="171"/>
-      <c r="S59" s="171"/>
-      <c r="T59" s="171"/>
-      <c r="U59" s="172"/>
-      <c r="V59" s="173"/>
-      <c r="W59" s="173"/>
-      <c r="X59" s="173"/>
-      <c r="Y59" s="173"/>
-      <c r="Z59" s="173"/>
-    </row>
-    <row r="60" spans="1:26" s="80" customFormat="1" ht="159" customHeight="1">
-      <c r="A60" s="184"/>
-      <c r="B60" s="184" t="s">
-        <v>294</v>
-      </c>
-      <c r="C60" s="190" t="s">
-        <v>295</v>
-      </c>
-      <c r="D60" s="209" t="s">
-        <v>296</v>
-      </c>
-      <c r="E60" s="190" t="s">
-        <v>294</v>
-      </c>
-      <c r="F60" s="190" t="s">
-        <v>297</v>
-      </c>
-      <c r="G60" s="210" t="s">
-        <v>298</v>
-      </c>
-      <c r="H60" s="211"/>
-      <c r="I60" s="184" t="s">
-        <v>281</v>
-      </c>
-      <c r="J60" s="185"/>
-      <c r="K60" s="186"/>
-      <c r="L60" s="184"/>
-      <c r="M60" s="187"/>
-      <c r="N60" s="187"/>
-      <c r="O60" s="187"/>
-      <c r="P60" s="187"/>
-      <c r="Q60" s="187"/>
-      <c r="R60" s="187"/>
-      <c r="S60" s="187"/>
-      <c r="T60" s="187"/>
-      <c r="U60" s="188"/>
-      <c r="V60" s="189"/>
-      <c r="W60" s="189"/>
-      <c r="X60" s="189"/>
-      <c r="Y60" s="189"/>
-      <c r="Z60" s="189"/>
-    </row>
-    <row r="61" spans="1:26" s="80" customFormat="1" ht="159" customHeight="1">
-      <c r="A61" s="184"/>
-      <c r="B61" s="184" t="s">
-        <v>294</v>
-      </c>
-      <c r="C61" s="190" t="s">
-        <v>300</v>
-      </c>
-      <c r="D61" s="209" t="s">
-        <v>302</v>
-      </c>
-      <c r="E61" s="190" t="s">
-        <v>294</v>
-      </c>
-      <c r="F61" s="190" t="s">
-        <v>299</v>
-      </c>
-      <c r="G61" s="210" t="s">
-        <v>301</v>
-      </c>
-      <c r="H61" s="211"/>
-      <c r="I61" s="184" t="s">
-        <v>281</v>
-      </c>
-      <c r="J61" s="185"/>
-      <c r="K61" s="186"/>
-      <c r="L61" s="184"/>
-      <c r="M61" s="187"/>
-      <c r="N61" s="187"/>
-      <c r="O61" s="187"/>
-      <c r="P61" s="187"/>
-      <c r="Q61" s="187"/>
-      <c r="R61" s="187"/>
-      <c r="S61" s="187"/>
-      <c r="T61" s="187"/>
-      <c r="U61" s="188"/>
-      <c r="V61" s="189"/>
-      <c r="W61" s="189"/>
-      <c r="X61" s="189"/>
-      <c r="Y61" s="189"/>
-      <c r="Z61" s="189"/>
-    </row>
-    <row r="62" spans="1:26" s="106" customFormat="1" ht="159" customHeight="1">
-      <c r="A62" s="176" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" s="176" t="s">
-        <v>266</v>
-      </c>
-      <c r="C62" s="177" t="s">
-        <v>224</v>
-      </c>
-      <c r="D62" s="178" t="s">
+      <c r="H65" s="178"/>
+      <c r="I65" s="162" t="s">
         <v>225</v>
       </c>
-      <c r="E62" s="177" t="s">
-        <v>226</v>
-      </c>
-      <c r="F62" s="177" t="s">
-        <v>260</v>
-      </c>
-      <c r="G62" s="140" t="s">
-        <v>261</v>
-      </c>
-      <c r="H62" s="159"/>
-      <c r="I62" s="176" t="s">
-        <v>281</v>
-      </c>
-      <c r="J62" s="179"/>
-      <c r="K62" s="180"/>
-      <c r="L62" s="176"/>
-      <c r="M62" s="181"/>
-      <c r="N62" s="181"/>
-      <c r="O62" s="181"/>
-      <c r="P62" s="181"/>
-      <c r="Q62" s="181"/>
-      <c r="R62" s="181"/>
-      <c r="S62" s="181"/>
-      <c r="T62" s="181"/>
-      <c r="U62" s="182"/>
-      <c r="V62" s="183"/>
-      <c r="W62" s="183"/>
-      <c r="X62" s="183"/>
-      <c r="Y62" s="183"/>
-      <c r="Z62" s="183"/>
+      <c r="J65" s="163"/>
+      <c r="K65" s="164"/>
+      <c r="L65" s="162"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="97">
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="A42:A52"/>
+    <mergeCell ref="B42:B52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
@@ -62684,13 +62611,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G38:H38"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="4">
@@ -62698,13 +62618,13 @@
       <formula1>36526</formula1>
       <formula2>401768</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="J6:J19 J21:J50" xr:uid="{00000000-0002-0000-0300-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="J6:J22 J24:J51" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"추가,수정,삭제"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="I6:I51" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"구현,검증,제안,수용,연기,불가"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="A6:A50" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="A6 A18 A24 A26 A32 A38 A21 A12 A42" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"기능,기술,인터페이스,기본 요건"</formula1>
     </dataValidation>
   </dataValidations>
